--- a/downloads/clinique_reviews.xlsx
+++ b/downloads/clinique_reviews.xlsx
@@ -31,1930 +31,1930 @@
     <t>sku</t>
   </si>
   <si>
+    <t>Clinique For Men™ Face Wash</t>
+  </si>
+  <si>
+    <t>Clinique for Men™ Anti-Age Eye Cream</t>
+  </si>
+  <si>
+    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Aloe Shave Gel</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Charcoal Face Wash</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Moisturizing Lotion</t>
+  </si>
+  <si>
     <t>Clinique For Men™ Oil-Free Moisturizer</t>
   </si>
   <si>
+    <t>Clinique For Men™ Maximum Hydrator Activated Water-Gel Concentrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
+  </si>
+  <si>
     <t>Clinique For Men™ Broad Spectrum SPF 21 Moisturizer</t>
   </si>
   <si>
-    <t>Clinique For Men™ Face Wash</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Maximum Hydrator Activated Water-Gel Concentrate</t>
-  </si>
-  <si>
     <t>Clinique Happy&amp;trade; For Men Cologne Spray</t>
   </si>
   <si>
-    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Charcoal Face Wash</t>
-  </si>
-  <si>
-    <t>Clinique for Men™ Anti-Age Eye Cream</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Aloe Shave Gel</t>
+    <t>Clinique For Men Super Energizer™ Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
   </si>
   <si>
     <t>Clinique For Men™ Face Scrub</t>
   </si>
   <si>
-    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
-  </si>
-  <si>
-    <t>Clinique For Men Super Energizer™ Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Moisturizing Lotion</t>
-  </si>
-  <si>
     <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
   </si>
   <si>
-    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
-  </si>
-  <si>
     <t>Clinique for Men™ Cream Shave</t>
   </si>
   <si>
     <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
   </si>
   <si>
+    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
+  </si>
+  <si>
     <t>Clinique For Men™ Starter Kit – Daily Oil Control</t>
   </si>
   <si>
+    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir™ Body Smoother</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Paradise™ Limited Edition Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique My Happy™ Peony Picnic </t>
+  </si>
+  <si>
     <t>Clinique For Men™ Starter Kit – Daily Intense Hydration</t>
   </si>
   <si>
     <t>Perfectly Happy Fragrance and Makeup Set</t>
   </si>
   <si>
-    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
+    <t>Perfectly Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Cookies &amp; Kisses</t>
+  </si>
+  <si>
+    <t>Aromatics in White</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Lipstick Shaping Lip Colour</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Body Cream</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir Riches Fragrance Set</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
+  </si>
+  <si>
+    <t>Clinique Pop™ Longwear Lipstick</t>
+  </si>
+  <si>
+    <t>Even Better™ All-Over Concealer + Eraser</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Mascara</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Eyes Eyeliner</t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Serum Foundation Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Blended Face Powder</t>
+  </si>
+  <si>
+    <t>NEW High Impact Shadow Play™ Shadow + Definer</t>
+  </si>
+  <si>
+    <t>Twice the Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Sunny Day Skincare and Makeup Staples</t>
+  </si>
+  <si>
+    <t>Cheek Pop™</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Cream Shaper&amp;trade; For Eyes</t>
+  </si>
+  <si>
+    <t>High Impact™ Gel Tech Eyeliner</t>
+  </si>
+  <si>
+    <t>Aromatics in Black</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Liquid Makeup</t>
+  </si>
+  <si>
+    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Single</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Sculpting Highlight</t>
+  </si>
+  <si>
+    <t>Lash Power™ Mascara Long-Wearing Formula</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Duo</t>
+  </si>
+  <si>
+    <t>Superbalanced™ Makeup</t>
+  </si>
+  <si>
+    <t>High Impact High-Fi™ Full Volume Mascara</t>
+  </si>
+  <si>
+    <t>Blush Brush</t>
+  </si>
+  <si>
+    <t>Even Better™ All-Over Primer and Color Corrector</t>
+  </si>
+  <si>
+    <t>Even Better™ Light Reflecting Primer</t>
+  </si>
+  <si>
+    <t>Even Better™ Pore Defying Primer</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ 100H Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Summer Day Skincare and Makeup Essentials</t>
+  </si>
+  <si>
+    <t>Stay-Matte Universal Blotting Powder</t>
+  </si>
+  <si>
+    <t>Stay-Matte Oil-Free Makeup</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Cheek Colour Balm</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
+  </si>
+  <si>
+    <t>Almost Powder Makeup Broad Spectrum SPF 18</t>
+  </si>
+  <si>
+    <t>Clinique Skincare and Makeup Icons</t>
+  </si>
+  <si>
+    <t>Soft-Pressed Powder Blusher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique Pop Plush™ Creamy Lip Gloss </t>
+  </si>
+  <si>
+    <t>High Impact™ Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Clinical Clearing Gel</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Intense 72H Lipid-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Bottom Lash Mascara&amp;trade;</t>
+  </si>
+  <si>
+    <t>High Impact™ Waterproof Mascara</t>
+  </si>
+  <si>
+    <t>High Impact™ Custom Black Kajal</t>
+  </si>
+  <si>
+    <t>High Impact Zero Gravity™ Mascara</t>
   </si>
   <si>
     <t>Clinique Happy&amp;trade; Body Wash</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinique My Happy™ Peony Picnic </t>
+    <t>All About Shadow™ Octet</t>
+  </si>
+  <si>
+    <t>Chubby Lash&amp;trade; Fattening Mascara</t>
+  </si>
+  <si>
+    <t>Redness Solutions Makeup Broad Spectrum SPF 15 With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Turnaround&amp;trade; Accelerated Renewal Serum</t>
+  </si>
+  <si>
+    <t>Redness Solutions Instant Relief Mineral Pressed Powder With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>All About Shadow&amp;trade; Quad</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Protective Base Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Brow Shaper</t>
+  </si>
+  <si>
+    <t>Instant Lift For Brows</t>
+  </si>
+  <si>
+    <t>Just Browsing Brush-On Styling Mousse</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Hydrating Jelly</t>
+  </si>
+  <si>
+    <t>Foundation Brush</t>
+  </si>
+  <si>
+    <t>Powder Brush</t>
+  </si>
+  <si>
+    <t>Naturally Gentle Eye Makeup Remover</t>
+  </si>
+  <si>
+    <t>Bronzer/Blender Brush</t>
+  </si>
+  <si>
+    <t>Eye Shadow Brush</t>
   </si>
   <si>
     <t>Clinique Happy Heart™ Eau de Parfum Spray</t>
   </si>
   <si>
-    <t>Even Better Clinical™ Serum Foundation Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Twice the Happy Fragrance Set</t>
+    <t>Makeup Brush Cleanser</t>
+  </si>
+  <si>
+    <t>Concealer Brush</t>
+  </si>
+  <si>
+    <t>Blushing Blush&amp;trade; Powder Blush</t>
+  </si>
+  <si>
+    <t>Clinique Fresh Pressed™ Daily Booster with Pure Vitamin C 10%</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting™ Powder Foundation + Concealer</t>
+  </si>
+  <si>
+    <t>Clinique Smart™ Broad Spectrum SPF 15 Custom-Repair Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Serum</t>
+  </si>
+  <si>
+    <t>NEW Take The Day Off™ Facial Cleansing Mousse</t>
+  </si>
+  <si>
+    <t>All About Clean™ Liquid Facial Soap</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Eye Cream with Vitamin C</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 2</t>
+  </si>
+  <si>
+    <t>All About Clean™ Rinse-Off Foaming Cleanser</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Sheertint Hydrator Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Stay-Matte Sheer Pressed Powder</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Moisturizing Lip Colour Balm</t>
+  </si>
+  <si>
+    <t>NEW Clinique Smart Clinical Repair™ Lifting Face + Neck Cream</t>
+  </si>
+  <si>
+    <t>Clinique Smart Night™ Clinical MD Multi-Dimensional Repair Treatment Retinol</t>
+  </si>
+  <si>
+    <t>Take The Day Off™ Charcoal Cleansing Balm</t>
+  </si>
+  <si>
+    <t>Even Better™ Brightening Moisturizer SPF 20</t>
+  </si>
+  <si>
+    <t>Repairwear™ Anti-Gravity Eye Cream</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Serum De-Puffing Eye Massage</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Rich Eye Cream with Hyaluronic Acid</t>
+  </si>
+  <si>
+    <t>Moisture Surge&amp;trade; Overnight Mask</t>
   </si>
   <si>
     <t>Superpowder Double Face Makeup</t>
   </si>
   <si>
-    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Cookies &amp; Kisses</t>
-  </si>
-  <si>
-    <t>NEW High Impact Shadow Play™ Shadow + Definer</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir™ Body Smoother</t>
-  </si>
-  <si>
-    <t>Aromatics in Black</t>
-  </si>
-  <si>
-    <t>Clinique Skincare and Makeup Icons</t>
-  </si>
-  <si>
-    <t>High Impact High-Fi™ Full Volume Mascara</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir Riches Fragrance Set</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
-  </si>
-  <si>
-    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Paradise™ Limited Edition Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique Pop Plush™ Creamy Lip Gloss </t>
+    <t>All About Clean™ All-in-One Cleansing Micellar Milk + Makeup Remover</t>
+  </si>
+  <si>
+    <t>True Bronze™ Pressed Powder Bronzer</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Acne + Line Correcting Serum</t>
+  </si>
+  <si>
+    <t>All About Clean™ 2-in-1 Charcoal Mask + Scrub</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Extreme Volume Mascara</t>
+  </si>
+  <si>
+    <t>Lash Building Primer</t>
+  </si>
+  <si>
+    <t>Redness Solutions Redness Regimen</t>
+  </si>
+  <si>
+    <t>Even Better Eyes™ Dark Circle Corrector</t>
+  </si>
+  <si>
+    <t>Repairwear Laser Focus&amp;trade; Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Eyes Intense Eyeliner</t>
+  </si>
+  <si>
+    <t>Redness Solutions Soothing Cleanser With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Cleansing Gel</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
+  </si>
+  <si>
+    <t>Clarifying Do-Over Peel</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 3</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Primer for Eyes</t>
+  </si>
+  <si>
+    <t>Dramatically Different&amp;trade; Moisturizing Cream</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions Self-Heating Blackhead Extractor</t>
+  </si>
+  <si>
+    <t>Take The Day Off&amp;trade; Cleansing Oil</t>
+  </si>
+  <si>
+    <t>Rinse-Off Eye Makeup Solvent</t>
+  </si>
+  <si>
+    <t>Extra Gentle Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Eye Definer Brush</t>
+  </si>
+  <si>
+    <t>SPF 50 Mineral Sunscreen Fluid For Face</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Butter</t>
+  </si>
+  <si>
+    <t>Even Better™ Brightening Essence Lotion</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 50 Sunscreen Face Cream</t>
+  </si>
+  <si>
+    <t>Clinique Pep-Start™ Daily UV Protector Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Moisture</t>
   </si>
   <si>
     <t>Beyond Perfecting™ Foundation + Concealer</t>
   </si>
   <si>
-    <t>Quickliner™ For Eyes Intense Eyeliner</t>
+    <t>Even Better Refresh™ Hydrating and Repairing Makeup</t>
+  </si>
+  <si>
+    <t>Clinique Fresh Pressed™ Renewing Powder Cleanser with Pure Vitamin C</t>
+  </si>
+  <si>
+    <t>Exfoliating Scrub</t>
+  </si>
+  <si>
+    <t>Antiperspirant-Deodorant Roll-On</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Smooth + Renew Lab</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Lip Hydro-Plump Treatment</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Glowing Skin Essentials</t>
+  </si>
+  <si>
+    <t>Take The Day Off&amp;trade; Cleansing Balm</t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Radical Dark Spot Corrector + Interrupter</t>
+  </si>
+  <si>
+    <t>Sparkle Skin&amp;trade; Body Exfoliating Cream</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Rich Cream</t>
+  </si>
+  <si>
+    <t>Clinique Sonic System Purifying Cleansing Brush Head</t>
+  </si>
+  <si>
+    <t>All About Clean™ 2-in-1 Cleansing + Exfoliating Jelly</t>
+  </si>
+  <si>
+    <t>Repairwear&amp;trade; Uplifting Firming Cream Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Lash Doubling Mascara</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Relief Cream</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Hydrating Supercharged Concentrate</t>
+  </si>
+  <si>
+    <t>Moisture Surge Eye™ 96-Hour Hydro-Filler Concentrate</t>
+  </si>
+  <si>
+    <t>Easy Eye Duo Set</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ All-Over Clearing Treatment</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Clarifying Lotion</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 4</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Scrub</t>
+  </si>
+  <si>
+    <t>NEW Clinique Smart Clinical Repair™ Broad Spectrum SPF 30 Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Superdefense™ City Block Broad Spectrum SPF 50 Daily Energy + Face Protector</t>
+  </si>
+  <si>
+    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Eye Shader Brush</t>
+  </si>
+  <si>
+    <t>Deep Comfort&amp;trade; Hand and Cuticle Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad Spectrum SPF 30 Sunscreen Oil-Free Face Cream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take The Day Off™ Makeup Remover For Lids, Lashes &amp; Lips </t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Cleanser Refresher Course (Type 3 &amp; 4)</t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Anti-Age Moisturizer</t>
+  </si>
+  <si>
+    <t>Sparkle Skin&amp;trade; Body Exfoliator</t>
+  </si>
+  <si>
+    <t>Good to Glow: All-in-One Face Palette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture Surge™ Broad Spectrum SPF 28 Sheer Hydrator </t>
+  </si>
+  <si>
+    <t>7 Day Scrub Cream Rinse-Off Formula</t>
+  </si>
+  <si>
+    <t>Moisture Surge&amp;trade; Face Spray Thirsty Skin Relief</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Sculpting Contour</t>
+  </si>
+  <si>
+    <t>All About Clean™ Foaming Facial Soap</t>
+  </si>
+  <si>
+    <t>Quickliner&amp;trade; For Lips</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Brows Eyebrow Pencil</t>
+  </si>
+  <si>
+    <t>Foundation Buff Brush</t>
+  </si>
+  <si>
+    <t>Sun-Kissed Face Gelee Complexion Multitasker</t>
+  </si>
+  <si>
+    <t>Take the Day Off™ Micellar Cleansing Towelettes for Face &amp; Eyes</t>
+  </si>
+  <si>
+    <t>Even Better™ Makeup Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Cleanser Refresher Course (Type 1 &amp; 2)</t>
   </si>
   <si>
     <t>Touch Base For Eyes&amp;trade;</t>
   </si>
   <si>
-    <t>Blushing Blush&amp;trade; Powder Blush</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Liquid Makeup</t>
-  </si>
-  <si>
-    <t>Stay-Matte Sheer Pressed Powder</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Duo</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Even Better™ All-Over Concealer + Eraser</t>
-  </si>
-  <si>
-    <t>Superbalanced™ Makeup</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Single</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Cream</t>
-  </si>
-  <si>
-    <t>Brow Shaper</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Mascara</t>
-  </si>
-  <si>
-    <t>Soft-Pressed Powder Blusher</t>
-  </si>
-  <si>
-    <t>Even Better™ Makeup Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>High Impact Zero Gravity™ Mascara</t>
-  </si>
-  <si>
-    <t>Even Better™ Light Reflecting Primer</t>
-  </si>
-  <si>
-    <t>Sunny Day Skincare and Makeup Staples</t>
-  </si>
-  <si>
-    <t>Even Better Refresh™ Hydrating and Repairing Makeup</t>
-  </si>
-  <si>
-    <t>Take The Day Off&amp;trade; Cleansing Balm</t>
-  </si>
-  <si>
-    <t>Blended Face Powder</t>
-  </si>
-  <si>
-    <t>Good to Glow: All-in-One Face Palette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moisture Surge™ Broad Spectrum SPF 28 Sheer Hydrator </t>
-  </si>
-  <si>
-    <t>Moisture Surge™ CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>Dramatically Different™ Lipstick Shaping Lip Colour</t>
-  </si>
-  <si>
-    <t>Summer Day Skincare and Makeup Essentials</t>
-  </si>
-  <si>
-    <t>High Impact™ Custom Black Kajal</t>
-  </si>
-  <si>
-    <t>High Impact™ Easy Liquid Eyeliner</t>
-  </si>
-  <si>
-    <t>High Impact™ Gel Tech Eyeliner</t>
-  </si>
-  <si>
-    <t>True Bronze™ Pressed Powder Bronzer</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Sculpting Highlight</t>
-  </si>
-  <si>
-    <t>Lash Doubling Mascara</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Extreme Volume Mascara</t>
-  </si>
-  <si>
-    <t>Just Browsing Brush-On Styling Mousse</t>
-  </si>
-  <si>
-    <t>Redness Solutions Daily Protective Base Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>Quickliner™ For Eyes Eyeliner</t>
-  </si>
-  <si>
-    <t>Quickliner™ For Brows Eyebrow Pencil</t>
-  </si>
-  <si>
-    <t>Even Better™ Pore Defying Primer</t>
-  </si>
-  <si>
-    <t>Redness Solutions Instant Relief Mineral Pressed Powder With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Octet</t>
-  </si>
-  <si>
-    <t>Powder Brush</t>
-  </si>
-  <si>
-    <t>Blush Brush</t>
-  </si>
-  <si>
-    <t>All About Clean™ All-in-One Cleansing Micellar Milk + Makeup Remover</t>
-  </si>
-  <si>
-    <t>Lash Building Primer</t>
-  </si>
-  <si>
-    <t>All About Shadow&amp;trade; Quad</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Eye Shader Brush</t>
-  </si>
-  <si>
-    <t>Eye Shadow Brush</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Moisturizing Lip Colour Balm</t>
-  </si>
-  <si>
-    <t>All About Eyes™ Eye Cream with Vitamin C</t>
+    <t>Facial Soap</t>
+  </si>
+  <si>
+    <t>Non-Aerosol Hairspray</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Wash</t>
+  </si>
+  <si>
+    <t>Repairwear™ Intensive Lip Treatment</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Hydro-Infused Lotion</t>
   </si>
   <si>
     <t>Broad Spectrum SPF 50 Sunscreen Body Cream</t>
   </si>
   <si>
-    <t>NEW Clinique Smart Clinical Repair™ Broad Spectrum SPF 30 Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take The Day Off™ Makeup Remover For Lids, Lashes &amp; Lips </t>
-  </si>
-  <si>
-    <t>Antiperspirant-Deodorant Roll-On</t>
-  </si>
-  <si>
-    <t>All About Clean™ Liquid Facial Soap</t>
-  </si>
-  <si>
-    <t>Beyond Perfecting™ Powder Foundation + Concealer</t>
-  </si>
-  <si>
-    <t>Stay-Matte Oil-Free Makeup</t>
-  </si>
-  <si>
-    <t>Dramatically Different™ Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>NEW Clinique Smart Clinical Repair™ Lifting Face + Neck Cream</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Rich Cream</t>
-  </si>
-  <si>
-    <t>Cream Shaper&amp;trade; For Eyes</t>
-  </si>
-  <si>
-    <t>Even Better™ Brightening Moisturizer SPF 20</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Hydrating Supercharged Concentrate</t>
-  </si>
-  <si>
-    <t>All About Clean™ Rinse-Off Foaming Cleanser</t>
-  </si>
-  <si>
-    <t>7 Day Scrub Cream Rinse-Off Formula</t>
-  </si>
-  <si>
-    <t>Easy Eye Duo Set</t>
-  </si>
-  <si>
-    <t>Moisture Surge&amp;trade; Overnight Mask</t>
-  </si>
-  <si>
-    <t>Take The Day Off™ Charcoal Cleansing Balm</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Sheertint Hydrator Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Turnaround&amp;trade; Accelerated Renewal Serum</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Cleansing Gel</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
-  </si>
-  <si>
-    <t>Redness Solutions Soothing Cleanser With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>Bottom Lash Mascara&amp;trade;</t>
-  </si>
-  <si>
-    <t>Redness Solutions Redness Regimen</t>
-  </si>
-  <si>
-    <t>Repairwear™ Anti-Gravity Eye Cream</t>
-  </si>
-  <si>
-    <t>Redness Solutions Makeup Broad Spectrum SPF 15 With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Acne + Line Correcting Serum</t>
-  </si>
-  <si>
-    <t>Cheek Pop™</t>
-  </si>
-  <si>
-    <t>Repairwear&amp;trade; Uplifting Firming Cream Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 1</t>
-  </si>
-  <si>
-    <t>Chubby Lash&amp;trade; Fattening Mascara</t>
-  </si>
-  <si>
-    <t>Instant Lift For Brows</t>
-  </si>
-  <si>
-    <t>All About Clean™ Foaming Facial Soap</t>
-  </si>
-  <si>
-    <t>All About Eyes™ Serum De-Puffing Eye Massage</t>
-  </si>
-  <si>
-    <t>Foundation Buff Brush</t>
-  </si>
-  <si>
-    <t>Lash Power™ Mascara Long-Wearing Formula</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Cheek Colour Balm</t>
-  </si>
-  <si>
-    <t>Broad Spectrum SPF 50 Sunscreen Face Cream</t>
-  </si>
-  <si>
-    <t>Almost Powder Makeup Broad Spectrum SPF 18</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions Self-Heating Blackhead Extractor</t>
-  </si>
-  <si>
-    <t>Makeup Brush Cleanser</t>
-  </si>
-  <si>
-    <t>Sun-Kissed Face Gelee Complexion Multitasker</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ 100H Auto-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>Clinique Fresh Pressed™ Renewing Powder Cleanser with Pure Vitamin C</t>
-  </si>
-  <si>
-    <t>Sparkle Skin&amp;trade; Body Exfoliating Cream</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Lip Hydro-Plump Treatment</t>
-  </si>
-  <si>
-    <t>Sparkle Skin&amp;trade; Body Exfoliator</t>
-  </si>
-  <si>
-    <t>Stay-Matte Universal Blotting Powder</t>
-  </si>
-  <si>
-    <t>Deep Comfort™ Body Butter</t>
-  </si>
-  <si>
-    <t>Even Better Clinical™ Brightening Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Anti-Age Moisturizer</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Cleanser Refresher Course (Type 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>NEW Take The Day Off™ Facial Cleansing Mousse</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Clinique Smart Night™ Clinical MD Multi-Dimensional Repair Treatment Retinol</t>
-  </si>
-  <si>
-    <t>Clinique Smart™ Broad Spectrum SPF 15 Custom-Repair Moisturizer</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Intense 72H Lipid-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>All About Clean™ 2-in-1 Charcoal Mask + Scrub</t>
-  </si>
-  <si>
-    <t>Aromatics in White</t>
-  </si>
-  <si>
-    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>Non-Aerosol Hairspray</t>
-  </si>
-  <si>
-    <t>Perfectly Happy Fragrance Set</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Sculpting Contour</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Even Better Eyes™ Dark Circle Corrector</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 4</t>
-  </si>
-  <si>
-    <t>All About Eyes™ Rich Eye Cream with Hyaluronic Acid</t>
-  </si>
-  <si>
     <t>Turnaround™ Overnight Revitalizing Moisturizer</t>
   </si>
   <si>
-    <t>Repairwear Laser Focus&amp;trade; Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>Foundation Brush</t>
-  </si>
-  <si>
-    <t>Bronzer/Blender Brush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broad Spectrum SPF 30 Sunscreen Oil-Free Face Cream </t>
-  </si>
-  <si>
-    <t>Eye Definer Brush</t>
-  </si>
-  <si>
-    <t>Concealer Brush</t>
-  </si>
-  <si>
-    <t>Dramatically Different™ Hydrating Jelly</t>
-  </si>
-  <si>
-    <t>Superdefense™ City Block Broad Spectrum SPF 50 Daily Energy + Face Protector</t>
-  </si>
-  <si>
-    <t>SPF 50 Mineral Sunscreen Fluid For Face</t>
-  </si>
-  <si>
-    <t>Take The Day Off&amp;trade; Cleansing Oil</t>
-  </si>
-  <si>
-    <t>Clinique Pep-Start™ Daily UV Protector Broad Spectrum SPF 50</t>
-  </si>
-  <si>
-    <t>Even Better™ Brightening Essence Lotion</t>
-  </si>
-  <si>
-    <t>Naturally Gentle Eye Makeup Remover</t>
-  </si>
-  <si>
-    <t>Rinse-Off Eye Makeup Solvent</t>
-  </si>
-  <si>
-    <t>Deep Comfort™ Body Moisture</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Serum</t>
-  </si>
-  <si>
-    <t>Exfoliating Scrub</t>
-  </si>
-  <si>
-    <t>Repairwear™ Intensive Lip Treatment</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Glowing Skin Essentials</t>
-  </si>
-  <si>
-    <t>Even Better Clinical™ Radical Dark Spot Corrector + Interrupter</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 2</t>
-  </si>
-  <si>
-    <t>Moisture Surge&amp;trade; Face Spray Thirsty Skin Relief</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Hydro-Infused Lotion</t>
-  </si>
-  <si>
-    <t>Facial Soap</t>
-  </si>
-  <si>
-    <t>Clinique Pop™ Longwear Lipstick</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Clinical Clearing Gel</t>
-  </si>
-  <si>
-    <t>Clinique Sonic System Purifying Cleansing Brush Head</t>
-  </si>
-  <si>
-    <t>Moisture Surge Eye™ 96-Hour Hydro-Filler Concentrate</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ All-Over Clearing Treatment</t>
-  </si>
-  <si>
-    <t>Quickliner&amp;trade; For Lips</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 3</t>
-  </si>
-  <si>
-    <t>Clarifying Do-Over Peel</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Scrub</t>
-  </si>
-  <si>
-    <t>Extra Gentle Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Deep Comfort™ Body Wash</t>
-  </si>
-  <si>
-    <t>Clinique Fresh Pressed™ Daily Booster with Pure Vitamin C 10%</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Smooth + Renew Lab</t>
-  </si>
-  <si>
-    <t>All About Clean™ 2-in-1 Cleansing + Exfoliating Jelly</t>
-  </si>
-  <si>
-    <t>Redness Solutions Daily Relief Cream</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Clarifying Lotion</t>
-  </si>
-  <si>
-    <t>High Impact™ Waterproof Mascara</t>
-  </si>
-  <si>
-    <t>Dramatically Different&amp;trade; Moisturizing Cream</t>
-  </si>
-  <si>
-    <t>Deep Comfort&amp;trade; Hand and Cuticle Cream</t>
-  </si>
-  <si>
-    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Cleanser Refresher Course (Type 3 &amp; 4)</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Primer for Eyes</t>
-  </si>
-  <si>
-    <t>Take the Day Off™ Micellar Cleansing Towelettes for Face &amp; Eyes</t>
-  </si>
-  <si>
-    <t>Even Better™ All-Over Primer and Color Corrector</t>
+    <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1626/86689/mens/skin-care/moisturize-protect/clinique-for-mentm-oil-free-moisturizer</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
+    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/1623/4802/mens/shave/clinique-for-mentm-cream-shave</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1619/57010/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-oil-control</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1619/57009/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-intense-hydration</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/60030/makeup/lipsticks/dramatically-differenttm-lipstick-shaping-lip-colour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126216/gift-center/all-gifts-sets/aromatics-elixir-riches-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1596/76702/makeup/concealers/even-bettertm-all-over-concealer-eraser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/4770/makeup/eyeliners/quicklinertm-for-eyes-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/80532/makeup/foundations/even-better-clinicaltm-serum-foundation-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6271/makeup/powders/blended-face-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/123647/makeup/eye-shadows/new-high-impact-shadow-playtm-shadow-definer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126073/gift-center/all-gifts-sets/sunny-day-skincare-and-makeup-staples</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/29770/makeup/blushers/cheek-poptm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/6140/makeup/eyeliners/cream-shaper-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/121425/makeup/eyeliners/high-impacttm-gel-tech-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/9285/makeup/foundations/acne-solutionstm-liquid-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27031/makeup/eye-shadows/all-about-shadowtm-single</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34748/makeup/contouring/chubby-stick-sculpting-highlight</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58211/makeup/mascara/lash-powertm-mascara-long-wearing-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27032/makeup/eye-shadows/all-about-shadowtm-duo</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/4989/makeup/foundations/superbalancedtm-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4869/makeup/the-brush-collection/blush-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/106268/makeup/primers/even-bettertm-all-over-primer-and-color-corrector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116157/makeup/primers/even-bettertm-light-reflecting-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116217/makeup/primers/even-bettertm-pore-defying-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/83690/skincare/moisturizers/moisture-surgetm-100h-auto-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126184/gift-center/all-gifts-sets/summer-day-skincare-and-makeup-essentials</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/40619/makeup/powders/stay-matte-universal-blotting-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/21954/makeup/foundations/stay-matte-oil-free-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/30944/makeup/blushers/chubby-stick-cheek-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/25255/makeup/foundations/bb-and-cc-cream/moisture-surgetm-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/61087/makeup/foundations/almost-powder-makeup-broad-spectrum-spf-18</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126261/gift-center/all-gifts-sets/clinique-skincare-and-makeup-icons</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5164/makeup/blushers/soft-pressed-powder-blusher</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1603/106865/makeup/lip-glosses/clinique-pop-plushtm-creamy-lip-gloss</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/101223/makeup/eyeliners/high-impacttm-easy-liquid-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1672/29793/skincare/acne/treatment-specialists/acne-solutionstm-clinical-clearing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/79628/skincare/moisturizers/moisture-surgetm-intense-72h-lipid-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58212/makeup/mascara/bottom-lash-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/24805/makeup/mascara/high-impacttm-waterproof-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/41979/makeup/eyeliners/high-impacttm-custom-black-kajal</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/93578/makeup/mascara/high-impact-zero-gravitytm-mascara</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
+    <t>https://www.clinique.com/product/1598/121426/makeup/eye-shadows/all-about-shadowtm-octet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/36482/makeup/mascara/chubby-lash-fattening-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/13188/skincare/redness/redness-solutions-makeup-broad-spectrum-spf-15-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1680/46673/skincare/dullness/daily-renewal/turnaround-accelerated-renewal-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/12934/skincare/redness/redness-solutions-instant-relief-mineral-pressed-powder-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27033/makeup/eye-shadows/all-about-shadow-quad</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6008/skincare/redness/redness-solutions-daily-protective-base-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/5634/makeup/brows/brow-shaper</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/55683/makeup/brows/instant-lift-for-brows</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/36585/makeup/brows/just-browsing-brush-on-styling-mousse</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/58208/3-step/step-3-moisturize/dramatically-differenttm-hydrating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4923/makeup/the-brush-collection/foundation-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5953/makeup/the-brush-collection/powder-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/4992/skincare/cleansers-makeup-removers/naturally-gentle-eye-makeup-remover</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6349/makeup/the-brush-collection/bronzerblender-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6344/makeup/the-brush-collection/eye-shadow-brush</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1599/80532/makeup/foundations/even-better-clinicaltm-serum-foundation-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
+    <t>https://www.clinique.com/product/1608/5730/makeup/the-brush-collection/makeup-brush-cleanser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4868/makeup/the-brush-collection/concealer-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5265/makeup/blushers/blushing-blush-powder-blush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/18919/43160/skincare/fresh-pressed/clinique-fresh-pressedtm-daily-booster-with-pure-vitamin-c-10</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/37389/makeup/foundations/beyond-perfectingtm-powder-foundation-concealer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/37483/skincare/moisturizers/clinique-smarttm-broad-spectrum-spf-15-custom-repair-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/87057/skincare/serum/clinique-smart-clinical-repairtm-wrinkle-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/121428/skincare/cleansers-makeup-removers/new-take-the-day-offtm-facial-cleansing-mousse</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/8279/skincare/cleansers-makeup-removers/all-about-cleantm-liquid-facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/4769/skincare/eye-care/all-about-eyestm-eye-cream-with-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5047/skincare/moisturizers/dramatically-differenttm-moisturizing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15502/skincare/exfoliators/clarifying-lotion-2/exfoliates-to-balance-dry-combination-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6254/skincare/cleansers-makeup-removers/all-about-cleantm-rinse-off-foaming-cleanser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/64320/makeup/foundations/bb-and-cc-cream/moisture-surgetm-sheertint-hydrator-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6069/makeup/powders/stay-matte-sheer-pressed-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16320/104214/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/15520/makeup/lipsticks/chubby-stick-moisturizing-lip-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/118379/skincare/moisturizers/new-clinique-smart-clinical-repairtm-lifting-face-neck-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/81833/skincare/serum/clinique-smart-nighttm-clinical-md-multi-dimensional-repair-treatment-retinol</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/106898/skincare/makeup-removers/take-the-day-offtm-charcoal-cleansing-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106878/skincare/moisturizers/even-bettertm-brightening-moisturizer-spf-20</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1676/32630/skincare/de-aging/repair-247/repairweartm-anti-gravity-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1667/9423/skincare/all-about-eyestm-serum-de-puffing-eye-massage</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/15601/skincare/eye-care/all-about-eyestm-rich-eye-cream-with-hyaluronic-acid</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14706/24569/skincare/masks/moisture-surge-overnight-mask</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1599/6077/makeup/foundations/superpowder-double-face-makeup</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/123647/makeup/eye-shadows/new-high-impact-shadow-playtm-shadow-definer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126261/gift-center/all-gifts-sets/clinique-skincare-and-makeup-icons</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126216/gift-center/all-gifts-sets/aromatics-elixir-riches-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1603/106865/makeup/lip-glosses/clinique-pop-plushtm-creamy-lip-gloss</t>
+    <t>https://www.clinique.com/product/1673/76253/skincare/cleansers-makeup-removers/all-about-cleantm-all-in-one-cleansing-micellar-milk-makeup-remover</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1594/5737/makeup/bronzers/true-bronzetm-pressed-powder-bronzer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/40880/skincare/acne/acne-solutionstm-acne-line-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83736/skincare/exfoliators/all-about-cleantm-2-in-1-charcoal-mask-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/22759/makeup/mascara/high-impact-extreme-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5236/makeup/mascara/lash-building-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5553/skincare/redness/redness-solutions-redness-regimen</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/22695/skincare/eye-care/even-better-eyestm-dark-circle-corrector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/37235/skincare/eye-care/repairwear-laser-focus-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/12313/makeup/eyeliners/quicklinertm-for-eyes-intense-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5800/skincare/redness/redness-solutions-soothing-cleanser-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/34750/skincare/acne/acne-solutions-cleansing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5375/skincare/cleansers-makeup-removers/acne-solutions-cleansing-foam</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/41982/skincare/exfoliators/clarifying-lotion-10-twice-a-day-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/103171/skincare/exfoliators/clarifying-do-over-peel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15503/skincare/exfoliators/clarifying-lotion-3/exfoliates-to-balance-combination-oily-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27035/makeup/eye-shadows/all-about-shadowtm-primer-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/34679/3-step/step-3-moisturize/dramatically-different-moisturizing-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56037/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-self-heating-blackhead-extractor</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6555/skincare/cleansers-makeup-removers/take-the-day-off-cleansing-oil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5864/skincare/cleansers-makeup-removers/rinse-off-eye-makeup-solvent</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/38171/skincare/cleansers-makeup-removers/extra-gentle-cleansing-foam</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/19517/makeup/foundations/bb-and-cc-cream/age-defense-bb-cream-broad-spectrum-spf-30</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5954/makeup/the-brush-collection/eye-definer-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/40650/sun-protection-self-tanners/sun-protection/spf-50-mineral-sunscreen-fluid-for-face</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6089/skincare/hand-body-care/deep-comforttm-body-butter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/106905/skincare/watery-lotions/even-bettertm-brightening-essence-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5854/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/47339/sun-protection-self-tanners/sun-protection/clinique-pep-starttm-daily-uv-protector-broad-spectrum-spf-50</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5192/skincare/hand-body-care/deep-comforttm-body-moisture</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1599/34817/makeup/foundations/beyond-perfectingtm-foundation-concealer</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1597/12313/makeup/eyeliners/quicklinertm-for-eyes-intense-eyeliner</t>
+    <t>https://www.clinique.com/product/1599/63583/makeup/foundations/even-better-refreshtm-hydrating-and-repairing-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/18919/43162/skincare/fresh-pressed/clinique-fresh-pressedtm-renewing-powder-cleanser-with-pure-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/6277/skincare/exfoliators/exfoliating-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5678/skincare/hand-body-care/antiperspirant-deodorant-roll-on</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104217/gift-center/all-gifts-sets/skin-school-supplies-smooth-renew-lab</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/25356/64269/skincare/lip-care/moisture-surgetm-lip-hydro-plump-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104218/gift-center/all-gifts-sets/skin-school-supplies-glowing-skin-essentials</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/6424/skincare/makeup-removers/take-the-day-off-cleansing-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/68008/skincare/serum/even-better-clinicaltm-radical-dark-spot-corrector-interrupter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/4807/skincare/hand-body-care/sparkle-skin-body-exfoliating-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16320/109960/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-rich-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1572/31328/3-step/step-1-cleanse/clinique-sonic-system-purifying-cleansing-brush-head</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83735/skincare/exfoliators/all-about-cleantm-2-in-1-cleansing-exfoliating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/22875/skincare/moisturizers/repairwear-uplifting-firming-cream-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5232/makeup/mascara/lash-doubling-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6007/skincare/redness/redness-solutions-daily-relief-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/45043/skincare/moisturizers/moisture-surgetm-hydrating-supercharged-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/64270/skincare/eye-care/moisture-surge-eyetm-96-hour-hydro-filler-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/121190/gift-center/all-gifts-sets/easy-eye-duo-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/4977/skincare/moisturizers/acne-solutionstm-all-over-clearing-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/4976/skincare/exfoliators/acne-solutions-clarifying-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15504/3-step/step-2-exfoliate/clarifying-lotion-4/refreshing-exfoliator-for-oily-skin-types</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56035/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-7-day-deep-pore-cleanse-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/123646/skincare/moisturizers/new-clinique-smart-clinical-repairtm-broad-spectrum-spf-30-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/72241/sun-protection-self-tanners/sun-protection/superdefensetm-city-block-broad-spectrum-spf-50-daily-energy-face-protector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5861/sun-protection-self-tanners/sun-protection/city-block-sheer-oil-free-daily-face-protector-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6139/makeup/the-brush-collection/eye-shader-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6768/skincare/hand-body-care/deep-comfort-hand-and-cuticle-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1659/48282/sun-protection-self-tanners/broad-spectrum-spf-30-sunscreen-oil-free-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5380/skincare/cleansers-makeup-removers/take-the-day-offtm-makeup-remover-for-lids-lashes-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104241/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-3-4</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106904/skincare/moisturizers/even-better-clinicaltm-brightening-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/29405/mens/skin-care/moisturize-protect/clinique-for-mentm-anti-age-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5620/skincare/hand-body-care/sparkle-skin-body-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126256/gift-center/all-gifts-sets/good-to-glow-all-in-one-face-palette</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/115975/skincare/moisturizers/moisture-surgetm-broad-spectrum-spf-28-sheer-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5003/skincare/cleansers-makeup-removers/7-day-scrub-cream-rinse-off-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5449/skincare/moisturizers/moisture-surge-face-spray-thirsty-skin-relief</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34749/makeup/contouring/chubby-stick-sculpting-contour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/31385/skincare/cleansers-makeup-removers/all-about-cleantm-foaming-facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1604/4771/makeup/lip-liner/quickliner-for-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/101794/makeup/brows/quicklinertm-for-brows-eyebrow-pencil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12518/39687/makeup/the-brush-collection/face-brushes/foundation-buff-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1592/41442/makeup/sun-kissed-face-gelee-complexion-multitasker</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/40885/skincare/makeup-removers/take-the-day-offtm-micellar-cleansing-towelettes-for-face-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/5276/makeup/foundations/even-bettertm-makeup-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/106479/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-1-2</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1598/5169/makeup/eye-shadows/touch-base-for-eyes</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1593/5265/makeup/blushers/blushing-blush-powder-blush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/9285/makeup/foundations/acne-solutionstm-liquid-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/6069/makeup/powders/stay-matte-sheer-pressed-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27032/makeup/eye-shadows/all-about-shadowtm-duo</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1596/76702/makeup/concealers/even-bettertm-all-over-concealer-eraser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/4989/makeup/foundations/superbalancedtm-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27031/makeup/eye-shadows/all-about-shadowtm-single</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/5634/makeup/brows/brow-shaper</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/5164/makeup/blushers/soft-pressed-powder-blusher</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/5276/makeup/foundations/even-bettertm-makeup-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/93578/makeup/mascara/high-impact-zero-gravitytm-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/116157/makeup/primers/even-bettertm-light-reflecting-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126073/gift-center/all-gifts-sets/sunny-day-skincare-and-makeup-staples</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/63583/makeup/foundations/even-better-refreshtm-hydrating-and-repairing-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/6424/skincare/makeup-removers/take-the-day-off-cleansing-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/6271/makeup/powders/blended-face-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126256/gift-center/all-gifts-sets/good-to-glow-all-in-one-face-palette</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/115975/skincare/moisturizers/moisture-surgetm-broad-spectrum-spf-28-sheer-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/25255/makeup/foundations/bb-and-cc-cream/moisture-surgetm-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/60030/makeup/lipsticks/dramatically-differenttm-lipstick-shaping-lip-colour</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126184/gift-center/all-gifts-sets/summer-day-skincare-and-makeup-essentials</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/41979/makeup/eyeliners/high-impacttm-custom-black-kajal</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/101223/makeup/eyeliners/high-impacttm-easy-liquid-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/121425/makeup/eyeliners/high-impacttm-gel-tech-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1594/5737/makeup/bronzers/true-bronzetm-pressed-powder-bronzer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14346/34748/makeup/contouring/chubby-stick-sculpting-highlight</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5232/makeup/mascara/lash-doubling-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/22759/makeup/mascara/high-impact-extreme-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/36585/makeup/brows/just-browsing-brush-on-styling-mousse</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/6008/skincare/redness/redness-solutions-daily-protective-base-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/4770/makeup/eyeliners/quicklinertm-for-eyes-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/101794/makeup/brows/quicklinertm-for-brows-eyebrow-pencil</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/116217/makeup/primers/even-bettertm-pore-defying-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/12934/skincare/redness/redness-solutions-instant-relief-mineral-pressed-powder-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/121426/makeup/eye-shadows/all-about-shadowtm-octet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5953/makeup/the-brush-collection/powder-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4869/makeup/the-brush-collection/blush-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/76253/skincare/cleansers-makeup-removers/all-about-cleantm-all-in-one-cleansing-micellar-milk-makeup-remover</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5236/makeup/mascara/lash-building-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27033/makeup/eye-shadows/all-about-shadow-quad</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6139/makeup/the-brush-collection/eye-shader-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6344/makeup/the-brush-collection/eye-shadow-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/15520/makeup/lipsticks/chubby-stick-moisturizing-lip-colour-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/4769/skincare/eye-care/all-about-eyestm-eye-cream-with-vitamin-c</t>
+    <t>https://www.clinique.com/product/1572/4792/3-step/step-1-cleanse/facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6067/skincare/hand-body-care/non-aerosol-hairspray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15501/3-step/step-2-exfoliate/clarifying-lotion-1/gently-comfortably-exfoliates-dry-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/7004/skincare/hand-body-care/deep-comforttm-body-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/25356/6152/skincare/lip-care/repairweartm-intensive-lip-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/94055/skincare/eye-care/clinique-smart-clinical-repairtm-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/103370/skincare/watery-lotions/moisture-surgetm-hydro-infused-lotion</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1661/4972/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-body-cream</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1687/123646/skincare/moisturizers/new-clinique-smart-clinical-repairtm-broad-spectrum-spf-30-wrinkle-correcting-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5380/skincare/cleansers-makeup-removers/take-the-day-offtm-makeup-remover-for-lids-lashes-lips</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/5678/skincare/hand-body-care/antiperspirant-deodorant-roll-on</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/8279/skincare/cleansers-makeup-removers/all-about-cleantm-liquid-facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/37389/makeup/foundations/beyond-perfectingtm-powder-foundation-concealer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/21954/makeup/foundations/stay-matte-oil-free-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/5047/skincare/moisturizers/dramatically-differenttm-moisturizing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/118379/skincare/moisturizers/new-clinique-smart-clinical-repairtm-lifting-face-neck-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/94055/skincare/eye-care/clinique-smart-clinical-repairtm-wrinkle-correcting-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16320/109960/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-rich-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/6140/makeup/eyeliners/cream-shaper-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/106878/skincare/moisturizers/even-bettertm-brightening-moisturizer-spf-20</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/45043/skincare/moisturizers/moisture-surgetm-hydrating-supercharged-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/6254/skincare/cleansers-makeup-removers/all-about-cleantm-rinse-off-foaming-cleanser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5003/skincare/cleansers-makeup-removers/7-day-scrub-cream-rinse-off-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/121190/gift-center/all-gifts-sets/easy-eye-duo-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14706/24569/skincare/masks/moisture-surge-overnight-mask</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/106898/skincare/makeup-removers/take-the-day-offtm-charcoal-cleansing-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/64320/makeup/foundations/bb-and-cc-cream/moisture-surgetm-sheertint-hydrator-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1680/46673/skincare/dullness/daily-renewal/turnaround-accelerated-renewal-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1668/34750/skincare/acne/acne-solutions-cleansing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/41982/skincare/exfoliators/clarifying-lotion-10-twice-a-day-exfoliator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/5800/skincare/redness/redness-solutions-soothing-cleanser-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/58212/makeup/mascara/bottom-lash-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/5553/skincare/redness/redness-solutions-redness-regimen</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1676/32630/skincare/de-aging/repair-247/repairweartm-anti-gravity-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/13188/skincare/redness/redness-solutions-makeup-broad-spectrum-spf-15-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1668/40880/skincare/acne/acne-solutionstm-acne-line-correcting-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/29770/makeup/blushers/cheek-poptm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/22875/skincare/moisturizers/repairwear-uplifting-firming-cream-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1573/15501/3-step/step-2-exfoliate/clarifying-lotion-1/gently-comfortably-exfoliates-dry-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/36482/makeup/mascara/chubby-lash-fattening-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/55683/makeup/brows/instant-lift-for-brows</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/31385/skincare/cleansers-makeup-removers/all-about-cleantm-foaming-facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1667/9423/skincare/all-about-eyestm-serum-de-puffing-eye-massage</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12518/39687/makeup/the-brush-collection/face-brushes/foundation-buff-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/58211/makeup/mascara/lash-powertm-mascara-long-wearing-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/30944/makeup/blushers/chubby-stick-cheek-colour-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/5854/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-face-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/61087/makeup/foundations/almost-powder-makeup-broad-spectrum-spf-18</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16741/56037/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-self-heating-blackhead-extractor</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5730/makeup/the-brush-collection/makeup-brush-cleanser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1592/41442/makeup/sun-kissed-face-gelee-complexion-multitasker</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/83690/skincare/moisturizers/moisture-surgetm-100h-auto-replenishing-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/18919/43162/skincare/fresh-pressed/clinique-fresh-pressedtm-renewing-powder-cleanser-with-pure-vitamin-c</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/4807/skincare/hand-body-care/sparkle-skin-body-exfoliating-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/25356/64269/skincare/lip-care/moisture-surgetm-lip-hydro-plump-treatment</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/5620/skincare/hand-body-care/sparkle-skin-body-exfoliator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/40619/makeup/powders/stay-matte-universal-blotting-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6089/skincare/hand-body-care/deep-comforttm-body-butter</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/106904/skincare/moisturizers/even-better-clinicaltm-brightening-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/29405/mens/skin-care/moisturize-protect/clinique-for-mentm-anti-age-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/106479/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-1-2</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/121428/skincare/cleansers-makeup-removers/new-take-the-day-offtm-facial-cleansing-mousse</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16320/104214/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/81833/skincare/serum/clinique-smart-nighttm-clinical-md-multi-dimensional-repair-treatment-retinol</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/37483/skincare/moisturizers/clinique-smarttm-broad-spectrum-spf-15-custom-repair-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/79628/skincare/moisturizers/moisture-surgetm-intense-72h-lipid-replenishing-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/83736/skincare/exfoliators/all-about-cleantm-2-in-1-charcoal-mask-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/19517/makeup/foundations/bb-and-cc-cream/age-defense-bb-cream-broad-spectrum-spf-30</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6067/skincare/hand-body-care/non-aerosol-hairspray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14346/34749/makeup/contouring/chubby-stick-sculpting-contour</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5375/skincare/cleansers-makeup-removers/acne-solutions-cleansing-foam</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/22695/skincare/eye-care/even-better-eyestm-dark-circle-corrector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1573/15504/3-step/step-2-exfoliate/clarifying-lotion-4/refreshing-exfoliator-for-oily-skin-types</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/15601/skincare/eye-care/all-about-eyestm-rich-eye-cream-with-hyaluronic-acid</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/1680/34020/skincare/dullness/daily-renewal/turnaroundtm-overnight-revitalizing-moisturizer</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1683/37235/skincare/eye-care/repairwear-laser-focus-wrinkle-correcting-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4923/makeup/the-brush-collection/foundation-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6349/makeup/the-brush-collection/bronzerblender-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1659/48282/sun-protection-self-tanners/broad-spectrum-spf-30-sunscreen-oil-free-face-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5954/makeup/the-brush-collection/eye-definer-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4868/makeup/the-brush-collection/concealer-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1574/58208/3-step/step-3-moisturize/dramatically-differenttm-hydrating-jelly</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/72241/sun-protection-self-tanners/sun-protection/superdefensetm-city-block-broad-spectrum-spf-50-daily-energy-face-protector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/40650/sun-protection-self-tanners/sun-protection/spf-50-mineral-sunscreen-fluid-for-face</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/6555/skincare/cleansers-makeup-removers/take-the-day-off-cleansing-oil</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/47339/sun-protection-self-tanners/sun-protection/clinique-pep-starttm-daily-uv-protector-broad-spectrum-spf-50</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14666/106905/skincare/watery-lotions/even-bettertm-brightening-essence-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/4992/skincare/cleansers-makeup-removers/naturally-gentle-eye-makeup-remover</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5864/skincare/cleansers-makeup-removers/rinse-off-eye-makeup-solvent</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/5192/skincare/hand-body-care/deep-comforttm-body-moisture</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/87057/skincare/serum/clinique-smart-clinical-repairtm-wrinkle-correcting-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/6277/skincare/exfoliators/exfoliating-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/25356/6152/skincare/lip-care/repairweartm-intensive-lip-treatment</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/104218/gift-center/all-gifts-sets/skin-school-supplies-glowing-skin-essentials</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/68008/skincare/serum/even-better-clinicaltm-radical-dark-spot-corrector-interrupter</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/15502/skincare/exfoliators/clarifying-lotion-2/exfoliates-to-balance-dry-combination-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/5449/skincare/moisturizers/moisture-surge-face-spray-thirsty-skin-relief</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14666/103370/skincare/watery-lotions/moisture-surgetm-hydro-infused-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1572/4792/3-step/step-1-cleanse/facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1672/29793/skincare/acne/treatment-specialists/acne-solutionstm-clinical-clearing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1572/31328/3-step/step-1-cleanse/clinique-sonic-system-purifying-cleansing-brush-head</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/64270/skincare/eye-care/moisture-surge-eyetm-96-hour-hydro-filler-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/4977/skincare/moisturizers/acne-solutionstm-all-over-clearing-treatment</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1604/4771/makeup/lip-liner/quickliner-for-lips</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/15503/skincare/exfoliators/clarifying-lotion-3/exfoliates-to-balance-combination-oily-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/103171/skincare/exfoliators/clarifying-do-over-peel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16741/56035/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-7-day-deep-pore-cleanse-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/38171/skincare/cleansers-makeup-removers/extra-gentle-cleansing-foam</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/7004/skincare/hand-body-care/deep-comforttm-body-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/18919/43160/skincare/fresh-pressed/clinique-fresh-pressedtm-daily-booster-with-pure-vitamin-c-10</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/104217/gift-center/all-gifts-sets/skin-school-supplies-smooth-renew-lab</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/83735/skincare/exfoliators/all-about-cleantm-2-in-1-cleansing-exfoliating-jelly</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/6007/skincare/redness/redness-solutions-daily-relief-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/4976/skincare/exfoliators/acne-solutions-clarifying-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/24805/makeup/mascara/high-impacttm-waterproof-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1574/34679/3-step/step-3-moisturize/dramatically-different-moisturizing-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6768/skincare/hand-body-care/deep-comfort-hand-and-cuticle-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/5861/sun-protection-self-tanners/sun-protection/city-block-sheer-oil-free-daily-face-protector-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/104241/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-3-4</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27035/makeup/eye-shadows/all-about-shadowtm-primer-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/40885/skincare/makeup-removers/take-the-day-offtm-micellar-cleansing-towelettes-for-face-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/106268/makeup/primers/even-bettertm-all-over-primer-and-color-corrector</t>
+    <t>Z4KH01</t>
+  </si>
+  <si>
+    <t>6TCR01</t>
+  </si>
+  <si>
+    <t>65EM01</t>
+  </si>
+  <si>
+    <t>V3KX01</t>
+  </si>
+  <si>
+    <t>Z4RN01</t>
+  </si>
+  <si>
+    <t>65EN01</t>
+  </si>
+  <si>
+    <t>ZF7E01</t>
+  </si>
+  <si>
+    <t>KJ8H01</t>
+  </si>
+  <si>
+    <t>V90R01</t>
+  </si>
+  <si>
+    <t>Z21901</t>
   </si>
   <si>
     <t>V2Y701</t>
   </si>
   <si>
+    <t>K0CG01</t>
+  </si>
+  <si>
+    <t>K6KW01</t>
+  </si>
+  <si>
     <t>6FWR01</t>
   </si>
   <si>
-    <t>Z4KH01</t>
-  </si>
-  <si>
-    <t>K0CG01</t>
-  </si>
-  <si>
     <t>62YL01</t>
   </si>
   <si>
-    <t>65EN01</t>
-  </si>
-  <si>
-    <t>V3KX01</t>
-  </si>
-  <si>
-    <t>ZF7E01</t>
-  </si>
-  <si>
-    <t>6TCR01</t>
-  </si>
-  <si>
-    <t>KJ8H01</t>
-  </si>
-  <si>
-    <t>Z4RN01</t>
+    <t>K6K701</t>
   </si>
   <si>
     <t>67F901</t>
   </si>
   <si>
-    <t>V90R01</t>
-  </si>
-  <si>
-    <t>K6KW01</t>
-  </si>
-  <si>
-    <t>K6K701</t>
-  </si>
-  <si>
-    <t>Z21901</t>
-  </si>
-  <si>
     <t>V90M01</t>
   </si>
   <si>
-    <t>65EM01</t>
-  </si>
-  <si>
     <t>67FE01</t>
   </si>
   <si>
     <t>651705</t>
   </si>
   <si>
+    <t>K8GP01</t>
+  </si>
+  <si>
     <t>V2YF01</t>
   </si>
   <si>
+    <t>K8GN01</t>
+  </si>
+  <si>
+    <t>V12H01</t>
+  </si>
+  <si>
+    <t>660601</t>
+  </si>
+  <si>
+    <t>VC7G01</t>
+  </si>
+  <si>
+    <t>ZXR401</t>
+  </si>
+  <si>
+    <t>K8GM01</t>
+  </si>
+  <si>
     <t>K77L01</t>
   </si>
   <si>
     <t>VCFH01</t>
   </si>
   <si>
-    <t>V12H01</t>
+    <t>VA3JY3</t>
+  </si>
+  <si>
+    <t>KNCG01</t>
+  </si>
+  <si>
+    <t>Z9F201</t>
+  </si>
+  <si>
+    <t>K4XH01</t>
+  </si>
+  <si>
+    <t>KNCH01</t>
+  </si>
+  <si>
+    <t>64MG01</t>
+  </si>
+  <si>
+    <t>VCFR01</t>
+  </si>
+  <si>
+    <t>Z8K901</t>
+  </si>
+  <si>
+    <t>V6W001</t>
+  </si>
+  <si>
+    <t>KF5441</t>
+  </si>
+  <si>
+    <t>68A001</t>
+  </si>
+  <si>
+    <t>62A405</t>
+  </si>
+  <si>
+    <t>KNXW41</t>
+  </si>
+  <si>
+    <t>V19320</t>
+  </si>
+  <si>
+    <t>V9E501</t>
+  </si>
+  <si>
+    <t>VCFJ01</t>
+  </si>
+  <si>
+    <t>VCGA80</t>
+  </si>
+  <si>
+    <t>V17510</t>
+  </si>
+  <si>
+    <t>661002</t>
+  </si>
+  <si>
+    <t>6FP203</t>
+  </si>
+  <si>
+    <t>VEH801</t>
+  </si>
+  <si>
+    <t>ZJ4P01</t>
+  </si>
+  <si>
+    <t>V93A41</t>
+  </si>
+  <si>
+    <t>Z79J01</t>
+  </si>
+  <si>
+    <t>VCWG3W</t>
+  </si>
+  <si>
+    <t>ZA1N01</t>
+  </si>
+  <si>
+    <t>KGMR04</t>
+  </si>
+  <si>
+    <t>VCWH20</t>
+  </si>
+  <si>
+    <t>KXJA32</t>
+  </si>
+  <si>
+    <t>V82P01</t>
+  </si>
+  <si>
+    <t>6F4601</t>
+  </si>
+  <si>
+    <t>KTAY01</t>
+  </si>
+  <si>
+    <t>V6W801</t>
+  </si>
+  <si>
+    <t>V7HH01</t>
+  </si>
+  <si>
+    <t>KWW201</t>
+  </si>
+  <si>
+    <t>VCFW80</t>
+  </si>
+  <si>
+    <t>ZKNM01</t>
+  </si>
+  <si>
+    <t>7KXC01</t>
+  </si>
+  <si>
+    <t>Z47M02</t>
+  </si>
+  <si>
+    <t>7WCP07</t>
+  </si>
+  <si>
+    <t>KNCE01</t>
+  </si>
+  <si>
+    <t>K78501</t>
+  </si>
+  <si>
+    <t>VCGJ01</t>
+  </si>
+  <si>
+    <t>618J02</t>
+  </si>
+  <si>
+    <t>V68K07</t>
+  </si>
+  <si>
+    <t>V4R303</t>
+  </si>
+  <si>
+    <t>7WJ801</t>
+  </si>
+  <si>
+    <t>KPR601</t>
+  </si>
+  <si>
+    <t>KGN401</t>
+  </si>
+  <si>
+    <t>V16K01</t>
+  </si>
+  <si>
+    <t>ZP4R01</t>
+  </si>
+  <si>
+    <t>V4TC01</t>
   </si>
   <si>
     <t>61MT01</t>
   </si>
   <si>
-    <t>K8GM01</t>
+    <t>VCX001</t>
+  </si>
+  <si>
+    <t>V16J01</t>
+  </si>
+  <si>
+    <t>70JW01</t>
+  </si>
+  <si>
+    <t>K1MH01</t>
+  </si>
+  <si>
+    <t>72M701</t>
+  </si>
+  <si>
+    <t>VCWL01</t>
+  </si>
+  <si>
+    <t>6LJ401</t>
+  </si>
+  <si>
+    <t>634607</t>
+  </si>
+  <si>
+    <t>K6EE03</t>
+  </si>
+  <si>
+    <t>ZGH501</t>
+  </si>
+  <si>
+    <t>KFP501</t>
+  </si>
+  <si>
+    <t>6L6W01</t>
+  </si>
+  <si>
+    <t>6F4501</t>
+  </si>
+  <si>
+    <t>68F301</t>
+  </si>
+  <si>
+    <t>6G8A01</t>
+  </si>
+  <si>
+    <t>6F4901</t>
   </si>
   <si>
     <t>K2K801</t>
   </si>
   <si>
-    <t>KNXW41</t>
-  </si>
-  <si>
-    <t>VCFJ01</t>
+    <t>6F4G01</t>
+  </si>
+  <si>
+    <t>6F4701</t>
+  </si>
+  <si>
+    <t>6FLK08</t>
+  </si>
+  <si>
+    <t>ZN9H01</t>
+  </si>
+  <si>
+    <t>ZGH6AA</t>
+  </si>
+  <si>
+    <t>Z5CM01</t>
+  </si>
+  <si>
+    <t>V4NW01</t>
+  </si>
+  <si>
+    <t>VAGH01</t>
+  </si>
+  <si>
+    <t>V28Y01</t>
+  </si>
+  <si>
+    <t>61EP01</t>
+  </si>
+  <si>
+    <t>6EM701</t>
+  </si>
+  <si>
+    <t>V29101</t>
+  </si>
+  <si>
+    <t>V29001</t>
+  </si>
+  <si>
+    <t>KEX901</t>
+  </si>
+  <si>
+    <t>645J01</t>
+  </si>
+  <si>
+    <t>V46R01</t>
+  </si>
+  <si>
+    <t>749K28</t>
+  </si>
+  <si>
+    <t>V6H101</t>
+  </si>
+  <si>
+    <t>KT9L01</t>
+  </si>
+  <si>
+    <t>V73501</t>
+  </si>
+  <si>
+    <t>V71301</t>
+  </si>
+  <si>
+    <t>ZCAC01</t>
+  </si>
+  <si>
+    <t>71JL01</t>
+  </si>
+  <si>
+    <t>6KAK01</t>
+  </si>
+  <si>
+    <t>7NR501</t>
   </si>
   <si>
     <t>647J07</t>
   </si>
   <si>
-    <t>KNCH01</t>
-  </si>
-  <si>
-    <t>KNCG01</t>
-  </si>
-  <si>
-    <t>V9E501</t>
-  </si>
-  <si>
-    <t>660601</t>
-  </si>
-  <si>
-    <t>ZJ4P01</t>
-  </si>
-  <si>
-    <t>VCGJ01</t>
-  </si>
-  <si>
-    <t>V82P01</t>
-  </si>
-  <si>
-    <t>VCFR01</t>
-  </si>
-  <si>
-    <t>Z8K901</t>
-  </si>
-  <si>
-    <t>KNCE01</t>
-  </si>
-  <si>
-    <t>Z79J01</t>
-  </si>
-  <si>
-    <t>VC7G01</t>
-  </si>
-  <si>
-    <t>K8GN01</t>
-  </si>
-  <si>
-    <t>V68K07</t>
+    <t>KL6901</t>
+  </si>
+  <si>
+    <t>6FW203</t>
+  </si>
+  <si>
+    <t>ZH0601</t>
+  </si>
+  <si>
+    <t>KYNW01</t>
+  </si>
+  <si>
+    <t>7LYW01</t>
+  </si>
+  <si>
+    <t>6CLW01</t>
+  </si>
+  <si>
+    <t>6MN401</t>
+  </si>
+  <si>
+    <t>7JHT01</t>
+  </si>
+  <si>
+    <t>ZK4K01</t>
+  </si>
+  <si>
+    <t>V16H11</t>
+  </si>
+  <si>
+    <t>6L4N01</t>
+  </si>
+  <si>
+    <t>Z6G801</t>
+  </si>
+  <si>
+    <t>V4NM01</t>
+  </si>
+  <si>
+    <t>ZMY201</t>
+  </si>
+  <si>
+    <t>V48M01</t>
+  </si>
+  <si>
+    <t>V29201</t>
+  </si>
+  <si>
+    <t>7W5C01</t>
+  </si>
+  <si>
+    <t>Z56H01</t>
+  </si>
+  <si>
+    <t>ZR1601</t>
+  </si>
+  <si>
+    <t>6H9K01</t>
+  </si>
+  <si>
+    <t>614701</t>
+  </si>
+  <si>
+    <t>ZKTK01</t>
+  </si>
+  <si>
+    <t>7KYL02</t>
+  </si>
+  <si>
+    <t>6F4A01</t>
+  </si>
+  <si>
+    <t>ZJYR01</t>
+  </si>
+  <si>
+    <t>69RT01</t>
+  </si>
+  <si>
+    <t>V40K01</t>
+  </si>
+  <si>
+    <t>6NH701</t>
+  </si>
+  <si>
+    <t>K2W901</t>
+  </si>
+  <si>
+    <t>V12G01</t>
   </si>
   <si>
     <t>Z9FF0A</t>
   </si>
   <si>
-    <t>V16H11</t>
+    <t>K73301</t>
+  </si>
+  <si>
+    <t>ZWGP01</t>
+  </si>
+  <si>
+    <t>616402</t>
+  </si>
+  <si>
+    <t>664200</t>
+  </si>
+  <si>
+    <t>V5P201</t>
+  </si>
+  <si>
+    <t>KJR301</t>
+  </si>
+  <si>
+    <t>V5P301</t>
+  </si>
+  <si>
+    <t>KAJ701</t>
+  </si>
+  <si>
+    <t>V19P01</t>
+  </si>
+  <si>
+    <t>6AWM01</t>
+  </si>
+  <si>
+    <t>V46M01</t>
+  </si>
+  <si>
+    <t>Z63R01</t>
+  </si>
+  <si>
+    <t>KY5J01</t>
+  </si>
+  <si>
+    <t>7JJ001</t>
+  </si>
+  <si>
+    <t>634C01</t>
+  </si>
+  <si>
+    <t>6L4P01</t>
+  </si>
+  <si>
+    <t>ZY0R01</t>
+  </si>
+  <si>
+    <t>KH9701</t>
+  </si>
+  <si>
+    <t>VA46Y3</t>
+  </si>
+  <si>
+    <t>6KNA01</t>
+  </si>
+  <si>
+    <t>6K0G01</t>
+  </si>
+  <si>
+    <t>76X601</t>
+  </si>
+  <si>
+    <t>ZR0N01</t>
+  </si>
+  <si>
+    <t>V7XR01</t>
+  </si>
+  <si>
+    <t>KHWR01</t>
+  </si>
+  <si>
+    <t>6KF501</t>
+  </si>
+  <si>
+    <t>6F4801</t>
+  </si>
+  <si>
+    <t>6W3T01</t>
+  </si>
+  <si>
+    <t>ZPYH01</t>
+  </si>
+  <si>
+    <t>60MK01</t>
+  </si>
+  <si>
+    <t>V5P801</t>
+  </si>
+  <si>
+    <t>V3TA01</t>
+  </si>
+  <si>
+    <t>V12F01</t>
+  </si>
+  <si>
+    <t>63WY01</t>
+  </si>
+  <si>
+    <t>VCFA01</t>
+  </si>
+  <si>
+    <t>V7Y701</t>
+  </si>
+  <si>
+    <t>V4NK01</t>
+  </si>
+  <si>
+    <t>KWY701</t>
+  </si>
+  <si>
+    <t>ZCP701</t>
+  </si>
+  <si>
+    <t>Z4KL01</t>
+  </si>
+  <si>
+    <t>V7HJ20</t>
+  </si>
+  <si>
+    <t>V4N204</t>
+  </si>
+  <si>
+    <t>ZWJF01</t>
+  </si>
+  <si>
+    <t>ZMAT01</t>
+  </si>
+  <si>
+    <t>ZM7A01</t>
+  </si>
+  <si>
+    <t>6MNY39</t>
+  </si>
+  <si>
+    <t>V5P701</t>
   </si>
   <si>
     <t>633917</t>
   </si>
   <si>
-    <t>6FLK08</t>
-  </si>
-  <si>
-    <t>V93A41</t>
-  </si>
-  <si>
-    <t>645J01</t>
-  </si>
-  <si>
-    <t>VCWH20</t>
-  </si>
-  <si>
-    <t>661002</t>
-  </si>
-  <si>
-    <t>KF5441</t>
-  </si>
-  <si>
-    <t>KXJA32</t>
-  </si>
-  <si>
-    <t>VCWG3W</t>
-  </si>
-  <si>
-    <t>64MG01</t>
-  </si>
-  <si>
-    <t>634607</t>
-  </si>
-  <si>
-    <t>68A001</t>
-  </si>
-  <si>
-    <t>618J02</t>
-  </si>
-  <si>
-    <t>6MNY39</t>
-  </si>
-  <si>
-    <t>V4TC01</t>
-  </si>
-  <si>
-    <t>V6W801</t>
-  </si>
-  <si>
-    <t>VCGA80</t>
-  </si>
-  <si>
-    <t>K73301</t>
-  </si>
-  <si>
-    <t>KAJ701</t>
-  </si>
-  <si>
-    <t>V19320</t>
-  </si>
-  <si>
-    <t>VCFA01</t>
-  </si>
-  <si>
-    <t>V7Y701</t>
-  </si>
-  <si>
-    <t>7WCP07</t>
-  </si>
-  <si>
-    <t>K4XH01</t>
-  </si>
-  <si>
-    <t>VCFW80</t>
-  </si>
-  <si>
-    <t>ZP4R01</t>
-  </si>
-  <si>
-    <t>V4R303</t>
-  </si>
-  <si>
-    <t>VEH801</t>
-  </si>
-  <si>
-    <t>6FW203</t>
-  </si>
-  <si>
-    <t>ZA1N01</t>
-  </si>
-  <si>
-    <t>634C01</t>
-  </si>
-  <si>
-    <t>7LYW01</t>
-  </si>
-  <si>
-    <t>ZGH501</t>
-  </si>
-  <si>
-    <t>6LJ401</t>
-  </si>
-  <si>
-    <t>62A405</t>
-  </si>
-  <si>
-    <t>V4N204</t>
-  </si>
-  <si>
-    <t>V7HH01</t>
-  </si>
-  <si>
-    <t>72M701</t>
-  </si>
-  <si>
-    <t>VCX001</t>
-  </si>
-  <si>
-    <t>6F4501</t>
-  </si>
-  <si>
-    <t>6F4601</t>
-  </si>
-  <si>
-    <t>KL6901</t>
-  </si>
-  <si>
-    <t>6CLW01</t>
-  </si>
-  <si>
-    <t>VCWL01</t>
-  </si>
-  <si>
-    <t>ZXR401</t>
-  </si>
-  <si>
-    <t>6F4801</t>
-  </si>
-  <si>
-    <t>6F4901</t>
-  </si>
-  <si>
-    <t>749K28</t>
-  </si>
-  <si>
-    <t>61EP01</t>
+    <t>603402</t>
+  </si>
+  <si>
+    <t>619205</t>
+  </si>
+  <si>
+    <t>76X201</t>
+  </si>
+  <si>
+    <t>6RMF01</t>
+  </si>
+  <si>
+    <t>6FGH01</t>
+  </si>
+  <si>
+    <t>V1AX01</t>
+  </si>
+  <si>
+    <t>V1L601</t>
   </si>
   <si>
     <t>6NHF01</t>
   </si>
   <si>
-    <t>V7XR01</t>
-  </si>
-  <si>
-    <t>60MK01</t>
-  </si>
-  <si>
-    <t>664200</t>
-  </si>
-  <si>
-    <t>V28Y01</t>
-  </si>
-  <si>
-    <t>ZGH6AA</t>
-  </si>
-  <si>
-    <t>7KXC01</t>
-  </si>
-  <si>
-    <t>6EM701</t>
-  </si>
-  <si>
-    <t>V6H101</t>
-  </si>
-  <si>
-    <t>V1AX01</t>
-  </si>
-  <si>
-    <t>V46M01</t>
-  </si>
-  <si>
-    <t>6FP203</t>
-  </si>
-  <si>
-    <t>V71301</t>
-  </si>
-  <si>
-    <t>ZY0R01</t>
-  </si>
-  <si>
-    <t>V29001</t>
-  </si>
-  <si>
-    <t>V4NK01</t>
-  </si>
-  <si>
-    <t>VA46Y3</t>
-  </si>
-  <si>
-    <t>7NR501</t>
-  </si>
-  <si>
-    <t>V73501</t>
-  </si>
-  <si>
-    <t>KEX901</t>
-  </si>
-  <si>
-    <t>K1MH01</t>
-  </si>
-  <si>
-    <t>K8GP01</t>
-  </si>
-  <si>
-    <t>Z6G801</t>
-  </si>
-  <si>
-    <t>ZMY201</t>
-  </si>
-  <si>
-    <t>6L4N01</t>
-  </si>
-  <si>
-    <t>KGN401</t>
-  </si>
-  <si>
-    <t>6MN401</t>
-  </si>
-  <si>
-    <t>ZCAC01</t>
-  </si>
-  <si>
-    <t>70JW01</t>
-  </si>
-  <si>
-    <t>ZH0601</t>
-  </si>
-  <si>
-    <t>V17510</t>
-  </si>
-  <si>
-    <t>7JJ001</t>
-  </si>
-  <si>
-    <t>76X201</t>
-  </si>
-  <si>
-    <t>V16J01</t>
-  </si>
-  <si>
-    <t>K6EE03</t>
-  </si>
-  <si>
-    <t>Z4KL01</t>
-  </si>
-  <si>
-    <t>71JL01</t>
-  </si>
-  <si>
-    <t>ZWJF01</t>
-  </si>
-  <si>
-    <t>KGMR04</t>
-  </si>
-  <si>
-    <t>Z47M02</t>
-  </si>
-  <si>
-    <t>6NH701</t>
-  </si>
-  <si>
-    <t>K78501</t>
-  </si>
-  <si>
-    <t>ZR1601</t>
-  </si>
-  <si>
-    <t>6F4G01</t>
-  </si>
-  <si>
-    <t>ZMAT01</t>
-  </si>
-  <si>
-    <t>KWW201</t>
-  </si>
-  <si>
-    <t>ZWGP01</t>
-  </si>
-  <si>
-    <t>6AWM01</t>
-  </si>
-  <si>
-    <t>KJR301</t>
-  </si>
-  <si>
-    <t>63WY01</t>
-  </si>
-  <si>
-    <t>ZKNM01</t>
-  </si>
-  <si>
-    <t>69RT01</t>
-  </si>
-  <si>
-    <t>V3TA01</t>
-  </si>
-  <si>
-    <t>V12F01</t>
-  </si>
-  <si>
-    <t>V5P701</t>
-  </si>
-  <si>
-    <t>VAGH01</t>
-  </si>
-  <si>
-    <t>V46R01</t>
-  </si>
-  <si>
-    <t>KT9L01</t>
-  </si>
-  <si>
-    <t>Z5CM01</t>
-  </si>
-  <si>
-    <t>KPR601</t>
-  </si>
-  <si>
-    <t>KYNW01</t>
-  </si>
-  <si>
-    <t>Z9F201</t>
-  </si>
-  <si>
-    <t>7KYL02</t>
-  </si>
-  <si>
-    <t>619205</t>
-  </si>
-  <si>
-    <t>VA3JY3</t>
-  </si>
-  <si>
-    <t>ZCP701</t>
-  </si>
-  <si>
-    <t>V4NM01</t>
-  </si>
-  <si>
-    <t>7JHT01</t>
-  </si>
-  <si>
-    <t>76X601</t>
-  </si>
-  <si>
-    <t>6KAK01</t>
-  </si>
-  <si>
     <t>V12K01</t>
-  </si>
-  <si>
-    <t>ZK4K01</t>
-  </si>
-  <si>
-    <t>6L6W01</t>
-  </si>
-  <si>
-    <t>6G8A01</t>
-  </si>
-  <si>
-    <t>ZPYH01</t>
-  </si>
-  <si>
-    <t>6F4A01</t>
-  </si>
-  <si>
-    <t>6F4701</t>
-  </si>
-  <si>
-    <t>KFP501</t>
-  </si>
-  <si>
-    <t>KHWR01</t>
-  </si>
-  <si>
-    <t>ZJYR01</t>
-  </si>
-  <si>
-    <t>6H9K01</t>
-  </si>
-  <si>
-    <t>K2W901</t>
-  </si>
-  <si>
-    <t>V40K01</t>
-  </si>
-  <si>
-    <t>68F301</t>
-  </si>
-  <si>
-    <t>614701</t>
-  </si>
-  <si>
-    <t>V12G01</t>
-  </si>
-  <si>
-    <t>V4NW01</t>
-  </si>
-  <si>
-    <t>616402</t>
-  </si>
-  <si>
-    <t>6FGH01</t>
-  </si>
-  <si>
-    <t>V5P301</t>
-  </si>
-  <si>
-    <t>V19P01</t>
-  </si>
-  <si>
-    <t>V29101</t>
-  </si>
-  <si>
-    <t>KWY701</t>
-  </si>
-  <si>
-    <t>V1L601</t>
-  </si>
-  <si>
-    <t>603402</t>
-  </si>
-  <si>
-    <t>V6W001</t>
-  </si>
-  <si>
-    <t>7WJ801</t>
-  </si>
-  <si>
-    <t>Z63R01</t>
-  </si>
-  <si>
-    <t>KH9701</t>
-  </si>
-  <si>
-    <t>6KNA01</t>
-  </si>
-  <si>
-    <t>V7HJ20</t>
-  </si>
-  <si>
-    <t>V29201</t>
-  </si>
-  <si>
-    <t>V48M01</t>
-  </si>
-  <si>
-    <t>ZR0N01</t>
-  </si>
-  <si>
-    <t>ZKTK01</t>
-  </si>
-  <si>
-    <t>6RMF01</t>
-  </si>
-  <si>
-    <t>ZN9H01</t>
-  </si>
-  <si>
-    <t>V5P201</t>
-  </si>
-  <si>
-    <t>KY5J01</t>
-  </si>
-  <si>
-    <t>6L4P01</t>
-  </si>
-  <si>
-    <t>6K0G01</t>
-  </si>
-  <si>
-    <t>V16K01</t>
-  </si>
-  <si>
-    <t>Z56H01</t>
-  </si>
-  <si>
-    <t>6W3T01</t>
-  </si>
-  <si>
-    <t>6KF501</t>
-  </si>
-  <si>
-    <t>V5P801</t>
-  </si>
-  <si>
-    <t>7W5C01</t>
-  </si>
-  <si>
-    <t>ZM7A01</t>
-  </si>
-  <si>
-    <t>KTAY01</t>
   </si>
 </sst>
 </file>
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>219</v>
@@ -2370,10 +2370,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>220</v>
@@ -2387,10 +2387,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>221</v>
@@ -2404,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>222</v>
@@ -2421,10 +2421,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C6">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>223</v>
@@ -2455,10 +2455,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>225</v>
@@ -2472,10 +2472,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>226</v>
@@ -2489,10 +2489,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>227</v>
@@ -2506,10 +2506,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>228</v>
@@ -2523,10 +2523,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>229</v>
@@ -2540,10 +2540,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C13">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>230</v>
@@ -2557,10 +2557,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>231</v>
@@ -2574,10 +2574,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>232</v>
@@ -2591,10 +2591,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>233</v>
@@ -2608,10 +2608,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>234</v>
@@ -2625,10 +2625,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>235</v>
@@ -2642,10 +2642,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>236</v>
@@ -2693,10 +2693,10 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>239</v>
@@ -2707,614 +2707,614 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C23">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>4.7</v>
+      </c>
+      <c r="C25">
         <v>27</v>
       </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C29">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C30">
-        <v>3651</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>4.7</v>
       </c>
       <c r="C32">
-        <v>646</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>890</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C36">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C39">
-        <v>1363</v>
+        <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="C41">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>3067</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C43">
-        <v>249</v>
+        <v>1755</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>3651</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>921</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>1479</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="C48">
-        <v>823</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C49">
-        <v>984</v>
+        <v>511</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="C50">
-        <v>374</v>
+        <v>549</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>4.4</v>
       </c>
       <c r="C51">
-        <v>1105</v>
+        <v>461</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="C52">
-        <v>1105</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="C53">
-        <v>403</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="C54">
-        <v>549</v>
+        <v>1105</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="C55">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C56">
-        <v>844</v>
+        <v>312</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C57">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C58">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3322,10 +3322,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="C59">
-        <v>417</v>
+        <v>258</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>275</v>
@@ -3339,10 +3339,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="C60">
-        <v>3067</v>
+        <v>403</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>4.5</v>
       </c>
       <c r="C61">
-        <v>432</v>
+        <v>844</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>277</v>
@@ -3373,10 +3373,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="C62">
-        <v>2338</v>
+        <v>1363</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>278</v>
@@ -3390,10 +3390,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="C63">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>279</v>
@@ -3407,10 +3407,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>280</v>
@@ -3424,10 +3424,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>281</v>
@@ -3441,10 +3441,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="C66">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>282</v>
@@ -3458,10 +3458,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C67">
-        <v>1575</v>
+        <v>3199</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>283</v>
@@ -3475,10 +3475,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>921</v>
+        <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>284</v>
@@ -3492,10 +3492,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>285</v>
@@ -3509,10 +3509,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>776</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>286</v>
@@ -3526,10 +3526,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C71">
-        <v>882</v>
+        <v>518</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>287</v>
@@ -3543,10 +3543,10 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="C72">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>288</v>
@@ -3560,10 +3560,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>289</v>
@@ -3580,7 +3580,7 @@
         <v>4.1</v>
       </c>
       <c r="C74">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>290</v>
@@ -3594,10 +3594,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>291</v>
@@ -3611,10 +3611,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>292</v>
@@ -3628,10 +3628,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="C77">
-        <v>325</v>
+        <v>47</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>293</v>
@@ -3645,10 +3645,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="C78">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>294</v>
@@ -3662,10 +3662,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C79">
-        <v>389</v>
+        <v>4098</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>295</v>
@@ -3679,10 +3679,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="C80">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>296</v>
@@ -3696,10 +3696,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="C81">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>297</v>
@@ -3716,7 +3716,7 @@
         <v>4.1</v>
       </c>
       <c r="C82">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>298</v>
@@ -3730,10 +3730,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="C83">
-        <v>1755</v>
+        <v>93</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>299</v>
@@ -3747,10 +3747,10 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="C84">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>300</v>
@@ -3764,10 +3764,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="C85">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>301</v>
@@ -3781,10 +3781,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C86">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>302</v>
@@ -3798,10 +3798,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>390</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>303</v>
@@ -3815,10 +3815,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C88">
-        <v>74</v>
+        <v>624</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>304</v>
@@ -3832,10 +3832,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C89">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>305</v>
@@ -3849,10 +3849,10 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C90">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>306</v>
@@ -3866,10 +3866,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="C91">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>307</v>
@@ -3883,10 +3883,10 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C92">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>308</v>
@@ -3900,10 +3900,10 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="C93">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>309</v>
@@ -3917,10 +3917,10 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="C94">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>310</v>
@@ -3934,10 +3934,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="C95">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>311</v>
@@ -3951,10 +3951,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="C96">
-        <v>2697</v>
+        <v>872</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>312</v>
@@ -3971,7 +3971,7 @@
         <v>4.6</v>
       </c>
       <c r="C97">
-        <v>2567</v>
+        <v>184</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>313</v>
@@ -3985,10 +3985,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>314</v>
@@ -4002,10 +4002,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="C99">
-        <v>485</v>
+        <v>247</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>315</v>
@@ -4019,10 +4019,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="C100">
-        <v>2264</v>
+        <v>69</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>316</v>
@@ -4036,10 +4036,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C101">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>317</v>
@@ -4056,7 +4056,7 @@
         <v>4.8</v>
       </c>
       <c r="C102">
-        <v>6641</v>
+        <v>97</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>318</v>
@@ -4070,10 +4070,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="C103">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>319</v>
@@ -4087,10 +4087,10 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C104">
-        <v>776</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>320</v>
@@ -4104,10 +4104,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C105">
-        <v>3101</v>
+        <v>374</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>321</v>
@@ -4118,160 +4118,160 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B106">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C106">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="E106" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>4.3</v>
       </c>
       <c r="C107">
-        <v>496</v>
+        <v>279</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E107" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="C108">
-        <v>2393</v>
+        <v>215</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E108" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="C109">
-        <v>2205</v>
+        <v>2477</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E109" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B110">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="C110">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="E110" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>6641</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="E111" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B112">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C112">
-        <v>461</v>
+        <v>2567</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E112" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B113">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>3101</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E113" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C114">
-        <v>490</v>
+        <v>4554</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E114" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>4.7</v>
@@ -4280,1676 +4280,1676 @@
         <v>1414</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E115" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="C116">
-        <v>1365</v>
+        <v>172</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E116" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B117">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>1105</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E117" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B118">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>781</v>
+        <v>4</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="E118" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C119">
-        <v>275</v>
+        <v>2205</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E119" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="C120">
-        <v>172</v>
+        <v>2697</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E120" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B121">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C121">
-        <v>230</v>
+        <v>496</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="E121" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B122">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>214</v>
+        <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="E122" t="s">
-        <v>548</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="C123">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E123" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="C124">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E124" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C125">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E125" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C126">
-        <v>95</v>
+        <v>334</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E126" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C127">
-        <v>56</v>
+        <v>613</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E127" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C128">
-        <v>272</v>
+        <v>2567</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E128" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="C129">
-        <v>334</v>
+        <v>781</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E129" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C130">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E130" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="C131">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E131" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C132">
-        <v>511</v>
+        <v>325</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E132" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="C133">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E133" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C134">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E134" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C135">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E135" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="C136">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E136" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C137">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E137" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="C138">
-        <v>613</v>
+        <v>521</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E138" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C139">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E139" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="C140">
-        <v>258</v>
+        <v>823</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E140" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="C141">
-        <v>518</v>
+        <v>95</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E141" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>3.9</v>
       </c>
       <c r="C142">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E142" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="C143">
-        <v>200</v>
+        <v>979</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C144">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E144" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="C145">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E145" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="C146">
-        <v>98</v>
+        <v>757</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E146" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="C147">
-        <v>3199</v>
+        <v>134</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E147" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C148">
-        <v>155</v>
+        <v>921</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E148" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="C149">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E149" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C150">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E150" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>4.5</v>
       </c>
       <c r="C151">
-        <v>86</v>
+        <v>374</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E151" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="C153">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E153" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="C154">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>228</v>
+        <v>368</v>
       </c>
       <c r="E154" t="s">
-        <v>442</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C155">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="E155" t="s">
-        <v>434</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="C156">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E156" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C157">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="E157" t="s">
-        <v>447</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C158">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E158" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E159" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C160">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="E160" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="C161">
-        <v>22</v>
+        <v>1479</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E161" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B162">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="C162">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E162" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B163">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C163">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E163" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B164">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="C164">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>281</v>
+        <v>376</v>
       </c>
       <c r="E164" t="s">
-        <v>495</v>
+        <v>590</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>4.7</v>
       </c>
       <c r="C165">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="E165" t="s">
-        <v>440</v>
+        <v>591</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="B166">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C166">
-        <v>71</v>
+        <v>638</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="E166" t="s">
-        <v>435</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B167">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E167" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B168">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C168">
-        <v>2205</v>
+        <v>74</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="E168" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="B169">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="E169" t="s">
-        <v>456</v>
+        <v>594</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="E170" t="s">
-        <v>449</v>
+        <v>595</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="B171">
         <v>4.8</v>
       </c>
       <c r="C171">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="E171" t="s">
-        <v>453</v>
+        <v>596</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E172" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B173">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>1575</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>254</v>
+        <v>383</v>
       </c>
       <c r="E173" t="s">
-        <v>468</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B174">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="C174">
-        <v>109</v>
+        <v>670</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E174" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="B175">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="C175">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>372</v>
+        <v>265</v>
       </c>
       <c r="E175" t="s">
-        <v>586</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B176">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="C176">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E176" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B177">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C177">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>374</v>
+        <v>230</v>
       </c>
       <c r="E177" t="s">
-        <v>588</v>
+        <v>444</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B178">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C178">
-        <v>51</v>
+        <v>493</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E178" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="B179">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="C179">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>376</v>
+        <v>227</v>
       </c>
       <c r="E179" t="s">
-        <v>590</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="B180">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C180">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="E180" t="s">
-        <v>591</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B181">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2205</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E181" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="B182">
         <v>4.6</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="E182" t="s">
-        <v>544</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="B183">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C183">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="E183" t="s">
-        <v>593</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B184">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="C184">
-        <v>979</v>
+        <v>5</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>380</v>
+        <v>222</v>
       </c>
       <c r="E184" t="s">
-        <v>594</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="B185">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="C185">
-        <v>521</v>
+        <v>5</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="E185" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B186">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C186">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E186" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B187">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="C187">
-        <v>2567</v>
+        <v>104</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E187" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B188">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E188" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B189">
         <v>4.2</v>
       </c>
       <c r="C189">
-        <v>169</v>
+        <v>389</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E189" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B190">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C190">
-        <v>184</v>
+        <v>797</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E190" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B191">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="C191">
-        <v>69</v>
+        <v>490</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E191" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B192">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="C192">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E192" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B193">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C193">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E193" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B194">
         <v>4.4</v>
       </c>
       <c r="C194">
-        <v>32</v>
+        <v>703</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E194" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B195">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C195">
-        <v>872</v>
+        <v>648</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E195" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B196">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="C196">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E196" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B197">
         <v>4.4</v>
       </c>
       <c r="C197">
-        <v>255</v>
+        <v>551</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E197" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B198">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="C198">
-        <v>193</v>
+        <v>485</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E198" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="B199">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="C199">
-        <v>882</v>
+        <v>221</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="E199" t="s">
-        <v>501</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B200">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="C200">
-        <v>73</v>
+        <v>674</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E200" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B201">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C201">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E201" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B202">
         <v>4.6</v>
       </c>
       <c r="C202">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E202" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B203">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C203">
-        <v>374</v>
+        <v>93</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E203" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B204">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C204">
-        <v>140</v>
+        <v>2264</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E204" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="B205">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="C205">
-        <v>2477</v>
+        <v>71</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>400</v>
+        <v>232</v>
       </c>
       <c r="E205" t="s">
-        <v>614</v>
+        <v>446</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B206">
         <v>4.6</v>
       </c>
       <c r="C206">
-        <v>638</v>
+        <v>15</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E206" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B207">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="C207">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E207" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>219</v>
+        <v>408</v>
       </c>
       <c r="E208" t="s">
-        <v>433</v>
+        <v>622</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="B209">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C209">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="E209" t="s">
-        <v>436</v>
+        <v>623</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="B210">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="C210">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>403</v>
+        <v>220</v>
       </c>
       <c r="E210" t="s">
-        <v>617</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B211">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="C211">
-        <v>670</v>
+        <v>4</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E211" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="B212">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="E212" t="s">
-        <v>443</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B213">
         <v>4.7</v>
       </c>
       <c r="C213">
-        <v>4554</v>
+        <v>1365</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E213" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5957,10 +5957,10 @@
         <v>11</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>225</v>
@@ -5971,478 +5971,478 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B215">
         <v>4.7</v>
       </c>
       <c r="C215">
-        <v>475</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>406</v>
+        <v>242</v>
       </c>
       <c r="E215" t="s">
-        <v>620</v>
+        <v>456</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="B216">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C216">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="E216" t="s">
-        <v>621</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B217">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C217">
-        <v>602</v>
+        <v>475</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E217" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B218">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C218">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E218" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B219">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C219">
-        <v>4098</v>
+        <v>204</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E219" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B220">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C220">
-        <v>63</v>
+        <v>429</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E220" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="B221">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="C221">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>412</v>
+        <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>626</v>
+        <v>438</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B222">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="C222">
-        <v>703</v>
+        <v>57</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E222" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B223">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="C223">
-        <v>429</v>
+        <v>86</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E223" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B224">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="C224">
-        <v>757</v>
+        <v>98</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E224" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B225">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="C225">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E225" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="B226">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="C226">
-        <v>551</v>
+        <v>882</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>417</v>
+        <v>288</v>
       </c>
       <c r="E226" t="s">
-        <v>631</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="B227">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="C227">
-        <v>493</v>
+        <v>2338</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="E227" t="s">
-        <v>590</v>
+        <v>635</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="C228">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E228" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B229">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C229">
-        <v>69</v>
+        <v>984</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E229" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="B230">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="C230">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>420</v>
+        <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>634</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="B231">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C231">
-        <v>58</v>
+        <v>602</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>234</v>
+        <v>424</v>
       </c>
       <c r="E231" t="s">
-        <v>448</v>
+        <v>638</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>421</v>
+        <v>221</v>
       </c>
       <c r="E232" t="s">
-        <v>635</v>
+        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B233">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C233">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E233" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B234">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C234">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E234" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B235">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C235">
-        <v>797</v>
+        <v>11</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="E235" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="B236">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="C236">
-        <v>648</v>
+        <v>230</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>424</v>
+        <v>308</v>
       </c>
       <c r="E236" t="s">
-        <v>638</v>
+        <v>522</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B237">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="C237">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E237" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B238">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="C238">
-        <v>921</v>
+        <v>69</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E238" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B239">
         <v>4.6</v>
       </c>
       <c r="C239">
-        <v>313</v>
+        <v>436</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E239" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B240">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C240">
-        <v>674</v>
+        <v>2393</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E240" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B241">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="C241">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E241" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="C242">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>430</v>
+        <v>219</v>
       </c>
       <c r="E242" t="s">
-        <v>644</v>
+        <v>433</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6450,10 +6450,10 @@
         <v>217</v>
       </c>
       <c r="B243">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C243">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>431</v>
@@ -6464,19 +6464,19 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B244">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="C244">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E244" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6484,10 +6484,10 @@
         <v>218</v>
       </c>
       <c r="B245">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="C245">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>432</v>

--- a/downloads/clinique_reviews.xlsx
+++ b/downloads/clinique_reviews.xlsx
@@ -31,1930 +31,1930 @@
     <t>sku</t>
   </si>
   <si>
+    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Charcoal Face Wash</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Moisturizing Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
+  </si>
+  <si>
+    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Oil-Free Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Broad Spectrum SPF 21 Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Scrub</t>
+  </si>
+  <si>
+    <t>Clinique For Men Super Energizer™ Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; For Men Cologne Spray</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Aloe Shave Gel</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
+  </si>
+  <si>
     <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
   </si>
   <si>
-    <t>Clinique For Men™ Broad Spectrum SPF 21 Moisturizer</t>
+    <t>Clinique for Men™ Anti-Age Eye Cream</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Maximum Hydrator Activated Water-Gel Concentrate</t>
   </si>
   <si>
     <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
   </si>
   <si>
-    <t>Clinique For Men™ Charcoal Face Wash</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Maximum Hydrator Activated Water-Gel Concentrate</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Aloe Shave Gel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Face Scrub</t>
-  </si>
-  <si>
-    <t>Clinique for Men™ Anti-Age Eye Cream</t>
-  </si>
-  <si>
     <t>Clinique For Men™ Face Wash</t>
   </si>
   <si>
-    <t>Clinique For Men™ Oil-Free Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men Super Energizer™ Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; For Men Cologne Spray</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Moisturizing Lotion</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
-  </si>
-  <si>
     <t>Clinique for Men™ Cream Shave</t>
   </si>
   <si>
+    <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
+  </si>
+  <si>
+    <t>Perfectly Happy Fragrance and Makeup Set</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
+  </si>
+  <si>
+    <t>Perfectly Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Clinique Happy Heart™ Eau de Parfum Spray</t>
+  </si>
+  <si>
     <t>Clinique For Men™ Starter Kit – Daily Intense Hydration</t>
   </si>
   <si>
-    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
+    <t>Clinique Happy&amp;trade; Body Cream</t>
   </si>
   <si>
     <t>Clinique For Men™ Starter Kit – Daily Oil Control</t>
   </si>
   <si>
+    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir™ Body Smoother</t>
+  </si>
+  <si>
+    <t>NEW High Impact Shadow Play™ Shadow + Definer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clinique My Happy™ Peony Picnic </t>
   </si>
   <si>
+    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique Pop Plush™ Creamy Lip Gloss </t>
+  </si>
+  <si>
+    <t>Quickliner™ For Eyes Eyeliner</t>
+  </si>
+  <si>
+    <t>Superpowder Double Face Makeup</t>
+  </si>
+  <si>
+    <t>Even Better™ Makeup Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>All About Shadow&amp;trade; Quad</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Lipstick Shaping Lip Colour</t>
+  </si>
+  <si>
+    <t>High Impact™ Gel Tech Eyeliner</t>
+  </si>
+  <si>
+    <t>Superbalanced™ Makeup</t>
+  </si>
+  <si>
+    <t>High Impact Zero Gravity™ Mascara</t>
+  </si>
+  <si>
     <t>Clinique Happy in Paradise™ Limited Edition Eau de Parfum Spray</t>
   </si>
   <si>
-    <t>Perfectly Happy Fragrance Set</t>
+    <t>Even Better Clinical™ Serum Foundation Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Blushing Blush&amp;trade; Powder Blush</t>
+  </si>
+  <si>
+    <t>Touch Base For Eyes&amp;trade;</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Eyes Intense Eyeliner</t>
+  </si>
+  <si>
+    <t>High Impact High-Fi™ Full Volume Mascara</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Single</t>
+  </si>
+  <si>
+    <t>Soft-Pressed Powder Blusher</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Sheertint Hydrator Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Stay-Matte Universal Blotting Powder</t>
+  </si>
+  <si>
+    <t>Almost Powder Makeup Broad Spectrum SPF 18</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
+  </si>
+  <si>
+    <t>Bottom Lash Mascara&amp;trade;</t>
+  </si>
+  <si>
+    <t>Lash Doubling Mascara</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting™ Foundation + Concealer</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Sculpting Contour</t>
+  </si>
+  <si>
+    <t>Quickliner&amp;trade; For Lips</t>
+  </si>
+  <si>
+    <t>Aromatics in White</t>
+  </si>
+  <si>
+    <t>Redness Solutions Instant Relief Mineral Pressed Powder With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Instant Lift For Brows</t>
+  </si>
+  <si>
+    <t>Good to Glow: All-in-One Face Palette</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting™ Powder Foundation + Concealer</t>
+  </si>
+  <si>
+    <t>Concealer Brush</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Primer for Eyes</t>
+  </si>
+  <si>
+    <t>Eye Shadow Brush</t>
+  </si>
+  <si>
+    <t>High Impact™ Custom Black Kajal</t>
+  </si>
+  <si>
+    <t>Easy Eye Duo Set</t>
+  </si>
+  <si>
+    <t>Makeup Brush Cleanser</t>
+  </si>
+  <si>
+    <t>NEW Clinique Smart Clinical Repair™ Broad Spectrum SPF 30 Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Cheek Pop™</t>
+  </si>
+  <si>
+    <t>Foundation Brush</t>
+  </si>
+  <si>
+    <t>Take The Day Off&amp;trade; Cleansing Balm</t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Radical Dark Spot Corrector + Interrupter</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Brows Eyebrow Pencil</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Body Wash</t>
+  </si>
+  <si>
+    <t>Brow Shaper</t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t>Bronzer/Blender Brush</t>
+  </si>
+  <si>
+    <t>Foundation Buff Brush</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 2</t>
+  </si>
+  <si>
+    <t>All About Clean™ Liquid Facial Soap</t>
+  </si>
+  <si>
+    <t>Clinique Smart™ Broad Spectrum SPF 15 Custom-Repair Moisturizer</t>
+  </si>
+  <si>
+    <t>Even Better™ All-Over Concealer + Eraser</t>
+  </si>
+  <si>
+    <t>7 Day Scrub Cream Rinse-Off Formula</t>
+  </si>
+  <si>
+    <t>Eye Shader Brush</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Serum</t>
+  </si>
+  <si>
+    <t>Take The Day Off™ Charcoal Cleansing Balm</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Intense 72H Lipid-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Clinique Skincare and Makeup Icons</t>
+  </si>
+  <si>
+    <t>Just Browsing Brush-On Styling Mousse</t>
+  </si>
+  <si>
+    <t>Chubby Lash&amp;trade; Fattening Mascara</t>
+  </si>
+  <si>
+    <t>Sunny Day Skincare and Makeup Staples</t>
+  </si>
+  <si>
+    <t>All About Clean™ Foaming Facial Soap</t>
+  </si>
+  <si>
+    <t>Moisture Surge&amp;trade; Overnight Mask</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Serum De-Puffing Eye Massage</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Rich Eye Cream with Hyaluronic Acid</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Cheek Colour Balm</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Protective Base Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Redness Solutions Redness Regimen</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Clinical Clearing Gel</t>
+  </si>
+  <si>
+    <t>Lash Building Primer</t>
+  </si>
+  <si>
+    <t>Lash Power™ Mascara Long-Wearing Formula</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ 100H Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Cleansing Gel</t>
+  </si>
+  <si>
+    <t>Even Better Eyes™ Dark Circle Corrector</t>
+  </si>
+  <si>
+    <t>Even Better™ Brightening Moisturizer SPF 20</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ All-Over Clearing Treatment</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Hydrating Jelly</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Octet</t>
+  </si>
+  <si>
+    <t>Repairwear Laser Focus&amp;trade; Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Take the Day Off™ Micellar Cleansing Towelettes for Face &amp; Eyes</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Mascara</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 4</t>
+  </si>
+  <si>
+    <t>Summer Day Skincare and Makeup Essentials</t>
+  </si>
+  <si>
+    <t>All About Clean™ 2-in-1 Cleansing + Exfoliating Jelly</t>
+  </si>
+  <si>
+    <t>Blush Brush</t>
+  </si>
+  <si>
+    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Sun-Kissed Face Gelee Complexion Multitasker</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Relief Cream</t>
+  </si>
+  <si>
+    <t>Repairwear&amp;trade; Uplifting Firming Cream Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 3</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Acne + Line Correcting Serum</t>
+  </si>
+  <si>
+    <t>Deep Comfort&amp;trade; Hand and Cuticle Cream</t>
+  </si>
+  <si>
+    <t>Superdefense™ City Block Broad Spectrum SPF 50 Daily Energy + Face Protector</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Rich Cream</t>
+  </si>
+  <si>
+    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Moisture Surge&amp;trade; Face Spray Thirsty Skin Relief</t>
+  </si>
+  <si>
+    <t>All About Clean™ Rinse-Off Foaming Cleanser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad Spectrum SPF 30 Sunscreen Oil-Free Face Cream </t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Sculpting Highlight</t>
+  </si>
+  <si>
+    <t>Clinique Smart Night™ Clinical MD Multi-Dimensional Repair Treatment Retinol</t>
+  </si>
+  <si>
+    <t>Antiperspirant-Deodorant Roll-On</t>
+  </si>
+  <si>
+    <t>Turnaround&amp;trade; Accelerated Renewal Serum</t>
+  </si>
+  <si>
+    <t>Repairwear™ Intensive Lip Treatment</t>
+  </si>
+  <si>
+    <t>Take The Day Off&amp;trade; Cleansing Oil</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Glowing Skin Essentials</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Butter</t>
+  </si>
+  <si>
+    <t>Clinique Pep-Start™ Daily UV Protector Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>Even Better™ Brightening Essence Lotion</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Anti-Age Moisturizer</t>
+  </si>
+  <si>
+    <t>Extra Gentle Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Cleanser Refresher Course (Type 3 &amp; 4)</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Cream Shaper&amp;trade; For Eyes</t>
+  </si>
+  <si>
+    <t>Clinique Sonic System Purifying Cleansing Brush Head</t>
+  </si>
+  <si>
+    <t>Facial Soap</t>
+  </si>
+  <si>
+    <t>Naturally Gentle Eye Makeup Remover</t>
+  </si>
+  <si>
+    <t>NEW Clinique Smart Clinical Repair™ Lifting Face + Neck Cream</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
+  </si>
+  <si>
+    <t>Rinse-Off Eye Makeup Solvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take The Day Off™ Makeup Remover For Lids, Lashes &amp; Lips </t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Lip Hydro-Plump Treatment</t>
+  </si>
+  <si>
+    <t>Aromatics in Black</t>
+  </si>
+  <si>
+    <t>Non-Aerosol Hairspray</t>
+  </si>
+  <si>
+    <t>Sparkle Skin&amp;trade; Body Exfoliating Cream</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Wash</t>
+  </si>
+  <si>
+    <t>Even Better™ All-Over Primer and Color Corrector</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Extreme Volume Mascara</t>
+  </si>
+  <si>
+    <t>High Impact™ Waterproof Mascara</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Moisturizing Lip Colour Balm</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir Riches Fragrance Set</t>
+  </si>
+  <si>
+    <t>Eye Definer Brush</t>
+  </si>
+  <si>
+    <t>True Bronze™ Pressed Powder Bronzer</t>
+  </si>
+  <si>
+    <t>Repairwear™ Anti-Gravity Eye Cream</t>
+  </si>
+  <si>
+    <t>Powder Brush</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
+  </si>
+  <si>
+    <t>SPF 50 Mineral Sunscreen Fluid For Face</t>
+  </si>
+  <si>
+    <t>Exfoliating Scrub</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
+  </si>
+  <si>
+    <t>Dramatically Different&amp;trade; Moisturizing Cream</t>
+  </si>
+  <si>
+    <t>Clinique Fresh Pressed™ Renewing Powder Cleanser with Pure Vitamin C</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Hydro-Infused Lotion</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Duo</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Scrub</t>
+  </si>
+  <si>
+    <t>Clinique Pop™ Longwear Lipstick</t>
+  </si>
+  <si>
+    <t>Redness Solutions Soothing Cleanser With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions Self-Heating Blackhead Extractor</t>
+  </si>
+  <si>
+    <t>Moisture Surge Eye™ 96-Hour Hydro-Filler Concentrate</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Eye Cream with Vitamin C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture Surge™ Broad Spectrum SPF 28 Sheer Hydrator </t>
+  </si>
+  <si>
+    <t>Clarifying Do-Over Peel</t>
+  </si>
+  <si>
+    <t>Redness Solutions Makeup Broad Spectrum SPF 15 With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Even Better Refresh™ Hydrating and Repairing Makeup</t>
+  </si>
+  <si>
+    <t>Stay-Matte Oil-Free Makeup</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 50 Sunscreen Body Cream</t>
+  </si>
+  <si>
+    <t>Turnaround™ Overnight Revitalizing Moisturizer</t>
+  </si>
+  <si>
+    <t>NEW Take The Day Off™ Facial Cleansing Mousse</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Moisture</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Smooth + Renew Lab</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Liquid Makeup</t>
+  </si>
+  <si>
+    <t>Even Better™ Pore Defying Primer</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Clinique Fresh Pressed™ Daily Booster with Pure Vitamin C 10%</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 50 Sunscreen Face Cream</t>
+  </si>
+  <si>
+    <t>Twice the Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>All About Clean™ All-in-One Cleansing Micellar Milk + Makeup Remover</t>
+  </si>
+  <si>
+    <t>Blended Face Powder</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Clarifying Lotion</t>
+  </si>
+  <si>
+    <t>All About Clean™ 2-in-1 Charcoal Mask + Scrub</t>
+  </si>
+  <si>
+    <t>Sparkle Skin&amp;trade; Body Exfoliator</t>
+  </si>
+  <si>
+    <t>High Impact™ Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Hydrating Supercharged Concentrate</t>
+  </si>
+  <si>
+    <t>Even Better™ Light Reflecting Primer</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Cleanser Refresher Course (Type 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Stay-Matte Sheer Pressed Powder</t>
   </si>
   <si>
     <t>Clinique My Happy™&lt;br&gt;Cookies &amp; Kisses</t>
   </si>
   <si>
-    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
-  </si>
-  <si>
-    <t>Perfectly Happy Fragrance and Makeup Set</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
-  </si>
-  <si>
-    <t>Aromatics in White</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique Pop™ Longwear Lipstick</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir Riches Fragrance Set</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Wash</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir™ Body Smoother</t>
-  </si>
-  <si>
-    <t>Quickliner™ For Eyes Eyeliner</t>
-  </si>
-  <si>
-    <t>Aromatics in Black</t>
-  </si>
-  <si>
-    <t>NEW High Impact Shadow Play™ Shadow + Definer</t>
-  </si>
-  <si>
-    <t>High Impact High-Fi™ Full Volume Mascara</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Liquid Makeup</t>
-  </si>
-  <si>
-    <t>Dramatically Different™ Lipstick Shaping Lip Colour</t>
-  </si>
-  <si>
-    <t>Sunny Day Skincare and Makeup Staples</t>
-  </si>
-  <si>
-    <t>Blended Face Powder</t>
-  </si>
-  <si>
-    <t>Quickliner™ For Eyes Intense Eyeliner</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Duo</t>
-  </si>
-  <si>
-    <t>Even Better™ Makeup Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>All About Shadow&amp;trade; Quad</t>
-  </si>
-  <si>
-    <t>Lash Power™ Mascara Long-Wearing Formula</t>
-  </si>
-  <si>
-    <t>Superbalanced™ Makeup</t>
-  </si>
-  <si>
-    <t>Redness Solutions Instant Relief Mineral Pressed Powder With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>Beyond Perfecting™ Foundation + Concealer</t>
-  </si>
-  <si>
-    <t>Blushing Blush&amp;trade; Powder Blush</t>
-  </si>
-  <si>
-    <t>Soft-Pressed Powder Blusher</t>
-  </si>
-  <si>
-    <t>Clinique Skincare and Makeup Icons</t>
-  </si>
-  <si>
-    <t>Even Better™ All-Over Concealer + Eraser</t>
-  </si>
-  <si>
-    <t>Summer Day Skincare and Makeup Essentials</t>
-  </si>
-  <si>
-    <t>Even Better™ All-Over Primer and Color Corrector</t>
-  </si>
-  <si>
-    <t>Stay-Matte Universal Blotting Powder</t>
-  </si>
-  <si>
-    <t>Stay-Matte Oil-Free Makeup</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Single</t>
-  </si>
-  <si>
-    <t>Even Better Refresh™ Hydrating and Repairing Makeup</t>
-  </si>
-  <si>
-    <t>High Impact™ Custom Black Kajal</t>
-  </si>
-  <si>
-    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Sheertint Hydrator Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Bottom Lash Mascara&amp;trade;</t>
-  </si>
-  <si>
-    <t>Good to Glow: All-in-One Face Palette</t>
-  </si>
-  <si>
-    <t>Quickliner&amp;trade; For Lips</t>
-  </si>
-  <si>
-    <t>Stay-Matte Sheer Pressed Powder</t>
-  </si>
-  <si>
-    <t>Chubby Lash&amp;trade; Fattening Mascara</t>
-  </si>
-  <si>
-    <t>Redness Solutions Makeup Broad Spectrum SPF 15 With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>Beyond Perfecting™ Powder Foundation + Concealer</t>
-  </si>
-  <si>
-    <t>Instant Lift For Brows</t>
-  </si>
-  <si>
-    <t>High Impact™ Gel Tech Eyeliner</t>
-  </si>
-  <si>
-    <t>Blush Brush</t>
-  </si>
-  <si>
-    <t>Brow Shaper</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Mascara</t>
-  </si>
-  <si>
-    <t>Eye Shadow Brush</t>
-  </si>
-  <si>
-    <t>Eye Definer Brush</t>
-  </si>
-  <si>
-    <t>Makeup Brush Cleanser</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Moisturizing Lip Colour Balm</t>
-  </si>
-  <si>
-    <t>Even Better™ Pore Defying Primer</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Cream</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Serum</t>
-  </si>
-  <si>
-    <t>Foundation Buff Brush</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Sculpting Highlight</t>
-  </si>
-  <si>
-    <t>Touch Base For Eyes&amp;trade;</t>
-  </si>
-  <si>
-    <t>Even Better Clinical™ Brightening Moisturizer</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Primer for Eyes</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>Take The Day Off&amp;trade; Cleansing Balm</t>
-  </si>
-  <si>
-    <t>Powder Brush</t>
-  </si>
-  <si>
-    <t>Cream Shaper&amp;trade; For Eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moisture Surge™ Broad Spectrum SPF 28 Sheer Hydrator </t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Clinical Clearing Gel</t>
-  </si>
-  <si>
-    <t>Facial Soap</t>
-  </si>
-  <si>
-    <t>High Impact™ Waterproof Mascara</t>
-  </si>
-  <si>
-    <t>Even Better™ Brightening Moisturizer SPF 20</t>
-  </si>
-  <si>
-    <t>Even Better Clinical™ Radical Dark Spot Corrector + Interrupter</t>
-  </si>
-  <si>
-    <t>NEW Clinique Smart Clinical Repair™ Lifting Face + Neck Cream</t>
-  </si>
-  <si>
-    <t>Even Better™ Light Reflecting Primer</t>
-  </si>
-  <si>
-    <t>Lash Doubling Mascara</t>
-  </si>
-  <si>
-    <t>Moisture Surge&amp;trade; Face Spray Thirsty Skin Relief</t>
-  </si>
-  <si>
-    <t>Quickliner™ For Brows Eyebrow Pencil</t>
-  </si>
-  <si>
-    <t>Eye Shader Brush</t>
-  </si>
-  <si>
-    <t>All About Clean™ 2-in-1 Cleansing + Exfoliating Jelly</t>
-  </si>
-  <si>
-    <t>All About Eyes™ Rich Eye Cream with Hyaluronic Acid</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Foundation Brush</t>
-  </si>
-  <si>
-    <t>Repairwear Laser Focus&amp;trade; Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
-    <t>All About Clean™ Liquid Facial Soap</t>
-  </si>
-  <si>
-    <t>Bronzer/Blender Brush</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Rich Cream</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ All-Over Clearing Treatment</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Sculpting Contour</t>
-  </si>
-  <si>
-    <t>NEW Clinique Smart Clinical Repair™ Broad Spectrum SPF 30 Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Easy Eye Duo Set</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 1</t>
-  </si>
-  <si>
-    <t>All About Clean™ Foaming Facial Soap</t>
-  </si>
-  <si>
-    <t>Turnaround&amp;trade; Accelerated Renewal Serum</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 3</t>
-  </si>
-  <si>
-    <t>Clinique Smart Night™ Clinical MD Multi-Dimensional Repair Treatment Retinol</t>
-  </si>
-  <si>
-    <t>All About Clean™ 2-in-1 Charcoal Mask + Scrub</t>
-  </si>
-  <si>
-    <t>Take the Day Off™ Micellar Cleansing Towelettes for Face &amp; Eyes</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Extreme Volume Mascara</t>
-  </si>
-  <si>
-    <t>Concealer Brush</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 4</t>
-  </si>
-  <si>
-    <t>Extra Gentle Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Just Browsing Brush-On Styling Mousse</t>
-  </si>
-  <si>
-    <t>Redness Solutions Daily Protective Base Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>Deep Comfort™ Body Wash</t>
-  </si>
-  <si>
-    <t>All About Eyes™ Eye Cream with Vitamin C</t>
-  </si>
-  <si>
-    <t>Naturally Gentle Eye Makeup Remover</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Hydrating Supercharged Concentrate</t>
-  </si>
-  <si>
-    <t>Repairwear™ Anti-Gravity Eye Cream</t>
-  </si>
-  <si>
-    <t>Clinique Fresh Pressed™ Renewing Powder Cleanser with Pure Vitamin C</t>
-  </si>
-  <si>
-    <t>Deep Comfort™ Body Butter</t>
-  </si>
-  <si>
-    <t>Exfoliating Scrub</t>
-  </si>
-  <si>
-    <t>Redness Solutions Redness Regimen</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions Self-Heating Blackhead Extractor</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Anti-Age Moisturizer</t>
-  </si>
-  <si>
-    <t>Broad Spectrum SPF 50 Sunscreen Face Cream</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>Rinse-Off Eye Makeup Solvent</t>
-  </si>
-  <si>
-    <t>Deep Comfort&amp;trade; Hand and Cuticle Cream</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Acne + Line Correcting Serum</t>
-  </si>
-  <si>
-    <t>Clinique Smart™ Broad Spectrum SPF 15 Custom-Repair Moisturizer</t>
-  </si>
-  <si>
-    <t>Dramatically Different™ Hydrating Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique Pop Plush™ Creamy Lip Gloss </t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Moisture Surge Eye™ 96-Hour Hydro-Filler Concentrate</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Scrub</t>
-  </si>
-  <si>
-    <t>NEW Take The Day Off™ Facial Cleansing Mousse</t>
-  </si>
-  <si>
-    <t>Take The Day Off&amp;trade; Cleansing Oil</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Smooth + Renew Lab</t>
-  </si>
-  <si>
-    <t>Non-Aerosol Hairspray</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Hydro-Infused Lotion</t>
-  </si>
-  <si>
-    <t>Clinique Pep-Start™ Daily UV Protector Broad Spectrum SPF 50</t>
-  </si>
-  <si>
-    <t>Chubby Stick&amp;trade; Cheek Colour Balm</t>
-  </si>
-  <si>
-    <t>Antiperspirant-Deodorant Roll-On</t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
-  </si>
-  <si>
-    <t>Superpowder Double Face Makeup</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
-  </si>
-  <si>
-    <t>Dramatically Different&amp;trade; Moisturizing Cream</t>
-  </si>
-  <si>
-    <t>Even Better Eyes™ Dark Circle Corrector</t>
-  </si>
-  <si>
-    <t>Sparkle Skin&amp;trade; Body Exfoliator</t>
-  </si>
-  <si>
-    <t>Redness Solutions Soothing Cleanser With Probiotic Technology</t>
-  </si>
-  <si>
-    <t>Sun-Kissed Face Gelee Complexion Multitasker</t>
-  </si>
-  <si>
-    <t>Repairwear&amp;trade; Uplifting Firming Cream Broad Spectrum SPF 15</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ 100H Auto-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>Clinique Sonic System Purifying Cleansing Brush Head</t>
-  </si>
-  <si>
-    <t>Twice the Happy Fragrance Set</t>
-  </si>
-  <si>
-    <t>SPF 50 Mineral Sunscreen Fluid For Face</t>
-  </si>
-  <si>
-    <t>Superdefense™ City Block Broad Spectrum SPF 50 Daily Energy + Face Protector</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
-  </si>
-  <si>
-    <t>High Impact Zero Gravity™ Mascara</t>
-  </si>
-  <si>
-    <t>Redness Solutions Daily Relief Cream</t>
-  </si>
-  <si>
-    <t>Cheek Pop™</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 2</t>
-  </si>
-  <si>
-    <t>Take The Day Off™ Charcoal Cleansing Balm</t>
-  </si>
-  <si>
-    <t>Clarifying Do-Over Peel</t>
-  </si>
-  <si>
-    <t>All About Shadow™ Octet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take The Day Off™ Makeup Remover For Lids, Lashes &amp; Lips </t>
-  </si>
-  <si>
-    <t>Turnaround™ Overnight Revitalizing Moisturizer</t>
-  </si>
-  <si>
-    <t>Dramatically Different™ Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Clarifying Lotion</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Cleanser Refresher Course (Type 1 &amp; 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broad Spectrum SPF 30 Sunscreen Oil-Free Face Cream </t>
-  </si>
-  <si>
-    <t>Almost Powder Makeup Broad Spectrum SPF 18</t>
-  </si>
-  <si>
-    <t>Broad Spectrum SPF 50 Sunscreen Body Cream</t>
-  </si>
-  <si>
-    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>High Impact™ Easy Liquid Eyeliner</t>
-  </si>
-  <si>
-    <t>All About Eyes™ Serum De-Puffing Eye Massage</t>
-  </si>
-  <si>
-    <t>Clinique Happy Heart™ Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Deep Comfort™ Body Moisture</t>
-  </si>
-  <si>
-    <t>Moisture Surge&amp;trade; Overnight Mask</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Intense 72H Lipid-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>True Bronze™ Pressed Powder Bronzer</t>
-  </si>
-  <si>
-    <t>Even Better™ Brightening Essence Lotion</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Glowing Skin Essentials</t>
-  </si>
-  <si>
-    <t>Sparkle Skin&amp;trade; Body Exfoliating Cream</t>
-  </si>
-  <si>
-    <t>All About Clean™ All-in-One Cleansing Micellar Milk + Makeup Remover</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Lip Hydro-Plump Treatment</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>7 Day Scrub Cream Rinse-Off Formula</t>
-  </si>
-  <si>
-    <t>Clinique Fresh Pressed™ Daily Booster with Pure Vitamin C 10%</t>
-  </si>
-  <si>
-    <t>All About Clean™ Rinse-Off Foaming Cleanser</t>
-  </si>
-  <si>
-    <t>Repairwear™ Intensive Lip Treatment</t>
-  </si>
-  <si>
-    <t>Skin School Supplies: Cleanser Refresher Course (Type 3 &amp; 4)</t>
-  </si>
-  <si>
-    <t>Acne Solutions&amp;trade; Cleansing Gel</t>
-  </si>
-  <si>
-    <t>Lash Building Primer</t>
-  </si>
-  <si>
-    <t>Even Better Clinical™ Serum Foundation Broad Spectrum SPF 25</t>
+    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/86689/mens/skin-care/moisturize-protect/clinique-for-mentm-oil-free-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
+    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1626/86689/mens/skin-care/moisturize-protect/clinique-for-mentm-oil-free-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
-  </si>
-  <si>
     <t>https://www.clinique.com/product/1623/4802/mens/shave/clinique-for-mentm-cream-shave</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1619/57009/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-intense-hydration</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1619/57010/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-oil-control</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/123647/makeup/eye-shadows/new-high-impact-shadow-playtm-shadow-definer</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1603/106865/makeup/lip-glosses/clinique-pop-plushtm-creamy-lip-gloss</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/4770/makeup/eyeliners/quicklinertm-for-eyes-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/6077/makeup/foundations/superpowder-double-face-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/5276/makeup/foundations/even-bettertm-makeup-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27033/makeup/eye-shadows/all-about-shadow-quad</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/60030/makeup/lipsticks/dramatically-differenttm-lipstick-shaping-lip-colour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/121425/makeup/eyeliners/high-impacttm-gel-tech-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/4989/makeup/foundations/superbalancedtm-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/93578/makeup/mascara/high-impact-zero-gravitytm-mascara</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
+    <t>https://www.clinique.com/product/1599/80532/makeup/foundations/even-better-clinicaltm-serum-foundation-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5265/makeup/blushers/blushing-blush-powder-blush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/5169/makeup/eye-shadows/touch-base-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/12313/makeup/eyeliners/quicklinertm-for-eyes-intense-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27031/makeup/eye-shadows/all-about-shadowtm-single</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5164/makeup/blushers/soft-pressed-powder-blusher</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/25255/makeup/foundations/bb-and-cc-cream/moisture-surgetm-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/64320/makeup/foundations/bb-and-cc-cream/moisture-surgetm-sheertint-hydrator-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/40619/makeup/powders/stay-matte-universal-blotting-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/61087/makeup/foundations/almost-powder-makeup-broad-spectrum-spf-18</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58212/makeup/mascara/bottom-lash-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5232/makeup/mascara/lash-doubling-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/34817/makeup/foundations/beyond-perfectingtm-foundation-concealer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34749/makeup/contouring/chubby-stick-sculpting-contour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1604/4771/makeup/lip-liner/quickliner-for-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/12934/skincare/redness/redness-solutions-instant-relief-mineral-pressed-powder-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/55683/makeup/brows/instant-lift-for-brows</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126256/gift-center/all-gifts-sets/good-to-glow-all-in-one-face-palette</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/37389/makeup/foundations/beyond-perfectingtm-powder-foundation-concealer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4868/makeup/the-brush-collection/concealer-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27035/makeup/eye-shadows/all-about-shadowtm-primer-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6344/makeup/the-brush-collection/eye-shadow-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/41979/makeup/eyeliners/high-impacttm-custom-black-kajal</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/121190/gift-center/all-gifts-sets/easy-eye-duo-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5730/makeup/the-brush-collection/makeup-brush-cleanser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/123646/skincare/moisturizers/new-clinique-smart-clinical-repairtm-broad-spectrum-spf-30-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/29770/makeup/blushers/cheek-poptm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4923/makeup/the-brush-collection/foundation-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/6424/skincare/makeup-removers/take-the-day-off-cleansing-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/68008/skincare/serum/even-better-clinicaltm-radical-dark-spot-corrector-interrupter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/101794/makeup/brows/quicklinertm-for-brows-eyebrow-pencil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/5634/makeup/brows/brow-shaper</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106904/skincare/moisturizers/even-better-clinicaltm-brightening-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6349/makeup/the-brush-collection/bronzerblender-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12518/39687/makeup/the-brush-collection/face-brushes/foundation-buff-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15502/skincare/exfoliators/clarifying-lotion-2/exfoliates-to-balance-dry-combination-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/8279/skincare/cleansers-makeup-removers/all-about-cleantm-liquid-facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/37483/skincare/moisturizers/clinique-smarttm-broad-spectrum-spf-15-custom-repair-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1596/76702/makeup/concealers/even-bettertm-all-over-concealer-eraser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5003/skincare/cleansers-makeup-removers/7-day-scrub-cream-rinse-off-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6139/makeup/the-brush-collection/eye-shader-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/87057/skincare/serum/clinique-smart-clinical-repairtm-wrinkle-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/106898/skincare/makeup-removers/take-the-day-offtm-charcoal-cleansing-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/79628/skincare/moisturizers/moisture-surgetm-intense-72h-lipid-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126261/gift-center/all-gifts-sets/clinique-skincare-and-makeup-icons</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/36585/makeup/brows/just-browsing-brush-on-styling-mousse</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/36482/makeup/mascara/chubby-lash-fattening-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126073/gift-center/all-gifts-sets/sunny-day-skincare-and-makeup-staples</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/31385/skincare/cleansers-makeup-removers/all-about-cleantm-foaming-facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14706/24569/skincare/masks/moisture-surge-overnight-mask</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1667/9423/skincare/all-about-eyestm-serum-de-puffing-eye-massage</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/15601/skincare/eye-care/all-about-eyestm-rich-eye-cream-with-hyaluronic-acid</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/30944/makeup/blushers/chubby-stick-cheek-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6008/skincare/redness/redness-solutions-daily-protective-base-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5553/skincare/redness/redness-solutions-redness-regimen</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16320/104214/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1672/29793/skincare/acne/treatment-specialists/acne-solutionstm-clinical-clearing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5236/makeup/mascara/lash-building-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58211/makeup/mascara/lash-powertm-mascara-long-wearing-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/83690/skincare/moisturizers/moisture-surgetm-100h-auto-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/34750/skincare/acne/acne-solutions-cleansing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/22695/skincare/eye-care/even-better-eyestm-dark-circle-corrector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106878/skincare/moisturizers/even-bettertm-brightening-moisturizer-spf-20</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/4977/skincare/moisturizers/acne-solutionstm-all-over-clearing-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/58208/3-step/step-3-moisturize/dramatically-differenttm-hydrating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/121426/makeup/eye-shadows/all-about-shadowtm-octet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/37235/skincare/eye-care/repairwear-laser-focus-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/40885/skincare/makeup-removers/take-the-day-offtm-micellar-cleansing-towelettes-for-face-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15504/3-step/step-2-exfoliate/clarifying-lotion-4/refreshing-exfoliator-for-oily-skin-types</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126184/gift-center/all-gifts-sets/summer-day-skincare-and-makeup-essentials</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83735/skincare/exfoliators/all-about-cleantm-2-in-1-cleansing-exfoliating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4869/makeup/the-brush-collection/blush-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/19517/makeup/foundations/bb-and-cc-cream/age-defense-bb-cream-broad-spectrum-spf-30</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1592/41442/makeup/sun-kissed-face-gelee-complexion-multitasker</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6007/skincare/redness/redness-solutions-daily-relief-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/22875/skincare/moisturizers/repairwear-uplifting-firming-cream-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5375/skincare/cleansers-makeup-removers/acne-solutions-cleansing-foam</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15503/skincare/exfoliators/clarifying-lotion-3/exfoliates-to-balance-combination-oily-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/40880/skincare/acne/acne-solutionstm-acne-line-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6768/skincare/hand-body-care/deep-comfort-hand-and-cuticle-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/72241/sun-protection-self-tanners/sun-protection/superdefensetm-city-block-broad-spectrum-spf-50-daily-energy-face-protector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16320/109960/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-rich-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5861/sun-protection-self-tanners/sun-protection/city-block-sheer-oil-free-daily-face-protector-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5449/skincare/moisturizers/moisture-surge-face-spray-thirsty-skin-relief</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6254/skincare/cleansers-makeup-removers/all-about-cleantm-rinse-off-foaming-cleanser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1659/48282/sun-protection-self-tanners/broad-spectrum-spf-30-sunscreen-oil-free-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34748/makeup/contouring/chubby-stick-sculpting-highlight</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/81833/skincare/serum/clinique-smart-nighttm-clinical-md-multi-dimensional-repair-treatment-retinol</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5678/skincare/hand-body-care/antiperspirant-deodorant-roll-on</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1680/46673/skincare/dullness/daily-renewal/turnaround-accelerated-renewal-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/25356/6152/skincare/lip-care/repairweartm-intensive-lip-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6555/skincare/cleansers-makeup-removers/take-the-day-off-cleansing-oil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104218/gift-center/all-gifts-sets/skin-school-supplies-glowing-skin-essentials</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6089/skincare/hand-body-care/deep-comforttm-body-butter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/47339/sun-protection-self-tanners/sun-protection/clinique-pep-starttm-daily-uv-protector-broad-spectrum-spf-50</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/106905/skincare/watery-lotions/even-bettertm-brightening-essence-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/29405/mens/skin-care/moisturize-protect/clinique-for-mentm-anti-age-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/38171/skincare/cleansers-makeup-removers/extra-gentle-cleansing-foam</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104241/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-3-4</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/6140/makeup/eyeliners/cream-shaper-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1572/31328/3-step/step-1-cleanse/clinique-sonic-system-purifying-cleansing-brush-head</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1572/4792/3-step/step-1-cleanse/facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/4992/skincare/cleansers-makeup-removers/naturally-gentle-eye-makeup-remover</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/118379/skincare/moisturizers/new-clinique-smart-clinical-repairtm-lifting-face-neck-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5864/skincare/cleansers-makeup-removers/rinse-off-eye-makeup-solvent</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5380/skincare/cleansers-makeup-removers/take-the-day-offtm-makeup-remover-for-lids-lashes-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/25356/64269/skincare/lip-care/moisture-surgetm-lip-hydro-plump-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6067/skincare/hand-body-care/non-aerosol-hairspray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/4807/skincare/hand-body-care/sparkle-skin-body-exfoliating-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15501/3-step/step-2-exfoliate/clarifying-lotion-1/gently-comfortably-exfoliates-dry-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/7004/skincare/hand-body-care/deep-comforttm-body-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/106268/makeup/primers/even-bettertm-all-over-primer-and-color-corrector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/22759/makeup/mascara/high-impact-extreme-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/24805/makeup/mascara/high-impacttm-waterproof-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/15520/makeup/lipsticks/chubby-stick-moisturizing-lip-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126216/gift-center/all-gifts-sets/aromatics-elixir-riches-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5954/makeup/the-brush-collection/eye-definer-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1594/5737/makeup/bronzers/true-bronzetm-pressed-powder-bronzer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1676/32630/skincare/de-aging/repair-247/repairweartm-anti-gravity-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5953/makeup/the-brush-collection/powder-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/41982/skincare/exfoliators/clarifying-lotion-10-twice-a-day-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/40650/sun-protection-self-tanners/sun-protection/spf-50-mineral-sunscreen-fluid-for-face</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/6277/skincare/exfoliators/exfoliating-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/34679/3-step/step-3-moisturize/dramatically-different-moisturizing-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/18919/43162/skincare/fresh-pressed/clinique-fresh-pressedtm-renewing-powder-cleanser-with-pure-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/103370/skincare/watery-lotions/moisture-surgetm-hydro-infused-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27032/makeup/eye-shadows/all-about-shadowtm-duo</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5047/skincare/moisturizers/dramatically-differenttm-moisturizing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56035/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-7-day-deep-pore-cleanse-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5800/skincare/redness/redness-solutions-soothing-cleanser-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56037/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-self-heating-blackhead-extractor</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/64270/skincare/eye-care/moisture-surge-eyetm-96-hour-hydro-filler-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/4769/skincare/eye-care/all-about-eyestm-eye-cream-with-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/115975/skincare/moisturizers/moisture-surgetm-broad-spectrum-spf-28-sheer-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/103171/skincare/exfoliators/clarifying-do-over-peel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/13188/skincare/redness/redness-solutions-makeup-broad-spectrum-spf-15-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/63583/makeup/foundations/even-better-refreshtm-hydrating-and-repairing-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/21954/makeup/foundations/stay-matte-oil-free-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/4972/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-body-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1680/34020/skincare/dullness/daily-renewal/turnaroundtm-overnight-revitalizing-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/121428/skincare/cleansers-makeup-removers/new-take-the-day-offtm-facial-cleansing-mousse</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5192/skincare/hand-body-care/deep-comforttm-body-moisture</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104217/gift-center/all-gifts-sets/skin-school-supplies-smooth-renew-lab</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/9285/makeup/foundations/acne-solutionstm-liquid-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116217/makeup/primers/even-bettertm-pore-defying-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/94055/skincare/eye-care/clinique-smart-clinical-repairtm-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/18919/43160/skincare/fresh-pressed/clinique-fresh-pressedtm-daily-booster-with-pure-vitamin-c-10</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5854/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/76253/skincare/cleansers-makeup-removers/all-about-cleantm-all-in-one-cleansing-micellar-milk-makeup-remover</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6271/makeup/powders/blended-face-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/4976/skincare/exfoliators/acne-solutions-clarifying-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83736/skincare/exfoliators/all-about-cleantm-2-in-1-charcoal-mask-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5620/skincare/hand-body-care/sparkle-skin-body-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/101223/makeup/eyeliners/high-impacttm-easy-liquid-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/45043/skincare/moisturizers/moisture-surgetm-hydrating-supercharged-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116157/makeup/primers/even-bettertm-light-reflecting-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/106479/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-1-2</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6069/makeup/powders/stay-matte-sheer-pressed-powder</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126216/gift-center/all-gifts-sets/aromatics-elixir-riches-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/4770/makeup/eyeliners/quicklinertm-for-eyes-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/123647/makeup/eye-shadows/new-high-impact-shadow-playtm-shadow-definer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/9285/makeup/foundations/acne-solutionstm-liquid-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/60030/makeup/lipsticks/dramatically-differenttm-lipstick-shaping-lip-colour</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126073/gift-center/all-gifts-sets/sunny-day-skincare-and-makeup-staples</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/6271/makeup/powders/blended-face-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/12313/makeup/eyeliners/quicklinertm-for-eyes-intense-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27032/makeup/eye-shadows/all-about-shadowtm-duo</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/5276/makeup/foundations/even-bettertm-makeup-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27033/makeup/eye-shadows/all-about-shadow-quad</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/58211/makeup/mascara/lash-powertm-mascara-long-wearing-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/4989/makeup/foundations/superbalancedtm-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/12934/skincare/redness/redness-solutions-instant-relief-mineral-pressed-powder-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/34817/makeup/foundations/beyond-perfectingtm-foundation-concealer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/5265/makeup/blushers/blushing-blush-powder-blush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/5164/makeup/blushers/soft-pressed-powder-blusher</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126261/gift-center/all-gifts-sets/clinique-skincare-and-makeup-icons</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1596/76702/makeup/concealers/even-bettertm-all-over-concealer-eraser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126184/gift-center/all-gifts-sets/summer-day-skincare-and-makeup-essentials</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/106268/makeup/primers/even-bettertm-all-over-primer-and-color-corrector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/40619/makeup/powders/stay-matte-universal-blotting-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/21954/makeup/foundations/stay-matte-oil-free-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27031/makeup/eye-shadows/all-about-shadowtm-single</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/63583/makeup/foundations/even-better-refreshtm-hydrating-and-repairing-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/41979/makeup/eyeliners/high-impacttm-custom-black-kajal</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/19517/makeup/foundations/bb-and-cc-cream/age-defense-bb-cream-broad-spectrum-spf-30</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/64320/makeup/foundations/bb-and-cc-cream/moisture-surgetm-sheertint-hydrator-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/58212/makeup/mascara/bottom-lash-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126256/gift-center/all-gifts-sets/good-to-glow-all-in-one-face-palette</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1604/4771/makeup/lip-liner/quickliner-for-lips</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1607/6069/makeup/powders/stay-matte-sheer-pressed-powder</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/36482/makeup/mascara/chubby-lash-fattening-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/13188/skincare/redness/redness-solutions-makeup-broad-spectrum-spf-15-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/37389/makeup/foundations/beyond-perfectingtm-powder-foundation-concealer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/55683/makeup/brows/instant-lift-for-brows</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/121425/makeup/eyeliners/high-impacttm-gel-tech-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4869/makeup/the-brush-collection/blush-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/5634/makeup/brows/brow-shaper</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6344/makeup/the-brush-collection/eye-shadow-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5954/makeup/the-brush-collection/eye-definer-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5730/makeup/the-brush-collection/makeup-brush-cleanser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/15520/makeup/lipsticks/chubby-stick-moisturizing-lip-colour-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/116217/makeup/primers/even-bettertm-pore-defying-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/87057/skincare/serum/clinique-smart-clinical-repairtm-wrinkle-correcting-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12518/39687/makeup/the-brush-collection/face-brushes/foundation-buff-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14346/34748/makeup/contouring/chubby-stick-sculpting-highlight</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/5169/makeup/eye-shadows/touch-base-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/106904/skincare/moisturizers/even-better-clinicaltm-brightening-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/27035/makeup/eye-shadows/all-about-shadowtm-primer-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/94055/skincare/eye-care/clinique-smart-clinical-repairtm-wrinkle-correcting-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/6424/skincare/makeup-removers/take-the-day-off-cleansing-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/5953/makeup/the-brush-collection/powder-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/6140/makeup/eyeliners/cream-shaper-for-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/115975/skincare/moisturizers/moisture-surgetm-broad-spectrum-spf-28-sheer-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1672/29793/skincare/acne/treatment-specialists/acne-solutionstm-clinical-clearing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1572/4792/3-step/step-1-cleanse/facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/24805/makeup/mascara/high-impacttm-waterproof-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/106878/skincare/moisturizers/even-bettertm-brightening-moisturizer-spf-20</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/68008/skincare/serum/even-better-clinicaltm-radical-dark-spot-corrector-interrupter</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/118379/skincare/moisturizers/new-clinique-smart-clinical-repairtm-lifting-face-neck-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11265/116157/makeup/primers/even-bettertm-light-reflecting-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5232/makeup/mascara/lash-doubling-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/5449/skincare/moisturizers/moisture-surge-face-spray-thirsty-skin-relief</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/101794/makeup/brows/quicklinertm-for-brows-eyebrow-pencil</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6139/makeup/the-brush-collection/eye-shader-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/83735/skincare/exfoliators/all-about-cleantm-2-in-1-cleansing-exfoliating-jelly</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/15601/skincare/eye-care/all-about-eyestm-rich-eye-cream-with-hyaluronic-acid</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16320/104214/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4923/makeup/the-brush-collection/foundation-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/37235/skincare/eye-care/repairwear-laser-focus-wrinkle-correcting-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/8279/skincare/cleansers-makeup-removers/all-about-cleantm-liquid-facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/6349/makeup/the-brush-collection/bronzerblender-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16320/109960/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-rich-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/4977/skincare/moisturizers/acne-solutionstm-all-over-clearing-treatment</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14346/34749/makeup/contouring/chubby-stick-sculpting-contour</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/123646/skincare/moisturizers/new-clinique-smart-clinical-repairtm-broad-spectrum-spf-30-wrinkle-correcting-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/121190/gift-center/all-gifts-sets/easy-eye-duo-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1573/15501/3-step/step-2-exfoliate/clarifying-lotion-1/gently-comfortably-exfoliates-dry-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/31385/skincare/cleansers-makeup-removers/all-about-cleantm-foaming-facial-soap</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1680/46673/skincare/dullness/daily-renewal/turnaround-accelerated-renewal-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/15503/skincare/exfoliators/clarifying-lotion-3/exfoliates-to-balance-combination-oily-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/4034/81833/skincare/serum/clinique-smart-nighttm-clinical-md-multi-dimensional-repair-treatment-retinol</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/83736/skincare/exfoliators/all-about-cleantm-2-in-1-charcoal-mask-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/40885/skincare/makeup-removers/take-the-day-offtm-micellar-cleansing-towelettes-for-face-eyes</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/22759/makeup/mascara/high-impact-extreme-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1608/4868/makeup/the-brush-collection/concealer-brush</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1573/15504/3-step/step-2-exfoliate/clarifying-lotion-4/refreshing-exfoliator-for-oily-skin-types</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/38171/skincare/cleansers-makeup-removers/extra-gentle-cleansing-foam</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1595/36585/makeup/brows/just-browsing-brush-on-styling-mousse</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/6008/skincare/redness/redness-solutions-daily-protective-base-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/7004/skincare/hand-body-care/deep-comforttm-body-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/4769/skincare/eye-care/all-about-eyestm-eye-cream-with-vitamin-c</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/4992/skincare/cleansers-makeup-removers/naturally-gentle-eye-makeup-remover</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/45043/skincare/moisturizers/moisture-surgetm-hydrating-supercharged-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1676/32630/skincare/de-aging/repair-247/repairweartm-anti-gravity-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/18919/43162/skincare/fresh-pressed/clinique-fresh-pressedtm-renewing-powder-cleanser-with-pure-vitamin-c</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6089/skincare/hand-body-care/deep-comforttm-body-butter</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/6277/skincare/exfoliators/exfoliating-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/5553/skincare/redness/redness-solutions-redness-regimen</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16741/56037/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-self-heating-blackhead-extractor</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/29405/mens/skin-care/moisturize-protect/clinique-for-mentm-anti-age-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/5854/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-face-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11480/25255/makeup/foundations/bb-and-cc-cream/moisture-surgetm-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5864/skincare/cleansers-makeup-removers/rinse-off-eye-makeup-solvent</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6768/skincare/hand-body-care/deep-comfort-hand-and-cuticle-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1668/40880/skincare/acne/acne-solutionstm-acne-line-correcting-serum</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/37483/skincare/moisturizers/clinique-smarttm-broad-spectrum-spf-15-custom-repair-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1574/58208/3-step/step-3-moisturize/dramatically-differenttm-hydrating-jelly</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1603/106865/makeup/lip-glosses/clinique-pop-plushtm-creamy-lip-gloss</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5375/skincare/cleansers-makeup-removers/acne-solutions-cleansing-foam</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/64270/skincare/eye-care/moisture-surge-eyetm-96-hour-hydro-filler-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16741/56035/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-7-day-deep-pore-cleanse-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/121428/skincare/cleansers-makeup-removers/new-take-the-day-offtm-facial-cleansing-mousse</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/6555/skincare/cleansers-makeup-removers/take-the-day-off-cleansing-oil</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/104217/gift-center/all-gifts-sets/skin-school-supplies-smooth-renew-lab</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6067/skincare/hand-body-care/non-aerosol-hairspray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14666/103370/skincare/watery-lotions/moisture-surgetm-hydro-infused-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/47339/sun-protection-self-tanners/sun-protection/clinique-pep-starttm-daily-uv-protector-broad-spectrum-spf-50</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/30944/makeup/blushers/chubby-stick-cheek-colour-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/5678/skincare/hand-body-care/antiperspirant-deodorant-roll-on</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/6077/makeup/foundations/superpowder-double-face-makeup</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1574/34679/3-step/step-3-moisturize/dramatically-different-moisturizing-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1683/22695/skincare/eye-care/even-better-eyestm-dark-circle-corrector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/5620/skincare/hand-body-care/sparkle-skin-body-exfoliator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/5800/skincare/redness/redness-solutions-soothing-cleanser-with-probiotic-technology</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1592/41442/makeup/sun-kissed-face-gelee-complexion-multitasker</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/22875/skincare/moisturizers/repairwear-uplifting-firming-cream-broad-spectrum-spf-15</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/83690/skincare/moisturizers/moisture-surgetm-100h-auto-replenishing-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1572/31328/3-step/step-1-cleanse/clinique-sonic-system-purifying-cleansing-brush-head</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/40650/sun-protection-self-tanners/sun-protection/spf-50-mineral-sunscreen-fluid-for-face</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/72241/sun-protection-self-tanners/sun-protection/superdefensetm-city-block-broad-spectrum-spf-50-daily-energy-face-protector</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/41982/skincare/exfoliators/clarifying-lotion-10-twice-a-day-exfoliator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/93578/makeup/mascara/high-impact-zero-gravitytm-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1689/6007/skincare/redness/redness-solutions-daily-relief-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1593/29770/makeup/blushers/cheek-poptm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/15502/skincare/exfoliators/clarifying-lotion-2/exfoliates-to-balance-dry-combination-skins</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/20011/106898/skincare/makeup-removers/take-the-day-offtm-charcoal-cleansing-balm</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/103171/skincare/exfoliators/clarifying-do-over-peel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1598/121426/makeup/eye-shadows/all-about-shadowtm-octet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5380/skincare/cleansers-makeup-removers/take-the-day-offtm-makeup-remover-for-lids-lashes-lips</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1680/34020/skincare/dullness/daily-renewal/turnaroundtm-overnight-revitalizing-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/5047/skincare/moisturizers/dramatically-differenttm-moisturizing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1682/4976/skincare/exfoliators/acne-solutions-clarifying-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/106479/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-1-2</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1659/48282/sun-protection-self-tanners/broad-spectrum-spf-30-sunscreen-oil-free-face-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/61087/makeup/foundations/almost-powder-makeup-broad-spectrum-spf-18</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/4972/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-body-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1661/5861/sun-protection-self-tanners/sun-protection/city-block-sheer-oil-free-daily-face-protector-broad-spectrum-spf-25</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1597/101223/makeup/eyeliners/high-impacttm-easy-liquid-eyeliner</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1667/9423/skincare/all-about-eyestm-serum-de-puffing-eye-massage</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/5192/skincare/hand-body-care/deep-comforttm-body-moisture</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14706/24569/skincare/masks/moisture-surge-overnight-mask</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1687/79628/skincare/moisturizers/moisture-surgetm-intense-72h-lipid-replenishing-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1594/5737/makeup/bronzers/true-bronzetm-pressed-powder-bronzer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/14666/106905/skincare/watery-lotions/even-bettertm-brightening-essence-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/104218/gift-center/all-gifts-sets/skin-school-supplies-glowing-skin-essentials</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/4807/skincare/hand-body-care/sparkle-skin-body-exfoliating-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/76253/skincare/cleansers-makeup-removers/all-about-cleantm-all-in-one-cleansing-micellar-milk-makeup-remover</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/25356/64269/skincare/lip-care/moisture-surgetm-lip-hydro-plump-treatment</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/5003/skincare/cleansers-makeup-removers/7-day-scrub-cream-rinse-off-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/18919/43160/skincare/fresh-pressed/clinique-fresh-pressedtm-daily-booster-with-pure-vitamin-c-10</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1673/6254/skincare/cleansers-makeup-removers/all-about-cleantm-rinse-off-foaming-cleanser</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/25356/6152/skincare/lip-care/repairweartm-intensive-lip-treatment</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/104241/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-3-4</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1668/34750/skincare/acne/acne-solutions-cleansing-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5236/makeup/mascara/lash-building-primer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1599/80532/makeup/foundations/even-better-clinicaltm-serum-foundation-broad-spectrum-spf-25</t>
+    <t>65EN01</t>
+  </si>
+  <si>
+    <t>ZF7E01</t>
+  </si>
+  <si>
+    <t>Z21901</t>
+  </si>
+  <si>
+    <t>K6KW01</t>
+  </si>
+  <si>
+    <t>65EM01</t>
+  </si>
+  <si>
+    <t>V2Y701</t>
+  </si>
+  <si>
+    <t>6FWR01</t>
+  </si>
+  <si>
+    <t>67F901</t>
+  </si>
+  <si>
+    <t>K6K701</t>
+  </si>
+  <si>
+    <t>62YL01</t>
+  </si>
+  <si>
+    <t>Z4RN01</t>
+  </si>
+  <si>
+    <t>V3KX01</t>
   </si>
   <si>
     <t>V90M01</t>
   </si>
   <si>
-    <t>6FWR01</t>
+    <t>6TCR01</t>
+  </si>
+  <si>
+    <t>KJ8H01</t>
+  </si>
+  <si>
+    <t>K0CG01</t>
   </si>
   <si>
     <t>V90R01</t>
   </si>
   <si>
-    <t>ZF7E01</t>
-  </si>
-  <si>
-    <t>K0CG01</t>
-  </si>
-  <si>
-    <t>Z4RN01</t>
-  </si>
-  <si>
-    <t>K6KW01</t>
-  </si>
-  <si>
-    <t>65EM01</t>
-  </si>
-  <si>
-    <t>67F901</t>
-  </si>
-  <si>
-    <t>6TCR01</t>
-  </si>
-  <si>
     <t>Z4KH01</t>
   </si>
   <si>
-    <t>V2Y701</t>
-  </si>
-  <si>
-    <t>K6K701</t>
-  </si>
-  <si>
-    <t>62YL01</t>
-  </si>
-  <si>
-    <t>Z21901</t>
-  </si>
-  <si>
-    <t>65EN01</t>
-  </si>
-  <si>
-    <t>KJ8H01</t>
-  </si>
-  <si>
-    <t>V3KX01</t>
-  </si>
-  <si>
     <t>67FE01</t>
   </si>
   <si>
+    <t>651705</t>
+  </si>
+  <si>
+    <t>VCFH01</t>
+  </si>
+  <si>
+    <t>V12H01</t>
+  </si>
+  <si>
+    <t>VA3JY3</t>
+  </si>
+  <si>
+    <t>661002</t>
+  </si>
+  <si>
+    <t>K2K801</t>
+  </si>
+  <si>
     <t>K77L01</t>
   </si>
   <si>
-    <t>V12H01</t>
+    <t>64MG01</t>
   </si>
   <si>
     <t>V2YF01</t>
   </si>
   <si>
+    <t>Z79J01</t>
+  </si>
+  <si>
+    <t>660601</t>
+  </si>
+  <si>
+    <t>V9E501</t>
+  </si>
+  <si>
     <t>K8GM01</t>
   </si>
   <si>
+    <t>K8GN01</t>
+  </si>
+  <si>
+    <t>V68K07</t>
+  </si>
+  <si>
+    <t>62A405</t>
+  </si>
+  <si>
+    <t>647J07</t>
+  </si>
+  <si>
+    <t>6MNY39</t>
+  </si>
+  <si>
+    <t>VCWL01</t>
+  </si>
+  <si>
+    <t>K4XH01</t>
+  </si>
+  <si>
+    <t>VEH801</t>
+  </si>
+  <si>
+    <t>KXJA32</t>
+  </si>
+  <si>
+    <t>V4TC01</t>
+  </si>
+  <si>
     <t>VC7G01</t>
   </si>
   <si>
-    <t>VA3JY3</t>
+    <t>KNXW41</t>
+  </si>
+  <si>
+    <t>6FLK08</t>
+  </si>
+  <si>
+    <t>633917</t>
+  </si>
+  <si>
+    <t>V16H11</t>
+  </si>
+  <si>
+    <t>V82P01</t>
+  </si>
+  <si>
+    <t>VCWG3W</t>
+  </si>
+  <si>
+    <t>618J02</t>
+  </si>
+  <si>
+    <t>7WCP07</t>
+  </si>
+  <si>
+    <t>KEX901</t>
+  </si>
+  <si>
+    <t>ZKNM01</t>
+  </si>
+  <si>
+    <t>K78501</t>
+  </si>
+  <si>
+    <t>K8GP01</t>
+  </si>
+  <si>
+    <t>Z8K901</t>
+  </si>
+  <si>
+    <t>KGN401</t>
+  </si>
+  <si>
+    <t>634C01</t>
+  </si>
+  <si>
+    <t>Z9FF0A</t>
+  </si>
+  <si>
+    <t>ZCP701</t>
+  </si>
+  <si>
+    <t>V7HJ20</t>
+  </si>
+  <si>
+    <t>Z9F201</t>
+  </si>
+  <si>
+    <t>72M701</t>
+  </si>
+  <si>
+    <t>K6EE03</t>
+  </si>
+  <si>
+    <t>VCFA01</t>
+  </si>
+  <si>
+    <t>ZGH6AA</t>
+  </si>
+  <si>
+    <t>6F4701</t>
+  </si>
+  <si>
+    <t>7W5C01</t>
+  </si>
+  <si>
+    <t>6F4901</t>
+  </si>
+  <si>
+    <t>ZP4R01</t>
+  </si>
+  <si>
+    <t>VA46Y3</t>
+  </si>
+  <si>
+    <t>6F4G01</t>
+  </si>
+  <si>
+    <t>V7XR01</t>
+  </si>
+  <si>
+    <t>V17510</t>
+  </si>
+  <si>
+    <t>6L6W01</t>
+  </si>
+  <si>
+    <t>KAJ701</t>
+  </si>
+  <si>
+    <t>V19P01</t>
+  </si>
+  <si>
+    <t>V4N204</t>
+  </si>
+  <si>
+    <t>61MT01</t>
+  </si>
+  <si>
+    <t>634607</t>
+  </si>
+  <si>
+    <t>V3TA01</t>
+  </si>
+  <si>
+    <t>6G8A01</t>
+  </si>
+  <si>
+    <t>ZWJF01</t>
+  </si>
+  <si>
+    <t>V29101</t>
+  </si>
+  <si>
+    <t>V28Y01</t>
+  </si>
+  <si>
+    <t>Z5CM01</t>
+  </si>
+  <si>
+    <t>KF5441</t>
+  </si>
+  <si>
+    <t>V4NK01</t>
+  </si>
+  <si>
+    <t>6F4801</t>
+  </si>
+  <si>
+    <t>V4NW01</t>
+  </si>
+  <si>
+    <t>V73501</t>
+  </si>
+  <si>
+    <t>KPR601</t>
+  </si>
+  <si>
+    <t>VCGJ01</t>
+  </si>
+  <si>
+    <t>ZGH501</t>
+  </si>
+  <si>
+    <t>V16J01</t>
+  </si>
+  <si>
+    <t>VCGA80</t>
+  </si>
+  <si>
+    <t>Z4KL01</t>
+  </si>
+  <si>
+    <t>7NR501</t>
+  </si>
+  <si>
+    <t>71JL01</t>
+  </si>
+  <si>
+    <t>6KAK01</t>
+  </si>
+  <si>
+    <t>Z47M02</t>
+  </si>
+  <si>
+    <t>6LJ401</t>
+  </si>
+  <si>
+    <t>6MN401</t>
+  </si>
+  <si>
+    <t>V46R01</t>
+  </si>
+  <si>
+    <t>7WJ801</t>
+  </si>
+  <si>
+    <t>6CLW01</t>
+  </si>
+  <si>
+    <t>KGMR04</t>
+  </si>
+  <si>
+    <t>KWW201</t>
+  </si>
+  <si>
+    <t>Z6G801</t>
+  </si>
+  <si>
+    <t>7JHT01</t>
+  </si>
+  <si>
+    <t>V71301</t>
+  </si>
+  <si>
+    <t>6KNA01</t>
+  </si>
+  <si>
+    <t>KFP501</t>
+  </si>
+  <si>
+    <t>VCX001</t>
+  </si>
+  <si>
+    <t>ZK4K01</t>
+  </si>
+  <si>
+    <t>ZM7A01</t>
+  </si>
+  <si>
+    <t>68A001</t>
+  </si>
+  <si>
+    <t>76X601</t>
+  </si>
+  <si>
+    <t>VCFW80</t>
+  </si>
+  <si>
+    <t>KY5J01</t>
+  </si>
+  <si>
+    <t>6F4601</t>
+  </si>
+  <si>
+    <t>7KYL02</t>
+  </si>
+  <si>
+    <t>ZMAT01</t>
+  </si>
+  <si>
+    <t>6L4P01</t>
+  </si>
+  <si>
+    <t>7JJ001</t>
+  </si>
+  <si>
+    <t>V4NM01</t>
+  </si>
+  <si>
+    <t>V29201</t>
+  </si>
+  <si>
+    <t>ZH0601</t>
+  </si>
+  <si>
+    <t>6W3T01</t>
+  </si>
+  <si>
+    <t>KHWR01</t>
+  </si>
+  <si>
+    <t>V46M01</t>
+  </si>
+  <si>
+    <t>6KF501</t>
+  </si>
+  <si>
+    <t>KWY701</t>
+  </si>
+  <si>
+    <t>V29001</t>
+  </si>
+  <si>
+    <t>ZPYH01</t>
+  </si>
+  <si>
+    <t>ZA1N01</t>
+  </si>
+  <si>
+    <t>KT9L01</t>
+  </si>
+  <si>
+    <t>664200</t>
+  </si>
+  <si>
+    <t>K1MH01</t>
+  </si>
+  <si>
+    <t>6FGH01</t>
+  </si>
+  <si>
+    <t>6H9K01</t>
+  </si>
+  <si>
+    <t>V5P301</t>
+  </si>
+  <si>
+    <t>69RT01</t>
+  </si>
+  <si>
+    <t>K2W901</t>
+  </si>
+  <si>
+    <t>V40K01</t>
+  </si>
+  <si>
+    <t>V12F01</t>
+  </si>
+  <si>
+    <t>ZKTK01</t>
+  </si>
+  <si>
+    <t>V5P801</t>
+  </si>
+  <si>
+    <t>ZXR401</t>
+  </si>
+  <si>
+    <t>6FP203</t>
+  </si>
+  <si>
+    <t>Z63R01</t>
+  </si>
+  <si>
+    <t>603402</t>
+  </si>
+  <si>
+    <t>68F301</t>
+  </si>
+  <si>
+    <t>V6H101</t>
+  </si>
+  <si>
+    <t>KNCE01</t>
+  </si>
+  <si>
+    <t>614701</t>
+  </si>
+  <si>
+    <t>60MK01</t>
+  </si>
+  <si>
+    <t>KJR301</t>
+  </si>
+  <si>
+    <t>ZJ4P01</t>
+  </si>
+  <si>
+    <t>619205</t>
+  </si>
+  <si>
+    <t>6AWM01</t>
+  </si>
+  <si>
+    <t>76X201</t>
+  </si>
+  <si>
+    <t>6RMF01</t>
+  </si>
+  <si>
+    <t>KTAY01</t>
+  </si>
+  <si>
+    <t>7LYW01</t>
+  </si>
+  <si>
+    <t>V16K01</t>
+  </si>
+  <si>
+    <t>749K28</t>
+  </si>
+  <si>
+    <t>VCFR01</t>
+  </si>
+  <si>
+    <t>6F4A01</t>
+  </si>
+  <si>
+    <t>6FW203</t>
+  </si>
+  <si>
+    <t>ZCAC01</t>
+  </si>
+  <si>
+    <t>6F4501</t>
+  </si>
+  <si>
+    <t>ZMY201</t>
+  </si>
+  <si>
+    <t>ZJYR01</t>
+  </si>
+  <si>
+    <t>616402</t>
+  </si>
+  <si>
+    <t>KNCH01</t>
+  </si>
+  <si>
+    <t>Z56H01</t>
+  </si>
+  <si>
+    <t>ZWGP01</t>
+  </si>
+  <si>
+    <t>V1L601</t>
+  </si>
+  <si>
+    <t>VCWH20</t>
+  </si>
+  <si>
+    <t>6EM701</t>
+  </si>
+  <si>
+    <t>ZR0N01</t>
+  </si>
+  <si>
+    <t>V6W001</t>
+  </si>
+  <si>
+    <t>6L4N01</t>
+  </si>
+  <si>
+    <t>ZR1601</t>
+  </si>
+  <si>
+    <t>KH9701</t>
+  </si>
+  <si>
+    <t>61EP01</t>
+  </si>
+  <si>
+    <t>V7Y701</t>
+  </si>
+  <si>
+    <t>V48M01</t>
+  </si>
+  <si>
+    <t>70JW01</t>
+  </si>
+  <si>
+    <t>K73301</t>
+  </si>
+  <si>
+    <t>7KXC01</t>
+  </si>
+  <si>
+    <t>6NHF01</t>
+  </si>
+  <si>
+    <t>V12K01</t>
+  </si>
+  <si>
+    <t>VAGH01</t>
+  </si>
+  <si>
+    <t>V12G01</t>
+  </si>
+  <si>
+    <t>V5P201</t>
+  </si>
+  <si>
+    <t>V93A41</t>
+  </si>
+  <si>
+    <t>V7HH01</t>
+  </si>
+  <si>
+    <t>V1AX01</t>
+  </si>
+  <si>
+    <t>ZN9H01</t>
+  </si>
+  <si>
+    <t>6NH701</t>
+  </si>
+  <si>
+    <t>VCFJ01</t>
+  </si>
+  <si>
+    <t>KL6901</t>
+  </si>
+  <si>
+    <t>V19320</t>
+  </si>
+  <si>
+    <t>6K0G01</t>
+  </si>
+  <si>
+    <t>KYNW01</t>
+  </si>
+  <si>
+    <t>63WY01</t>
+  </si>
+  <si>
+    <t>V4R303</t>
+  </si>
+  <si>
+    <t>ZY0R01</t>
+  </si>
+  <si>
+    <t>V6W801</t>
+  </si>
+  <si>
+    <t>V5P701</t>
+  </si>
+  <si>
+    <t>645J01</t>
   </si>
   <si>
     <t>KNCG01</t>
-  </si>
-  <si>
-    <t>KNCE01</t>
-  </si>
-  <si>
-    <t>VCFH01</t>
-  </si>
-  <si>
-    <t>KNCH01</t>
-  </si>
-  <si>
-    <t>Z9F201</t>
-  </si>
-  <si>
-    <t>661002</t>
-  </si>
-  <si>
-    <t>Z79J01</t>
-  </si>
-  <si>
-    <t>V6W001</t>
-  </si>
-  <si>
-    <t>VCFR01</t>
-  </si>
-  <si>
-    <t>Z8K901</t>
-  </si>
-  <si>
-    <t>61MT01</t>
-  </si>
-  <si>
-    <t>660601</t>
-  </si>
-  <si>
-    <t>62A405</t>
-  </si>
-  <si>
-    <t>ZJ4P01</t>
-  </si>
-  <si>
-    <t>V9E501</t>
-  </si>
-  <si>
-    <t>V82P01</t>
-  </si>
-  <si>
-    <t>K8GN01</t>
-  </si>
-  <si>
-    <t>V93A41</t>
-  </si>
-  <si>
-    <t>K4XH01</t>
-  </si>
-  <si>
-    <t>VCGA80</t>
-  </si>
-  <si>
-    <t>V19320</t>
-  </si>
-  <si>
-    <t>V16H11</t>
-  </si>
-  <si>
-    <t>VCWH20</t>
-  </si>
-  <si>
-    <t>6MNY39</t>
-  </si>
-  <si>
-    <t>VCWL01</t>
-  </si>
-  <si>
-    <t>KGMR04</t>
-  </si>
-  <si>
-    <t>KXJA32</t>
-  </si>
-  <si>
-    <t>72M701</t>
-  </si>
-  <si>
-    <t>Z9FF0A</t>
-  </si>
-  <si>
-    <t>6FLK08</t>
-  </si>
-  <si>
-    <t>618J02</t>
-  </si>
-  <si>
-    <t>VCGJ01</t>
-  </si>
-  <si>
-    <t>KF5441</t>
-  </si>
-  <si>
-    <t>VCFW80</t>
-  </si>
-  <si>
-    <t>KTAY01</t>
-  </si>
-  <si>
-    <t>ZKNM01</t>
-  </si>
-  <si>
-    <t>7KXC01</t>
-  </si>
-  <si>
-    <t>VCWG3W</t>
-  </si>
-  <si>
-    <t>K73301</t>
-  </si>
-  <si>
-    <t>ZP4R01</t>
-  </si>
-  <si>
-    <t>7KYL02</t>
-  </si>
-  <si>
-    <t>KEX901</t>
-  </si>
-  <si>
-    <t>KGN401</t>
-  </si>
-  <si>
-    <t>VCFA01</t>
-  </si>
-  <si>
-    <t>V7HJ20</t>
-  </si>
-  <si>
-    <t>645J01</t>
-  </si>
-  <si>
-    <t>V16J01</t>
-  </si>
-  <si>
-    <t>70JW01</t>
-  </si>
-  <si>
-    <t>ZGH6AA</t>
-  </si>
-  <si>
-    <t>K6EE03</t>
-  </si>
-  <si>
-    <t>VEH801</t>
-  </si>
-  <si>
-    <t>6F4601</t>
-  </si>
-  <si>
-    <t>634607</t>
-  </si>
-  <si>
-    <t>68A001</t>
-  </si>
-  <si>
-    <t>6F4901</t>
-  </si>
-  <si>
-    <t>6F4A01</t>
-  </si>
-  <si>
-    <t>6F4G01</t>
-  </si>
-  <si>
-    <t>749K28</t>
-  </si>
-  <si>
-    <t>V7HH01</t>
-  </si>
-  <si>
-    <t>64MG01</t>
-  </si>
-  <si>
-    <t>V4NW01</t>
-  </si>
-  <si>
-    <t>ZWJF01</t>
-  </si>
-  <si>
-    <t>ZA1N01</t>
-  </si>
-  <si>
-    <t>633917</t>
-  </si>
-  <si>
-    <t>V3TA01</t>
-  </si>
-  <si>
-    <t>7W5C01</t>
-  </si>
-  <si>
-    <t>V1AX01</t>
-  </si>
-  <si>
-    <t>KAJ701</t>
-  </si>
-  <si>
-    <t>6F4501</t>
-  </si>
-  <si>
-    <t>6FP203</t>
-  </si>
-  <si>
-    <t>V7Y701</t>
-  </si>
-  <si>
-    <t>7WJ801</t>
-  </si>
-  <si>
-    <t>603402</t>
-  </si>
-  <si>
-    <t>V16K01</t>
-  </si>
-  <si>
-    <t>V71301</t>
-  </si>
-  <si>
-    <t>V19P01</t>
-  </si>
-  <si>
-    <t>V6H101</t>
-  </si>
-  <si>
-    <t>V6W801</t>
-  </si>
-  <si>
-    <t>634C01</t>
-  </si>
-  <si>
-    <t>KWY701</t>
-  </si>
-  <si>
-    <t>V4N204</t>
-  </si>
-  <si>
-    <t>6F4801</t>
-  </si>
-  <si>
-    <t>KY5J01</t>
-  </si>
-  <si>
-    <t>6KAK01</t>
-  </si>
-  <si>
-    <t>V46R01</t>
-  </si>
-  <si>
-    <t>6L6W01</t>
-  </si>
-  <si>
-    <t>ZK4K01</t>
-  </si>
-  <si>
-    <t>V28Y01</t>
-  </si>
-  <si>
-    <t>6G8A01</t>
-  </si>
-  <si>
-    <t>V46M01</t>
-  </si>
-  <si>
-    <t>6KNA01</t>
-  </si>
-  <si>
-    <t>ZCP701</t>
-  </si>
-  <si>
-    <t>V7XR01</t>
-  </si>
-  <si>
-    <t>VA46Y3</t>
-  </si>
-  <si>
-    <t>76X201</t>
-  </si>
-  <si>
-    <t>Z4KL01</t>
-  </si>
-  <si>
-    <t>K1MH01</t>
-  </si>
-  <si>
-    <t>V29201</t>
-  </si>
-  <si>
-    <t>KT9L01</t>
-  </si>
-  <si>
-    <t>KYNW01</t>
-  </si>
-  <si>
-    <t>ZM7A01</t>
-  </si>
-  <si>
-    <t>7LYW01</t>
-  </si>
-  <si>
-    <t>6F4701</t>
-  </si>
-  <si>
-    <t>76X601</t>
-  </si>
-  <si>
-    <t>ZKTK01</t>
-  </si>
-  <si>
-    <t>ZGH501</t>
-  </si>
-  <si>
-    <t>6LJ401</t>
-  </si>
-  <si>
-    <t>6RMF01</t>
-  </si>
-  <si>
-    <t>61EP01</t>
-  </si>
-  <si>
-    <t>68F301</t>
-  </si>
-  <si>
-    <t>ZY0R01</t>
-  </si>
-  <si>
-    <t>ZCAC01</t>
-  </si>
-  <si>
-    <t>ZWGP01</t>
-  </si>
-  <si>
-    <t>69RT01</t>
-  </si>
-  <si>
-    <t>616402</t>
-  </si>
-  <si>
-    <t>6MN401</t>
-  </si>
-  <si>
-    <t>ZR1601</t>
-  </si>
-  <si>
-    <t>V12F01</t>
-  </si>
-  <si>
-    <t>6NH701</t>
-  </si>
-  <si>
-    <t>7WCP07</t>
-  </si>
-  <si>
-    <t>614701</t>
-  </si>
-  <si>
-    <t>6W3T01</t>
-  </si>
-  <si>
-    <t>ZH0601</t>
-  </si>
-  <si>
-    <t>Z5CM01</t>
-  </si>
-  <si>
-    <t>KFP501</t>
-  </si>
-  <si>
-    <t>V68K07</t>
-  </si>
-  <si>
-    <t>V4NM01</t>
-  </si>
-  <si>
-    <t>KH9701</t>
-  </si>
-  <si>
-    <t>ZR0N01</t>
-  </si>
-  <si>
-    <t>VAGH01</t>
-  </si>
-  <si>
-    <t>6H9K01</t>
-  </si>
-  <si>
-    <t>V5P201</t>
-  </si>
-  <si>
-    <t>619205</t>
-  </si>
-  <si>
-    <t>V1L601</t>
-  </si>
-  <si>
-    <t>K2W901</t>
-  </si>
-  <si>
-    <t>Z47M02</t>
-  </si>
-  <si>
-    <t>664200</t>
-  </si>
-  <si>
-    <t>651705</t>
-  </si>
-  <si>
-    <t>647J07</t>
-  </si>
-  <si>
-    <t>K8GP01</t>
-  </si>
-  <si>
-    <t>Z56H01</t>
-  </si>
-  <si>
-    <t>7JHT01</t>
-  </si>
-  <si>
-    <t>63WY01</t>
-  </si>
-  <si>
-    <t>6L4N01</t>
-  </si>
-  <si>
-    <t>ZMAT01</t>
-  </si>
-  <si>
-    <t>7JJ001</t>
-  </si>
-  <si>
-    <t>KWW201</t>
-  </si>
-  <si>
-    <t>Z63R01</t>
-  </si>
-  <si>
-    <t>VCFJ01</t>
-  </si>
-  <si>
-    <t>ZJYR01</t>
-  </si>
-  <si>
-    <t>KHWR01</t>
-  </si>
-  <si>
-    <t>ZMY201</t>
-  </si>
-  <si>
-    <t>V4TC01</t>
-  </si>
-  <si>
-    <t>6L4P01</t>
-  </si>
-  <si>
-    <t>V17510</t>
-  </si>
-  <si>
-    <t>V29101</t>
-  </si>
-  <si>
-    <t>V73501</t>
-  </si>
-  <si>
-    <t>V48M01</t>
-  </si>
-  <si>
-    <t>VCX001</t>
-  </si>
-  <si>
-    <t>60MK01</t>
-  </si>
-  <si>
-    <t>V12K01</t>
-  </si>
-  <si>
-    <t>6EM701</t>
-  </si>
-  <si>
-    <t>6K0G01</t>
-  </si>
-  <si>
-    <t>V5P701</t>
-  </si>
-  <si>
-    <t>ZPYH01</t>
-  </si>
-  <si>
-    <t>K78501</t>
-  </si>
-  <si>
-    <t>6NHF01</t>
-  </si>
-  <si>
-    <t>6KF501</t>
-  </si>
-  <si>
-    <t>V4R303</t>
-  </si>
-  <si>
-    <t>71JL01</t>
-  </si>
-  <si>
-    <t>K2K801</t>
-  </si>
-  <si>
-    <t>V12G01</t>
-  </si>
-  <si>
-    <t>7NR501</t>
-  </si>
-  <si>
-    <t>KPR601</t>
-  </si>
-  <si>
-    <t>6FW203</t>
-  </si>
-  <si>
-    <t>V40K01</t>
-  </si>
-  <si>
-    <t>V5P301</t>
-  </si>
-  <si>
-    <t>6AWM01</t>
-  </si>
-  <si>
-    <t>KL6901</t>
-  </si>
-  <si>
-    <t>KJR301</t>
-  </si>
-  <si>
-    <t>ZXR401</t>
-  </si>
-  <si>
-    <t>V4NK01</t>
-  </si>
-  <si>
-    <t>ZN9H01</t>
-  </si>
-  <si>
-    <t>V29001</t>
-  </si>
-  <si>
-    <t>6FGH01</t>
-  </si>
-  <si>
-    <t>V5P801</t>
-  </si>
-  <si>
-    <t>Z6G801</t>
-  </si>
-  <si>
-    <t>6CLW01</t>
-  </si>
-  <si>
-    <t>KNXW41</t>
   </si>
 </sst>
 </file>
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>219</v>
@@ -2387,10 +2387,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>221</v>
@@ -2404,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>222</v>
@@ -2421,10 +2421,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>223</v>
@@ -2438,10 +2438,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>224</v>
@@ -2455,10 +2455,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>225</v>
@@ -2472,10 +2472,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>226</v>
@@ -2489,10 +2489,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C10">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>227</v>
@@ -2506,10 +2506,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>228</v>
@@ -2523,10 +2523,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>229</v>
@@ -2543,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>230</v>
@@ -2557,10 +2557,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>231</v>
@@ -2574,10 +2574,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C15">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>232</v>
@@ -2591,10 +2591,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>233</v>
@@ -2608,10 +2608,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>234</v>
@@ -2625,10 +2625,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>235</v>
@@ -2642,10 +2642,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>236</v>
@@ -2676,10 +2676,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>238</v>
@@ -2693,10 +2693,10 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>239</v>
@@ -2710,10 +2710,10 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>240</v>
@@ -2727,10 +2727,10 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>241</v>
@@ -2744,10 +2744,10 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>549</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>242</v>
@@ -2761,10 +2761,10 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>243</v>
@@ -2778,7 +2778,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C27">
         <v>33</v>
@@ -2795,10 +2795,10 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>245</v>
@@ -2812,10 +2812,10 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>246</v>
@@ -2829,10 +2829,10 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>247</v>
@@ -2846,10 +2846,10 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>248</v>
@@ -2863,10 +2863,10 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>549</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>249</v>
@@ -2880,10 +2880,10 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C33">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>250</v>
@@ -2894,104 +2894,104 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C34">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>1755</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C37">
-        <v>67</v>
+        <v>646</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>2338</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C39">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="C40">
-        <v>1755</v>
+        <v>317</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>256</v>
@@ -3016,10 +3016,10 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>890</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>257</v>
@@ -3033,10 +3033,10 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="C42">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>258</v>
@@ -3050,10 +3050,10 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C43">
-        <v>1363</v>
+        <v>844</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>259</v>
@@ -3067,10 +3067,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>260</v>
@@ -3084,10 +3084,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="C45">
-        <v>1105</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>261</v>
@@ -3101,10 +3101,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="C46">
-        <v>890</v>
+        <v>3651</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>262</v>
@@ -3118,10 +3118,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>263</v>
@@ -3135,10 +3135,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C48">
-        <v>921</v>
+        <v>984</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>264</v>
@@ -3169,10 +3169,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C50">
-        <v>403</v>
+        <v>1363</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>266</v>
@@ -3186,10 +3186,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="C51">
-        <v>2338</v>
+        <v>312</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>267</v>
@@ -3203,10 +3203,10 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="C52">
-        <v>317</v>
+        <v>432</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>268</v>
@@ -3220,10 +3220,10 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="C53">
-        <v>258</v>
+        <v>882</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>269</v>
@@ -3237,10 +3237,10 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="C54">
-        <v>844</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>270</v>
@@ -3254,10 +3254,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C55">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>271</v>
@@ -3271,10 +3271,10 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C56">
-        <v>1479</v>
+        <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>272</v>
@@ -3288,10 +3288,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C57">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>273</v>
@@ -3305,10 +3305,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="C58">
-        <v>432</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>274</v>
@@ -3322,10 +3322,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>275</v>
@@ -3339,10 +3339,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="C60">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>276</v>
@@ -3356,10 +3356,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>1479</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>277</v>
@@ -3373,10 +3373,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>278</v>
@@ -3390,10 +3390,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="C63">
-        <v>88</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>279</v>
@@ -3410,7 +3410,7 @@
         <v>4.2</v>
       </c>
       <c r="C64">
-        <v>776</v>
+        <v>51</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>280</v>
@@ -3424,10 +3424,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="C65">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>281</v>
@@ -3441,10 +3441,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="C66">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>282</v>
@@ -3458,10 +3458,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="C67">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>283</v>
@@ -3475,10 +3475,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C68">
-        <v>493</v>
+        <v>279</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>284</v>
@@ -3492,10 +3492,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="C69">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>285</v>
@@ -3509,10 +3509,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="C70">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>286</v>
@@ -3526,10 +3526,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>287</v>
@@ -3543,10 +3543,10 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="C72">
-        <v>429</v>
+        <v>93</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>288</v>
@@ -3560,10 +3560,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C73">
-        <v>1105</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>289</v>
@@ -3577,10 +3577,10 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="C74">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>290</v>
@@ -3594,10 +3594,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="C75">
-        <v>624</v>
+        <v>485</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>291</v>
@@ -3611,10 +3611,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C76">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>292</v>
@@ -3628,10 +3628,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="C77">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>293</v>
@@ -3645,10 +3645,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>1575</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>294</v>
@@ -3662,10 +3662,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C79">
-        <v>81</v>
+        <v>670</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>295</v>
@@ -3679,10 +3679,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="C80">
-        <v>417</v>
+        <v>57</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>296</v>
@@ -3696,10 +3696,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C81">
-        <v>3067</v>
+        <v>56</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>297</v>
@@ -3713,10 +3713,10 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>298</v>
@@ -3730,10 +3730,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="C83">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>299</v>
@@ -3747,10 +3747,10 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="C84">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>300</v>
@@ -3764,10 +3764,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C85">
-        <v>2697</v>
+        <v>86</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>301</v>
@@ -3781,10 +3781,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="C86">
-        <v>61</v>
+        <v>4554</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>302</v>
@@ -3798,10 +3798,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C87">
-        <v>65</v>
+        <v>6641</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>303</v>
@@ -3818,7 +3818,7 @@
         <v>4.2</v>
       </c>
       <c r="C88">
-        <v>2477</v>
+        <v>215</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>304</v>
@@ -3832,10 +3832,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="C89">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>305</v>
@@ -3849,10 +3849,10 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C90">
-        <v>153</v>
+        <v>1365</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>306</v>
@@ -3866,10 +3866,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C91">
-        <v>984</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>307</v>
@@ -3883,10 +3883,10 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="C92">
-        <v>44</v>
+        <v>2477</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>308</v>
@@ -3900,10 +3900,10 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="C93">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>309</v>
@@ -3917,10 +3917,10 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="C94">
-        <v>2393</v>
+        <v>334</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>310</v>
@@ -3934,10 +3934,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C95">
-        <v>1575</v>
+        <v>5</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>311</v>
@@ -3951,10 +3951,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="C96">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>312</v>
@@ -3968,10 +3968,10 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="C97">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>313</v>
@@ -3985,10 +3985,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="C98">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>314</v>
@@ -4002,10 +4002,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C99">
-        <v>4098</v>
+        <v>204</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>315</v>
@@ -4019,10 +4019,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C100">
-        <v>602</v>
+        <v>781</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>316</v>
@@ -4036,10 +4036,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C101">
-        <v>258</v>
+        <v>613</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>317</v>
@@ -4053,10 +4053,10 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>2567</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>318</v>
@@ -4070,10 +4070,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C103">
-        <v>670</v>
+        <v>518</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>319</v>
@@ -4087,10 +4087,10 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C104">
-        <v>496</v>
+        <v>230</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>320</v>
@@ -4104,10 +4104,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="C105">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>321</v>
@@ -4121,10 +4121,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C106">
-        <v>389</v>
+        <v>2205</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>322</v>
@@ -4138,10 +4138,10 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C107">
-        <v>475</v>
+        <v>4098</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>323</v>
@@ -4155,10 +4155,10 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="C108">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>324</v>
@@ -4169,36 +4169,36 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B109">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="E109" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B110">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C110">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="E110" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4206,10 +4206,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C111">
-        <v>104</v>
+        <v>3199</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>326</v>
@@ -4223,10 +4223,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="C112">
-        <v>2567</v>
+        <v>149</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>327</v>
@@ -4240,10 +4240,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="C113">
-        <v>2205</v>
+        <v>521</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>328</v>
@@ -4257,10 +4257,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="C114">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>329</v>
@@ -4274,10 +4274,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C115">
-        <v>169</v>
+        <v>703</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>330</v>
@@ -4291,10 +4291,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C116">
-        <v>6641</v>
+        <v>872</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>331</v>
@@ -4308,10 +4308,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="C117">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>332</v>
@@ -4322,1090 +4322,1090 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="E118" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="C119">
-        <v>2205</v>
+        <v>278</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E119" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C120">
-        <v>703</v>
+        <v>3067</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E120" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="C121">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E121" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="C122">
-        <v>485</v>
+        <v>4</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E122" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E123" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C124">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E124" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="C125">
-        <v>204</v>
+        <v>493</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E125" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="C126">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E126" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C127">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E127" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E128" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C129">
-        <v>55</v>
+        <v>979</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E129" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C130">
-        <v>278</v>
+        <v>757</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E130" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C131">
-        <v>337</v>
+        <v>186</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E131" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C132">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E132" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="C133">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E133" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="C134">
-        <v>71</v>
+        <v>2205</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E134" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="C135">
-        <v>158</v>
+        <v>674</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E135" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="C136">
-        <v>230</v>
+        <v>475</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E136" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="C137">
-        <v>69</v>
+        <v>1414</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E137" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="C138">
-        <v>2568</v>
+        <v>93</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E138" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>4.6</v>
       </c>
       <c r="C139">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E139" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B140">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="C140">
-        <v>493</v>
+        <v>109</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="E140" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C141">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E141" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C142">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E142" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C143">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E143" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C144">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E144" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B145">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C145">
-        <v>638</v>
+        <v>6</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E145" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B146">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="C146">
-        <v>8</v>
+        <v>882</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E146" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="C147">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E147" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>4.5</v>
       </c>
       <c r="C148">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E148" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="C149">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E149" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="B150">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="C150">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="E150" t="s">
-        <v>575</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C151">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E151" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>882</v>
+        <v>71</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="B153">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C153">
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="E153" t="s">
-        <v>578</v>
+        <v>434</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>4.6</v>
       </c>
       <c r="C154">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C155">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E155" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C156">
-        <v>215</v>
+        <v>461</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E156" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C157">
-        <v>872</v>
+        <v>63</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E157" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B158">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="C158">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>369</v>
+        <v>224</v>
       </c>
       <c r="E158" t="s">
-        <v>583</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="B159">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C159">
-        <v>57</v>
+        <v>602</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="E159" t="s">
-        <v>437</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B160">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E160" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B161">
         <v>4.6</v>
       </c>
       <c r="C161">
-        <v>979</v>
+        <v>247</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E161" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B162">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="C162">
-        <v>328</v>
+        <v>496</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E162" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B163">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C163">
-        <v>551</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E163" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B164">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="C164">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E164" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165">
+        <v>4.8</v>
+      </c>
+      <c r="C165">
         <v>13</v>
       </c>
-      <c r="B165">
-        <v>4.5</v>
-      </c>
-      <c r="C165">
-        <v>191</v>
-      </c>
       <c r="D165" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E165" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B166">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C166">
-        <v>193</v>
+        <v>2264</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E166" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="E167" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B168">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C168">
-        <v>882</v>
+        <v>209</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E168" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B169">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C169">
         <v>71</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E169" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B170">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C170">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="E170" t="s">
-        <v>440</v>
+        <v>591</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="B171">
         <v>4.8</v>
       </c>
       <c r="C171">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="E171" t="s">
-        <v>454</v>
+        <v>592</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="B172">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C172">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="E172" t="s">
-        <v>442</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="B173">
         <v>4.6</v>
       </c>
       <c r="C173">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="E173" t="s">
-        <v>451</v>
+        <v>594</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B174">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="C174">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E174" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B175">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="C175">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E175" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="B176">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="C176">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>378</v>
+        <v>232</v>
       </c>
       <c r="E176" t="s">
-        <v>592</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B177">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="C177">
-        <v>518</v>
+        <v>337</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E177" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B178">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="C178">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E178" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="B179">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C179">
-        <v>33</v>
+        <v>2697</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="E179" t="s">
-        <v>452</v>
+        <v>599</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B180">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="C180">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E180" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B181">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C181">
-        <v>646</v>
+        <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="E181" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5413,10 +5413,10 @@
         <v>17</v>
       </c>
       <c r="B182">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="C182">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>231</v>
@@ -5427,529 +5427,529 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="B183">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="E183" t="s">
-        <v>450</v>
+        <v>601</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="B184">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C184">
-        <v>59</v>
+        <v>325</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
       <c r="E184" t="s">
-        <v>438</v>
+        <v>602</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B185">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="E185" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B186">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C186">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E186" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187">
         <v>5</v>
       </c>
-      <c r="B187">
-        <v>4</v>
-      </c>
       <c r="C187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B188">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="C188">
-        <v>921</v>
+        <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="E188" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="B189">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="C189">
-        <v>521</v>
+        <v>230</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="E189" t="s">
-        <v>599</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B190">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="C190">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E190" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B191">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C191">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E191" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B192">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="C192">
-        <v>98</v>
+        <v>638</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E192" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C193">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E193" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B194">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C194">
-        <v>3199</v>
+        <v>921</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E194" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B195">
         <v>4.7</v>
       </c>
       <c r="C195">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E195" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="B196">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>392</v>
+        <v>221</v>
       </c>
       <c r="E196" t="s">
-        <v>606</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B197">
         <v>4.4</v>
       </c>
       <c r="C197">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E197" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="B198">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C198">
-        <v>27</v>
+        <v>403</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
       <c r="E198" t="s">
-        <v>453</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B199">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="C199">
-        <v>221</v>
+        <v>3101</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E199" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B200">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="C200">
-        <v>211</v>
+        <v>551</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E200" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B201">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="C201">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E201" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B202">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="C202">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="E202" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B203">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="C203">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E203" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B204">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="C204">
-        <v>797</v>
+        <v>105</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E204" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B205">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="C205">
-        <v>511</v>
+        <v>328</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E205" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B206">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C206">
-        <v>4554</v>
+        <v>2568</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E206" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B207">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C207">
-        <v>275</v>
+        <v>70</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E207" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="E208" t="s">
-        <v>444</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="B209">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C209">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="E209" t="s">
-        <v>615</v>
+        <v>443</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B210">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>624</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E210" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B211">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="C211">
-        <v>2264</v>
+        <v>201</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E211" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="B212">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C212">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>404</v>
+        <v>226</v>
       </c>
       <c r="E212" t="s">
-        <v>618</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="B213">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C213">
-        <v>3101</v>
+        <v>32</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>405</v>
+        <v>227</v>
       </c>
       <c r="E213" t="s">
-        <v>619</v>
+        <v>441</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5957,10 +5957,10 @@
         <v>20</v>
       </c>
       <c r="B214">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C214">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>234</v>
@@ -5971,291 +5971,291 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B215">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C215">
-        <v>648</v>
+        <v>776</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E215" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="C216">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E216" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B217">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="C217">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E217" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B218">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="C218">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E218" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="B219">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="C219">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>409</v>
+        <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>623</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B220">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="C220">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E220" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B221">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C221">
-        <v>674</v>
+        <v>140</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E221" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B222">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="C222">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E222" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="B223">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C223">
-        <v>613</v>
+        <v>54</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="E223" t="s">
-        <v>627</v>
+        <v>433</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B224">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="C224">
-        <v>97</v>
+        <v>1105</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E224" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B225">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="C225">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E225" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B226">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C226">
-        <v>781</v>
+        <v>2393</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E226" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B227">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C227">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E227" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B228">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="C228">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E228" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B229">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="C229">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E229" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="B230">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C230">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>420</v>
+        <v>223</v>
       </c>
       <c r="E230" t="s">
-        <v>634</v>
+        <v>437</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="B231">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C231">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="E231" t="s">
-        <v>635</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6277,87 +6277,87 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B233">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C233">
-        <v>71</v>
+        <v>921</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="E233" t="s">
-        <v>434</v>
+        <v>637</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="C234">
-        <v>209</v>
+        <v>648</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E234" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C235">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E235" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B236">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C236">
-        <v>1365</v>
+        <v>86</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E236" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="B237">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C237">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>426</v>
+        <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>640</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6365,10 +6365,10 @@
         <v>213</v>
       </c>
       <c r="B238">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C238">
-        <v>1414</v>
+        <v>53</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>427</v>
@@ -6382,10 +6382,10 @@
         <v>214</v>
       </c>
       <c r="B239">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C239">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>428</v>
@@ -6399,10 +6399,10 @@
         <v>215</v>
       </c>
       <c r="B240">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="C240">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>429</v>
@@ -6416,10 +6416,10 @@
         <v>216</v>
       </c>
       <c r="B241">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="C241">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>430</v>
@@ -6430,19 +6430,19 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B242">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="C242">
-        <v>71</v>
+        <v>493</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="E242" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6450,10 +6450,10 @@
         <v>217</v>
       </c>
       <c r="B243">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C243">
-        <v>78</v>
+        <v>1105</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>431</v>
@@ -6464,19 +6464,19 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E244" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6487,7 +6487,7 @@
         <v>4.3</v>
       </c>
       <c r="C245">
-        <v>3651</v>
+        <v>33</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>432</v>

--- a/downloads/clinique_reviews.xlsx
+++ b/downloads/clinique_reviews.xlsx
@@ -31,436 +31,436 @@
     <t>sku</t>
   </si>
   <si>
+    <t>Clinique For Men™ Oil-Free Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; For Men Cologne Spray</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Wash</t>
+  </si>
+  <si>
+    <t>Daily Age Repair Set: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Moisturizing Lotion</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Maximum Hydrator Activated Water-Gel Concentrate</t>
+  </si>
+  <si>
+    <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique for Men™ Anti-Age Eye Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Aloe Shave Gel</t>
+  </si>
+  <si>
     <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
   </si>
   <si>
+    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique for Men™ Cream Shave</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Broad Spectrum SPF 21 Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
+  </si>
+  <si>
+    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Charcoal Face Wash</t>
+  </si>
+  <si>
+    <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Starter Kit – Daily Oil Control</t>
+  </si>
+  <si>
+    <t>Twice the Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Starter Kit – Daily Intense Hydration</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Paradise™ Limited Edition Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Perfectly Happy Fragrance and Makeup Set</t>
+  </si>
+  <si>
+    <t>Clinique Pop™ Longwear Lipstick</t>
+  </si>
+  <si>
+    <t>Clinique Happy Heart™ Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Cookies &amp; Kisses</t>
+  </si>
+  <si>
+    <t>Perfectly Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Body Wash</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Aromatics in White</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Body Cream</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir™ Body Smoother</t>
+  </si>
+  <si>
+    <t>High Impact High-Fi™ Full Volume Mascara</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Mascara</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
+  </si>
+  <si>
+    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
+  </si>
+  <si>
+    <t>Aromatics in Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique My Happy™ Peony Picnic </t>
+  </si>
+  <si>
+    <t>Limited Edition Clinique Pop™ Lip + Cheek Oil in Black Honey</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Scrub</t>
+  </si>
+  <si>
     <t>Clinique For Men Super Energizer™ Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
   </si>
   <si>
-    <t>Clinique For Men™ Face Scrub</t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Daily Age Repair Set: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Moisturizing Lotion</t>
-  </si>
-  <si>
-    <t>Clinique for Men™ Anti-Age Eye Cream</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Oil-Free Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Charcoal Face Wash</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Face Wash</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Broad Spectrum SPF 21 Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; For Men Cologne Spray</t>
-  </si>
-  <si>
-    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Aloe Shave Gel</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique for Men™ Cream Shave</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Maximum Hydrator Activated Water-Gel Concentrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
-  </si>
-  <si>
-    <t>Perfectly Happy Fragrance and Makeup Set</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Starter Kit – Daily Oil Control</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Paradise™ Limited Edition Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Starter Kit – Daily Intense Hydration</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique My Happy™ Peony Picnic </t>
-  </si>
-  <si>
-    <t>Limited Edition Clinique Pop™ Lip + Cheek Oil in Black Honey</t>
-  </si>
-  <si>
-    <t>Clinique Happy Heart™ Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir™ Body Smoother</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Cream</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
-  </si>
-  <si>
-    <t>Aromatics in White</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Twice the Happy Fragrance Set</t>
-  </si>
-  <si>
-    <t>Clinique Pop™ Longwear Lipstick</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Mascara</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Wash</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
-  </si>
-  <si>
-    <t>Perfectly Happy Fragrance Set</t>
-  </si>
-  <si>
-    <t>Aromatics in Black</t>
-  </si>
-  <si>
-    <t>High Impact High-Fi™ Full Volume Mascara</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Cookies &amp; Kisses</t>
-  </si>
-  <si>
-    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
+    <t>https://www.clinique.com/product/1626/86689/mens/skin-care/moisturize-protect/clinique-for-mentm-oil-free-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126259/gift-center/all-gifts-sets/daily-age-repair-set-cleanse-exfoliate-hydrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1623/4802/mens/shave/clinique-for-mentm-cream-shave</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57010/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-oil-control</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57009/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-intense-hydration</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1603/126252/makeup/lip-glosses/limited-edition-clinique-poptm-lip-cheek-oil-in-black-honey</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126259/gift-center/all-gifts-sets/daily-age-repair-set-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/86689/mens/skin-care/moisturize-protect/clinique-for-mentm-oil-free-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1623/4802/mens/shave/clinique-for-mentm-cream-shave</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1619/57010/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-oil-control</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1619/57009/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-intense-hydration</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1603/126252/makeup/lip-glosses/limited-edition-clinique-poptm-lip-cheek-oil-in-black-honey</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
+    <t>V2Y701</t>
+  </si>
+  <si>
+    <t>62YL01</t>
+  </si>
+  <si>
+    <t>Z4KH01</t>
+  </si>
+  <si>
+    <t>V90T01</t>
+  </si>
+  <si>
+    <t>65EN01</t>
+  </si>
+  <si>
+    <t>Z21901</t>
+  </si>
+  <si>
+    <t>K0CG01</t>
+  </si>
+  <si>
+    <t>V90M01</t>
+  </si>
+  <si>
+    <t>6TCR01</t>
+  </si>
+  <si>
+    <t>K6KW01</t>
+  </si>
+  <si>
+    <t>Z4RN01</t>
   </si>
   <si>
     <t>KJ8H01</t>
   </si>
   <si>
+    <t>65EM01</t>
+  </si>
+  <si>
+    <t>67FE01</t>
+  </si>
+  <si>
+    <t>6FWR01</t>
+  </si>
+  <si>
+    <t>V3KX01</t>
+  </si>
+  <si>
+    <t>V90R01</t>
+  </si>
+  <si>
+    <t>ZF7E01</t>
+  </si>
+  <si>
+    <t>651705</t>
+  </si>
+  <si>
+    <t>V2YF01</t>
+  </si>
+  <si>
+    <t>VCFJ01</t>
+  </si>
+  <si>
+    <t>661002</t>
+  </si>
+  <si>
+    <t>K77L01</t>
+  </si>
+  <si>
+    <t>K8GP01</t>
+  </si>
+  <si>
+    <t>VC7G01</t>
+  </si>
+  <si>
+    <t>VCFH01</t>
+  </si>
+  <si>
+    <t>V6W001</t>
+  </si>
+  <si>
+    <t>K2K801</t>
+  </si>
+  <si>
+    <t>V12H01</t>
+  </si>
+  <si>
+    <t>KNCG01</t>
+  </si>
+  <si>
+    <t>VA3JY3</t>
+  </si>
+  <si>
+    <t>KNCH01</t>
+  </si>
+  <si>
+    <t>61MT01</t>
+  </si>
+  <si>
+    <t>ZXR401</t>
+  </si>
+  <si>
+    <t>Z9F201</t>
+  </si>
+  <si>
+    <t>64MG01</t>
+  </si>
+  <si>
+    <t>660601</t>
+  </si>
+  <si>
+    <t>V82P01</t>
+  </si>
+  <si>
+    <t>V20Q03</t>
+  </si>
+  <si>
+    <t>KNCE01</t>
+  </si>
+  <si>
+    <t>K8GN01</t>
+  </si>
+  <si>
+    <t>Z79J01</t>
+  </si>
+  <si>
+    <t>Z8K901</t>
+  </si>
+  <si>
+    <t>ZJ4P01</t>
+  </si>
+  <si>
+    <t>K8GM01</t>
+  </si>
+  <si>
+    <t>V20S04</t>
+  </si>
+  <si>
+    <t>67F901</t>
+  </si>
+  <si>
     <t>K6K701</t>
-  </si>
-  <si>
-    <t>67F901</t>
-  </si>
-  <si>
-    <t>65EM01</t>
-  </si>
-  <si>
-    <t>V90T01</t>
-  </si>
-  <si>
-    <t>Z21901</t>
-  </si>
-  <si>
-    <t>6TCR01</t>
-  </si>
-  <si>
-    <t>V2Y701</t>
-  </si>
-  <si>
-    <t>ZF7E01</t>
-  </si>
-  <si>
-    <t>Z4KH01</t>
-  </si>
-  <si>
-    <t>6FWR01</t>
-  </si>
-  <si>
-    <t>V3KX01</t>
-  </si>
-  <si>
-    <t>62YL01</t>
-  </si>
-  <si>
-    <t>V90R01</t>
-  </si>
-  <si>
-    <t>V90M01</t>
-  </si>
-  <si>
-    <t>Z4RN01</t>
-  </si>
-  <si>
-    <t>65EN01</t>
-  </si>
-  <si>
-    <t>67FE01</t>
-  </si>
-  <si>
-    <t>K0CG01</t>
-  </si>
-  <si>
-    <t>K6KW01</t>
-  </si>
-  <si>
-    <t>651705</t>
-  </si>
-  <si>
-    <t>VCFH01</t>
-  </si>
-  <si>
-    <t>V2YF01</t>
-  </si>
-  <si>
-    <t>K8GN01</t>
-  </si>
-  <si>
-    <t>VC7G01</t>
-  </si>
-  <si>
-    <t>K77L01</t>
-  </si>
-  <si>
-    <t>K8GP01</t>
-  </si>
-  <si>
-    <t>K8GM01</t>
-  </si>
-  <si>
-    <t>V20S04</t>
-  </si>
-  <si>
-    <t>K2K801</t>
-  </si>
-  <si>
-    <t>Z8K901</t>
-  </si>
-  <si>
-    <t>660601</t>
-  </si>
-  <si>
-    <t>64MG01</t>
-  </si>
-  <si>
-    <t>V12H01</t>
-  </si>
-  <si>
-    <t>Z9F201</t>
-  </si>
-  <si>
-    <t>KNCE01</t>
-  </si>
-  <si>
-    <t>661002</t>
-  </si>
-  <si>
-    <t>VCFJ01</t>
-  </si>
-  <si>
-    <t>V6W001</t>
-  </si>
-  <si>
-    <t>V20Q03</t>
-  </si>
-  <si>
-    <t>61MT01</t>
-  </si>
-  <si>
-    <t>KNCH01</t>
-  </si>
-  <si>
-    <t>VA3JY3</t>
-  </si>
-  <si>
-    <t>ZJ4P01</t>
-  </si>
-  <si>
-    <t>V82P01</t>
-  </si>
-  <si>
-    <t>KNCG01</t>
-  </si>
-  <si>
-    <t>Z79J01</t>
-  </si>
-  <si>
-    <t>ZXR401</t>
   </si>
 </sst>
 </file>
@@ -859,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>53</v>
@@ -876,10 +876,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
@@ -893,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="C4">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>55</v>
@@ -910,10 +910,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>56</v>
@@ -927,10 +927,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>57</v>
@@ -961,10 +961,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>59</v>
@@ -978,10 +978,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>60</v>
@@ -995,10 +995,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>61</v>
@@ -1012,10 +1012,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>62</v>
@@ -1029,10 +1029,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>63</v>
@@ -1046,10 +1046,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>64</v>
@@ -1063,10 +1063,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>65</v>
@@ -1080,10 +1080,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>66</v>
@@ -1097,10 +1097,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>67</v>
@@ -1114,10 +1114,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>68</v>
@@ -1131,10 +1131,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>69</v>
@@ -1145,381 +1145,381 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C19">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>4.7</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="C22">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>549</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C31">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C33">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C34">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="C36">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="C38">
-        <v>549</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>1364</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>4.6</v>
@@ -1528,146 +1528,146 @@
         <v>3070</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>4.8</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C46">
-        <v>1364</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="C47">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C49">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1675,10 +1675,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>100</v>

--- a/downloads/clinique_reviews.xlsx
+++ b/downloads/clinique_reviews.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="623">
   <si>
     <t>product_name</t>
   </si>
@@ -31,436 +31,1858 @@
     <t>sku</t>
   </si>
   <si>
+    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Wash</t>
+  </si>
+  <si>
+    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Charcoal Face Wash</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Daily Age Repair Set: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Moisturizing Lotion</t>
+  </si>
+  <si>
+    <t>Clinique For Men Super Energizer™ Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Clinique for Men™ Anti-Age Eye Cream</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Aloe Shave Gel</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Broad Spectrum SPF 21 Moisturizer</t>
+  </si>
+  <si>
+    <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
+  </si>
+  <si>
+    <t>Clinique for Men™ Cream Shave</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Face Scrub</t>
+  </si>
+  <si>
     <t>Clinique For Men™ Oil-Free Moisturizer</t>
   </si>
   <si>
+    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
+  </si>
+  <si>
     <t>Clinique Happy&amp;trade; For Men Cologne Spray</t>
   </si>
   <si>
-    <t>Clinique For Men™ Face Wash</t>
-  </si>
-  <si>
-    <t>Daily Age Repair Set: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Oil Control Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Moisturizing Lotion</t>
+    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
+  </si>
+  <si>
+    <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
   </si>
   <si>
     <t>Clinique For Men™ Maximum Hydrator Activated Water-Gel Concentrate</t>
   </si>
   <si>
-    <t>Daily Hydration: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique for Men™ Anti-Age Eye Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique For Men Super Energizer™ Anti-Fatigue Depuffing Eye Gel </t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Aloe Shave Gel</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique for Men™ Cream Shave</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Broad Spectrum SPF 21 Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Face Wash Oily Skin Formula</t>
-  </si>
-  <si>
-    <t>Daily Oil-free Hydration: Cleanse. Exfoliate. Hydrate.</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Charcoal Face Wash</t>
-  </si>
-  <si>
-    <t>Clinique For Men&amp;trade; Post-Shave Soother</t>
+    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
   </si>
   <si>
     <t>Clinique For Men™ Starter Kit – Daily Oil Control</t>
   </si>
   <si>
+    <t>Perfectly Happy Fragrance Set</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Paradise™ Limited Edition Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir™ Body Smoother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique My Happy™ Peony Picnic </t>
+  </si>
+  <si>
+    <t>Clinique Pop™ Longwear Lipstick</t>
+  </si>
+  <si>
+    <t>Perfectly Happy Fragrance and Makeup Set</t>
+  </si>
+  <si>
+    <t>Clinique Happy Heart™ Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
+  </si>
+  <si>
+    <t>Sunny Day Skincare and Makeup Staples</t>
+  </si>
+  <si>
+    <t>Aromatics in Black</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Body Cream</t>
+  </si>
+  <si>
+    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
+  </si>
+  <si>
+    <t>All About Shadow&amp;trade; Quad</t>
+  </si>
+  <si>
+    <t>Limited Edition Clinique Pop™ Lip + Cheek Oil in Black Honey</t>
+  </si>
+  <si>
+    <t>High Impact High-Fi™ Full Volume Mascara</t>
+  </si>
+  <si>
     <t>Twice the Happy Fragrance Set</t>
   </si>
   <si>
-    <t>Aromatics Elixir&amp;trade; Eau de Parfum Spray</t>
+    <t>NEW High Impact Shadow Play™ Shadow + Definer</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
+  </si>
+  <si>
+    <t>Blushing Blush&amp;trade; Powder Blush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinique Pop Plush™ Creamy Lip Gloss </t>
+  </si>
+  <si>
+    <t>Even Better™ Makeup Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>High Impact Zero Gravity™ Mascara</t>
+  </si>
+  <si>
+    <t>High Impact™ Gel Tech Eyeliner</t>
+  </si>
+  <si>
+    <t>Lash Doubling Mascara</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Single</t>
+  </si>
+  <si>
+    <t>Clinique Happy&amp;trade; Body Wash</t>
+  </si>
+  <si>
+    <t>Lash Power™ Mascara Long-Wearing Formula</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Mascara</t>
+  </si>
+  <si>
+    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t>Instant Lift For Brows</t>
+  </si>
+  <si>
+    <t>Aromatics in White</t>
+  </si>
+  <si>
+    <t>Sun-Kissed Face Gelee Complexion Multitasker</t>
+  </si>
+  <si>
+    <t>Superbalanced™ Makeup</t>
+  </si>
+  <si>
+    <t>Blended Face Powder</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting™ Foundation + Concealer</t>
+  </si>
+  <si>
+    <t>Even Better™ Light Reflecting Primer</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Liquid Makeup</t>
+  </si>
+  <si>
+    <t>Even Better™ All-Over Primer and Color Corrector</t>
+  </si>
+  <si>
+    <t>Clinique Skincare and Makeup Icons</t>
+  </si>
+  <si>
+    <t>Makeup Brush Cleanser</t>
+  </si>
+  <si>
+    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Serum Foundation Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Octet</t>
+  </si>
+  <si>
+    <t>Touch Base For Eyes&amp;trade;</t>
+  </si>
+  <si>
+    <t>Summer Day Skincare and Makeup Essentials</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Cheek Colour Balm</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting™ Powder Foundation + Concealer</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Moisturizing Lip Colour Balm</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Extreme Volume Mascara</t>
+  </si>
+  <si>
+    <t>High Impact™ Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>High Impact™ Waterproof Mascara</t>
+  </si>
+  <si>
+    <t>Chubby Lash&amp;trade; Fattening Mascara</t>
+  </si>
+  <si>
+    <t>Even Better Refresh™ Hydrating and Repairing Makeup</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Sheertint Hydrator Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Eyes Intense Eyeliner</t>
+  </si>
+  <si>
+    <t>Quickliner&amp;trade; For Lips</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Primer for Eyes</t>
+  </si>
+  <si>
+    <t>Just Browsing Brush-On Styling Mousse</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Sculpting Highlight</t>
+  </si>
+  <si>
+    <t>Even Better™ All-Over Concealer + Eraser</t>
+  </si>
+  <si>
+    <t>Chubby Stick&amp;trade; Sculpting Contour</t>
+  </si>
+  <si>
+    <t>Brow Shaper</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 4</t>
+  </si>
+  <si>
+    <t>Foundation Brush</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Eyes Eyeliner</t>
+  </si>
+  <si>
+    <t>Blush Brush</t>
+  </si>
+  <si>
+    <t>Bronzer/Blender Brush</t>
+  </si>
+  <si>
+    <t>Eye Shadow Brush</t>
+  </si>
+  <si>
+    <t>All About Shadow™ Duo</t>
+  </si>
+  <si>
+    <t>Cheek Pop™ Powder Blush</t>
+  </si>
+  <si>
+    <t>Eye Shader Brush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad Spectrum SPF 30 Sunscreen Oil-Free Face Cream </t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Lotion+™</t>
+  </si>
+  <si>
+    <t>Lash Building Primer</t>
+  </si>
+  <si>
+    <t>Sparkle Skin&amp;trade; Body Exfoliating Cream</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Serum</t>
+  </si>
+  <si>
+    <t>Stay-Matte Sheer Pressed Powder</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Cleanser Refresher Course (Type 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 2</t>
+  </si>
+  <si>
+    <t>Stay-Matte Universal Blotting Powder</t>
+  </si>
+  <si>
+    <t>Stay-Matte Oil-Free Makeup</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Serum De-Puffing Eye Massage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture Surge™ Broad Spectrum SPF 28 Sheer Hydrator </t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Radical Dark Spot Corrector + Interrupter</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Rich Eye Cream with Hyaluronic Acid</t>
+  </si>
+  <si>
+    <t>Superpowder Double Face Makeup</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Intense 72H Lipid-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Take The Day Off&amp;trade; Cleansing Balm</t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Lifting Face + Neck Cream</t>
+  </si>
+  <si>
+    <t>All About Clean™ Rinse-Off Foaming Cleanser</t>
+  </si>
+  <si>
+    <t>Facial Soap</t>
+  </si>
+  <si>
+    <t>Cream Shaper&amp;trade; For Eyes</t>
+  </si>
+  <si>
+    <t>Moisture Surge&amp;trade; Overnight Mask</t>
+  </si>
+  <si>
+    <t>Redness Solutions Redness Regimen</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Clarifying Lotion</t>
+  </si>
+  <si>
+    <t>Bottom Lash Mascara&amp;trade;</t>
+  </si>
+  <si>
+    <t>All About Clean™ 2-in-1 Cleansing + Exfoliating Jelly</t>
+  </si>
+  <si>
+    <t>Redness Solutions Instant Relief Mineral Pressed Powder With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Repairwear™ Anti-Gravity Eye Cream</t>
+  </si>
+  <si>
+    <t>Clinique Smart™ Broad Spectrum SPF 15 Custom-Repair Moisturizer</t>
+  </si>
+  <si>
+    <t>True Bronze™ Pressed Powder Bronzer</t>
+  </si>
+  <si>
+    <t>Even Better Eyes™ Dark Circle Corrector</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 3</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions Self-Heating Blackhead Extractor</t>
+  </si>
+  <si>
+    <t>Eye Definer Brush</t>
+  </si>
+  <si>
+    <t>Powder Brush</t>
+  </si>
+  <si>
+    <t>Clarifying Do-Over Peel</t>
+  </si>
+  <si>
+    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Hydrating Jelly</t>
+  </si>
+  <si>
+    <t>Extra Gentle Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Take The Day Off&amp;trade; Cleansing Oil</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Butter</t>
+  </si>
+  <si>
+    <t>Dramatically Different&amp;trade; Moisturizing Cream</t>
+  </si>
+  <si>
+    <t>Deep Comfort&amp;trade; Hand and Cuticle Cream</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Protective Base Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>Moisture Surge Eye™ 96-Hour Hydro-Filler Concentrate</t>
+  </si>
+  <si>
+    <t>Repairwear Laser Focus&amp;trade; Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Clinique Pep-Start™ Daily UV Protector Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Hydro-Infused Lotion</t>
+  </si>
+  <si>
+    <t>Soft-Pressed Powder Blusher</t>
+  </si>
+  <si>
+    <t>Even Better™ Brightening Essence Lotion</t>
+  </si>
+  <si>
+    <t>Clinique Fresh Pressed™ Renewing Powder Cleanser with Pure Vitamin C</t>
+  </si>
+  <si>
+    <t>Exfoliating Scrub</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Lip Hydro-Plump Treatment</t>
+  </si>
+  <si>
+    <t>Clinique For Men™ Anti-Age Moisturizer</t>
+  </si>
+  <si>
+    <t>Good to Glow: All-in-One Face Palette</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Glowing Skin Essentials</t>
+  </si>
+  <si>
+    <t>Almost Powder Makeup Broad Spectrum SPF 18</t>
   </si>
   <si>
     <t>Clinique For Men™ Starter Kit – Daily Intense Hydration</t>
   </si>
   <si>
-    <t>Clinique My Happy™ Cocoa &amp; Cashmere</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Paradise™ Limited Edition Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Perfectly Happy Fragrance and Makeup Set</t>
-  </si>
-  <si>
-    <t>Clinique Pop™ Longwear Lipstick</t>
-  </si>
-  <si>
-    <t>Clinique Happy Heart™ Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Starter Kit – Daily Age Repair</t>
+    <t>High Impact™ Custom Black Kajal</t>
+  </si>
+  <si>
+    <t>Even Better Clinical™ Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take The Day Off™ Makeup Remover For Lids, Lashes &amp; Lips </t>
+  </si>
+  <si>
+    <t>Clinique Smart Clinical Repair™ Broad Spectrum SPF 30 Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Easy Eye Duo Set</t>
+  </si>
+  <si>
+    <t>All About Clean™ Liquid Facial Soap</t>
+  </si>
+  <si>
+    <t>Moisture Surge&amp;trade; Face Spray Thirsty Skin Relief</t>
+  </si>
+  <si>
+    <t>All About Clean™ 2-in-1 Charcoal Mask + Scrub</t>
+  </si>
+  <si>
+    <t>Take The Day Off™ Charcoal Cleansing Balm</t>
+  </si>
+  <si>
+    <t>Redness Solutions Daily Relief Cream</t>
+  </si>
+  <si>
+    <t>Redness Solutions Soothing Cleanser With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Acne Solutions&amp;trade; Cleansing Gel</t>
+  </si>
+  <si>
+    <t>Turnaround&amp;trade; Accelerated Renewal Serum</t>
+  </si>
+  <si>
+    <t>Redness Solutions Makeup Broad Spectrum SPF 15 With Probiotic Technology</t>
+  </si>
+  <si>
+    <t>Turnaround™ Overnight Revitalizing Moisturizer</t>
+  </si>
+  <si>
+    <t>Moisture Surge™ Hydrating Supercharged Concentrate</t>
+  </si>
+  <si>
+    <t>Foundation Buff Brush</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Scrub</t>
+  </si>
+  <si>
+    <t>Concealer Brush</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 50 Sunscreen Face Cream</t>
+  </si>
+  <si>
+    <t>Take the Day Off™ Micellar Cleansing Towelettes for Face &amp; Eyes</t>
+  </si>
+  <si>
+    <t>Deep Comfort™ Body Moisture</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 50 Sunscreen Body Cream</t>
+  </si>
+  <si>
+    <t>Clinique Fresh Pressed™ Daily Booster with Pure Vitamin C 10%</t>
+  </si>
+  <si>
+    <t>Sparkle Skin&amp;trade; Body Exfoliator</t>
+  </si>
+  <si>
+    <t>All About Eyes™ Eye Cream with Vitamin C</t>
+  </si>
+  <si>
+    <t>Skin School Supplies: Cleanser Refresher Course (Type 3 &amp; 4)</t>
+  </si>
+  <si>
+    <t>Clinique Sonic System Purifying Cleansing Brush Head</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>Dramatically Different™ Lipstick Shaping Lip Colour</t>
+  </si>
+  <si>
+    <t>Even Better™ Brightening Moisturizer SPF 20</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Clinical Clearing Gel</t>
+  </si>
+  <si>
+    <t>Quickliner™ For Brows Eyebrow Pencil</t>
+  </si>
+  <si>
+    <t>Acne Solutions™ Acne + Line Correcting Serum</t>
+  </si>
+  <si>
+    <t>Repairwear&amp;trade; Uplifting Firming Cream Broad Spectrum SPF 15</t>
+  </si>
+  <si>
+    <t>All About Clean™ All-in-One Cleansing Micellar Milk + Makeup Remover</t>
+  </si>
+  <si>
+    <t>Even Better™ Pore Defying Primer</t>
+  </si>
+  <si>
+    <t>Rinse-Off Eye Makeup Solvent</t>
+  </si>
+  <si>
+    <t>SPF 50 Mineral Sunscreen Fluid For Face</t>
   </si>
   <si>
     <t>Clinique My Happy™&lt;br&gt;Cookies &amp; Kisses</t>
   </si>
   <si>
-    <t>Perfectly Happy Fragrance Set</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Baby Bouquet</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Wash</t>
-  </si>
-  <si>
-    <t>Clinique Happy in Bloom™ Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Aromatics in White</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Body Cream</t>
-  </si>
-  <si>
-    <t>Aromatics Elixir™ Body Smoother</t>
-  </si>
-  <si>
-    <t>High Impact High-Fi™ Full Volume Mascara</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Mascara</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Indigo Mist</t>
-  </si>
-  <si>
-    <t>Clinique My Happy™&lt;br&gt;Lily of the Beach</t>
-  </si>
-  <si>
-    <t>Calyx&amp;trade; Eau de Parfum Spray</t>
-  </si>
-  <si>
-    <t>Clinique Happy&amp;trade; Perfume Rollerball</t>
-  </si>
-  <si>
-    <t>Aromatics in Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinique My Happy™ Peony Picnic </t>
-  </si>
-  <si>
-    <t>Limited Edition Clinique Pop™ Lip + Cheek Oil in Black Honey</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Face Scrub</t>
-  </si>
-  <si>
-    <t>Clinique For Men Super Energizer™ Anti-Fatigue Hydrating Concentrate Broad Spectrum SPF 25</t>
+    <t>7 Day Scrub Cream Rinse-Off Formula</t>
+  </si>
+  <si>
+    <t>NEW Take The Day Off™ Facial Cleansing Mousse</t>
+  </si>
+  <si>
+    <t>Clinique Smart Night™ Clinical MD Multi-Dimensional Repair Treatment Retinol</t>
+  </si>
+  <si>
+    <t>Superdefense™ City Block Broad Spectrum SPF 50 Daily Energy + Face Protector</t>
+  </si>
+  <si>
+    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126259/gift-center/all-gifts-sets/daily-age-repair-set-cleanse-exfoliate-hydrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1623/4802/mens/shave/clinique-for-mentm-cream-shave</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1626/86689/mens/skin-care/moisturize-protect/clinique-for-mentm-oil-free-moisturizer</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/1617/5190/mens/cologne/clinique-happy-for-men/clinique-happy-for-men-cologne-spray</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1611/29404/mens/3-step-mens/cleanse/clinique-for-mentm-face-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126259/gift-center/all-gifts-sets/daily-age-repair-set-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6608/mens/3-step-mens/mens-3-step/clinique-for-mentm-oil-control-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1614/29576/mens/3-step-mens/moisturize/clinique-for-mentm-moisturizing-lotion</t>
+    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1626/45042/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-activated-water-gel-concentrate</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/16422/126188/gift-center/all-gifts-sets/daily-hydration-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12943/5308/mens/skin-care/mens-de-aging/clinique-for-mentm-anti-age-eye-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/12824/59818/mens/skin-care/grooming/clinique-for-men-super-energizertm-anti-fatigue-depuffing-eye-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1624/29582/mens/shave/shave/clinique-for-mentm-aloe-shave-gel</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/67951/mens/skin-care/moisturize-protect/clinique-for-mentm-maximum-hydrator-72-hour-auto-replenishing-hydrator</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1613/6607/mens/3-step-mens/mens-3-step/clinique-for-men-exfoliating-tonic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1623/4802/mens/shave/clinique-for-mentm-cream-shave</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1614/5738/mens/3-step-mens/moisturize/clinique-for-mentm-broad-spectrum-spf-21-moisturizer</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/86690/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-wash-oily-skin-formula</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126074/gift-center/all-gifts-sets/daily-oil-free-hydration-cleanse-exfoliate-hydrate</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1611/34923/mens/3-step-mens/cleanse/clinique-for-mentm-charcoal-face-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1623/6251/mens/shave/clinique-for-men-post-shave-soother</t>
+    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1619/57010/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-oil-control</t>
   </si>
   <si>
+    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126073/gift-center/all-gifts-sets/sunny-day-skincare-and-makeup-staples</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27033/makeup/eye-shadows/all-about-shadow-quad</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1603/126252/makeup/lip-glosses/limited-edition-clinique-poptm-lip-cheek-oil-in-black-honey</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
+  </si>
+  <si>
     <t>https://www.clinique.com/product/16422/126137/gift-center/all-gifts-sets/twice-the-happy-fragrance-set</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1584/5390/fragrance/gifts/fragrance-gifts-sets/aromatics-elixir-eau-de-parfum-spray</t>
+    <t>https://www.clinique.com/product/1598/123647/makeup/eye-shadows/new-high-impact-shadow-playtm-shadow-definer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5265/makeup/blushers/blushing-blush-powder-blush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1603/106865/makeup/lip-glosses/clinique-pop-plushtm-creamy-lip-gloss</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/5276/makeup/foundations/even-bettertm-makeup-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/93578/makeup/mascara/high-impact-zero-gravitytm-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/121425/makeup/eyeliners/high-impacttm-gel-tech-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5232/makeup/mascara/lash-doubling-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27031/makeup/eye-shadows/all-about-shadowtm-single</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58211/makeup/mascara/lash-powertm-mascara-long-wearing-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/55683/makeup/brows/instant-lift-for-brows</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1592/41442/makeup/sun-kissed-face-gelee-complexion-multitasker</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/4989/makeup/foundations/superbalancedtm-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6271/makeup/powders/blended-face-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/34817/makeup/foundations/beyond-perfectingtm-foundation-concealer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116157/makeup/primers/even-bettertm-light-reflecting-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/9285/makeup/foundations/acne-solutionstm-liquid-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/106268/makeup/primers/even-bettertm-all-over-primer-and-color-corrector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126261/gift-center/all-gifts-sets/clinique-skincare-and-makeup-icons</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5730/makeup/the-brush-collection/makeup-brush-cleanser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/80532/makeup/foundations/even-better-clinicaltm-serum-foundation-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/121426/makeup/eye-shadows/all-about-shadowtm-octet</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/5169/makeup/eye-shadows/touch-base-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126184/gift-center/all-gifts-sets/summer-day-skincare-and-makeup-essentials</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/30944/makeup/blushers/chubby-stick-cheek-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16320/104214/skincare/clinique-smart/clinique-smart-clinical-repairtm-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/37389/makeup/foundations/beyond-perfectingtm-powder-foundation-concealer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/15520/makeup/lipsticks/chubby-stick-moisturizing-lip-colour-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/22759/makeup/mascara/high-impact-extreme-volume-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/101223/makeup/eyeliners/high-impacttm-easy-liquid-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/24805/makeup/mascara/high-impacttm-waterproof-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/36482/makeup/mascara/chubby-lash-fattening-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/63583/makeup/foundations/even-better-refreshtm-hydrating-and-repairing-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/64320/makeup/foundations/bb-and-cc-cream/moisture-surgetm-sheertint-hydrator-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/25255/makeup/foundations/bb-and-cc-cream/moisture-surgetm-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5375/skincare/cleansers-makeup-removers/acne-solutions-cleansing-foam</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/12313/makeup/eyeliners/quicklinertm-for-eyes-intense-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1604/4771/makeup/lip-liner/quickliner-for-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27035/makeup/eye-shadows/all-about-shadowtm-primer-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/36585/makeup/brows/just-browsing-brush-on-styling-mousse</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34748/makeup/contouring/chubby-stick-sculpting-highlight</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1596/76702/makeup/concealers/even-bettertm-all-over-concealer-eraser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14346/34749/makeup/contouring/chubby-stick-sculpting-contour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/5634/makeup/brows/brow-shaper</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15504/3-step/step-2-exfoliate/clarifying-lotion-4/refreshing-exfoliator-for-oily-skin-types</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4923/makeup/the-brush-collection/foundation-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/4770/makeup/eyeliners/quicklinertm-for-eyes-eyeliner</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4869/makeup/the-brush-collection/blush-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6349/makeup/the-brush-collection/bronzerblender-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6344/makeup/the-brush-collection/eye-shadow-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1598/27032/makeup/eye-shadows/all-about-shadowtm-duo</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/29770/makeup/blushers/cheek-poptm-powder-blush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/6139/makeup/the-brush-collection/eye-shader-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1659/48282/sun-protection-self-tanners/broad-spectrum-spf-30-sunscreen-oil-free-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/26651/skincare/moisturizers/dramatically-different-moisturizing-lotiontm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/5236/makeup/mascara/lash-building-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/4807/skincare/hand-body-care/sparkle-skin-body-exfoliating-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/87057/skincare/serum/clinique-smart-clinical-repairtm-wrinkle-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/6069/makeup/powders/stay-matte-sheer-pressed-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/106479/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-1-2</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/94055/skincare/eye-care/clinique-smart-clinical-repairtm-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15502/skincare/exfoliators/clarifying-lotion-2/exfoliates-to-balance-dry-combination-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1607/40619/makeup/powders/stay-matte-universal-blotting-powder</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/21954/makeup/foundations/stay-matte-oil-free-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1667/9423/skincare/all-about-eyestm-serum-de-puffing-eye-massage</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/115975/skincare/moisturizers/moisture-surgetm-broad-spectrum-spf-28-sheer-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/68008/skincare/serum/even-better-clinicaltm-radical-dark-spot-corrector-interrupter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/15601/skincare/eye-care/all-about-eyestm-rich-eye-cream-with-hyaluronic-acid</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/6077/makeup/foundations/superpowder-double-face-makeup</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/79628/skincare/moisturizers/moisture-surgetm-intense-72h-lipid-replenishing-hydrator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/6424/skincare/makeup-removers/take-the-day-off-cleansing-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/118379/skincare/moisturizers/clinique-smart-clinical-repairtm-lifting-face-neck-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6254/skincare/cleansers-makeup-removers/all-about-cleantm-rinse-off-foaming-cleanser</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1572/4792/3-step/step-1-cleanse/facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1597/6140/makeup/eyeliners/cream-shaper-for-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14706/24569/skincare/masks/moisture-surge-overnight-mask</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5553/skincare/redness/redness-solutions-redness-regimen</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/4976/skincare/exfoliators/acne-solutions-clarifying-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1606/58212/makeup/mascara/bottom-lash-mascara</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83735/skincare/exfoliators/all-about-cleantm-2-in-1-cleansing-exfoliating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/12934/skincare/redness/redness-solutions-instant-relief-mineral-pressed-powder-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1676/32630/skincare/de-aging/repair-247/repairweartm-anti-gravity-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/37483/skincare/moisturizers/clinique-smarttm-broad-spectrum-spf-15-custom-repair-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1594/5737/makeup/bronzers/true-bronzetm-pressed-powder-bronzer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/22695/skincare/eye-care/even-better-eyestm-dark-circle-corrector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/15503/skincare/exfoliators/clarifying-lotion-3/exfoliates-to-balance-combination-oily-skins</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/41982/skincare/exfoliators/clarifying-lotion-10-twice-a-day-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56037/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-self-heating-blackhead-extractor</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5954/makeup/the-brush-collection/eye-definer-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/5953/makeup/the-brush-collection/powder-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/103171/skincare/exfoliators/clarifying-do-over-peel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5861/sun-protection-self-tanners/sun-protection/city-block-sheer-oil-free-daily-face-protector-broad-spectrum-spf-25</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/58208/3-step/step-3-moisturize/dramatically-differenttm-hydrating-jelly</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/38171/skincare/cleansers-makeup-removers/extra-gentle-cleansing-foam</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/6555/skincare/cleansers-makeup-removers/take-the-day-off-cleansing-oil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6089/skincare/hand-body-care/deep-comforttm-body-butter</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1574/34679/3-step/step-3-moisturize/dramatically-different-moisturizing-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/6768/skincare/hand-body-care/deep-comfort-hand-and-cuticle-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6008/skincare/redness/redness-solutions-daily-protective-base-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/64270/skincare/eye-care/moisture-surge-eyetm-96-hour-hydro-filler-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/37235/skincare/eye-care/repairwear-laser-focus-wrinkle-correcting-eye-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/47339/sun-protection-self-tanners/sun-protection/clinique-pep-starttm-daily-uv-protector-broad-spectrum-spf-50</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/103370/skincare/watery-lotions/moisture-surgetm-hydro-infused-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1593/5164/makeup/blushers/soft-pressed-powder-blusher</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/14666/106905/skincare/watery-lotions/even-bettertm-brightening-essence-lotion</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/18919/43162/skincare/fresh-pressed/clinique-fresh-pressedtm-renewing-powder-cleanser-with-pure-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/6277/skincare/exfoliators/exfoliating-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/25356/64269/skincare/lip-care/moisture-surgetm-lip-hydro-plump-treatment</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1626/29405/mens/skin-care/moisturize-protect/clinique-for-mentm-anti-age-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/126256/gift-center/all-gifts-sets/good-to-glow-all-in-one-face-palette</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104218/gift-center/all-gifts-sets/skin-school-supplies-glowing-skin-essentials</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1599/61087/makeup/foundations/almost-powder-makeup-broad-spectrum-spf-18</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1619/57009/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-intense-hydration</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/1577/59276/fragrance/clinique-my-happytm-cocoa-cashmere</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/123653/fragrance/clinique-happy-in-paradisetm-limited-edition-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/16422/126251/gift-center/all-gifts-sets/perfectly-happy-fragrance-and-makeup-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1605/123645/makeup/lipsticks/clinique-poptm-longwear-lipstick</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1584/57547/fragrance/gifts/fragrance-gifts-sets/clinique-happy-hearttm-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1619/57011/mens/gifts/mens-gifts-sets/clinique-for-mentm-starter-kit-daily-age-repair</t>
+    <t>https://www.clinique.com/product/1597/41979/makeup/eyeliners/high-impacttm-custom-black-kajal</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106904/skincare/moisturizers/even-better-clinicaltm-brightening-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5380/skincare/cleansers-makeup-removers/take-the-day-offtm-makeup-remover-for-lids-lashes-lips</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/123646/skincare/moisturizers/clinique-smart-clinical-repairtm-broad-spectrum-spf-30-wrinkle-correcting-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/121190/gift-center/all-gifts-sets/easy-eye-duo-set</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/8279/skincare/cleansers-makeup-removers/all-about-cleantm-liquid-facial-soap</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5449/skincare/moisturizers/moisture-surge-face-spray-thirsty-skin-relief</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1682/83736/skincare/exfoliators/all-about-cleantm-2-in-1-charcoal-mask-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/106898/skincare/makeup-removers/take-the-day-offtm-charcoal-cleansing-balm</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/6007/skincare/redness/redness-solutions-daily-relief-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/5800/skincare/redness/redness-solutions-soothing-cleanser-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/34750/skincare/acne/acne-solutions-cleansing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1680/46673/skincare/dullness/daily-renewal/turnaround-accelerated-renewal-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1689/13188/skincare/redness/redness-solutions-makeup-broad-spectrum-spf-15-with-probiotic-technology</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1680/34020/skincare/dullness/daily-renewal/turnaroundtm-overnight-revitalizing-moisturizer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/45043/skincare/moisturizers/moisture-surgetm-hydrating-supercharged-concentrate</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/12518/39687/makeup/the-brush-collection/face-brushes/foundation-buff-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16741/56035/skincare/blackhead-solutions-acne-solutionstm/blackhead-solutions-7-day-deep-pore-cleanse-scrub</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1608/4868/makeup/the-brush-collection/concealer-brush</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/5854/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-face-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/20011/40885/skincare/makeup-removers/take-the-day-offtm-micellar-cleansing-towelettes-for-face-eyes</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5192/skincare/hand-body-care/deep-comforttm-body-moisture</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/4972/sun-protection-self-tanners/sun-protection/broad-spectrum-spf-50-sunscreen-body-cream</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/18919/43160/skincare/fresh-pressed/clinique-fresh-pressedtm-daily-booster-with-pure-vitamin-c-10</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1686/5620/skincare/hand-body-care/sparkle-skin-body-exfoliator</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1683/4769/skincare/eye-care/all-about-eyestm-eye-cream-with-vitamin-c</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/16422/104241/gift-center/all-gifts-sets/skin-school-supplies-cleanser-refresher-course-type-3-4</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1572/31328/3-step/step-1-cleanse/clinique-sonic-system-purifying-cleansing-brush-head</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/5047/skincare/moisturizers/dramatically-differenttm-moisturizing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1605/60030/makeup/lipsticks/dramatically-differenttm-lipstick-shaping-lip-colour</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/106878/skincare/moisturizers/even-bettertm-brightening-moisturizer-spf-20</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1672/29793/skincare/acne/treatment-specialists/acne-solutionstm-clinical-clearing-gel</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1595/101794/makeup/brows/quicklinertm-for-brows-eyebrow-pencil</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1668/40880/skincare/acne/acne-solutionstm-acne-line-correcting-serum</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1687/22875/skincare/moisturizers/repairwear-uplifting-firming-cream-broad-spectrum-spf-15</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/76253/skincare/cleansers-makeup-removers/all-about-cleantm-all-in-one-cleansing-micellar-milk-makeup-remover</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11265/116217/makeup/primers/even-bettertm-pore-defying-primer</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/5864/skincare/cleansers-makeup-removers/rinse-off-eye-makeup-solvent</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/40650/sun-protection-self-tanners/sun-protection/spf-50-mineral-sunscreen-fluid-for-face</t>
   </si>
   <si>
     <t>https://www.clinique.com/product/1577/81183/fragrance/clinique-my-happytmcookies-kisses</t>
   </si>
   <si>
-    <t>https://www.clinique.com/product/16422/121021/gift-center/all-gifts-sets/perfectly-happy-fragrance-set</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81184/fragrance/clinique-my-happytmbaby-bouquet</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/5189/fragrance/clinique-happy/clinique-happy-body-wash</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/13146/44575/fragrance/clinique-happy-in-bloom/clinique-happy-in-bloomtm-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15858/34311/fragrance/aromatics-in-white/aromatics-in-white</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/6072/fragrance/clinique-happy/clinique-happy-body-cream</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1686/6776/skincare/hand-body-care/aromatics-elixirtm-body-smoother</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/120357/makeup/mascara/high-impact-high-fitm-full-volume-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1606/5416/makeup/mascara/high-impact-mascara</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/81181/fragrance/clinique-my-happytmindigo-mist</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59275/fragrance/clinique-my-happytmlily-of-the-beach</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/11971/28361/fragrance/calyx/calyx-eau-de-parfum-spray</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1579/31493/fragrance/clinique-happy/clinique-happy-perfume-rollerball</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/15859/37671/fragrance/aromatics-in-black/aromatics-in-black</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1577/59274/fragrance/clinique-my-happytm-peony-picnic</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1603/126252/makeup/lip-glosses/limited-edition-clinique-poptm-lip-cheek-oil-in-black-honey</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1612/5414/mens/3-step-mens/cleanse-exfoliate/clinique-for-mentm-face-scrub</t>
-  </si>
-  <si>
-    <t>https://www.clinique.com/product/1626/59816/mens/skin-care/moisturize-protect/clinique-for-men-super-energizertm-anti-fatigue-hydrating-concentrate-broad-spectrum-spf-25</t>
+    <t>https://www.clinique.com/product/1673/5003/skincare/cleansers-makeup-removers/7-day-scrub-cream-rinse-off-formula</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1673/121428/skincare/cleansers-makeup-removers/new-take-the-day-offtm-facial-cleansing-mousse</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/4034/81833/skincare/serum/clinique-smart-nighttm-clinical-md-multi-dimensional-repair-treatment-retinol</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1661/72241/sun-protection-self-tanners/sun-protection/superdefensetm-city-block-broad-spectrum-spf-50-daily-energy-face-protector</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/11480/19517/makeup/foundations/bb-and-cc-cream/age-defense-bb-cream-broad-spectrum-spf-30</t>
+  </si>
+  <si>
+    <t>https://www.clinique.com/product/1573/15501/3-step/step-2-exfoliate/clarifying-lotion-1/gently-comfortably-exfoliates-dry-skins</t>
+  </si>
+  <si>
+    <t>V90R01</t>
+  </si>
+  <si>
+    <t>Z4KH01</t>
+  </si>
+  <si>
+    <t>65EM01</t>
+  </si>
+  <si>
+    <t>ZF7E01</t>
+  </si>
+  <si>
+    <t>KJ8H01</t>
+  </si>
+  <si>
+    <t>V90T01</t>
+  </si>
+  <si>
+    <t>Z21901</t>
+  </si>
+  <si>
+    <t>K6K701</t>
+  </si>
+  <si>
+    <t>6TCR01</t>
+  </si>
+  <si>
+    <t>Z4RN01</t>
+  </si>
+  <si>
+    <t>V3KX01</t>
+  </si>
+  <si>
+    <t>6FWR01</t>
+  </si>
+  <si>
+    <t>V90M01</t>
+  </si>
+  <si>
+    <t>67FE01</t>
+  </si>
+  <si>
+    <t>67F901</t>
   </si>
   <si>
     <t>V2Y701</t>
   </si>
   <si>
+    <t>65EN01</t>
+  </si>
+  <si>
     <t>62YL01</t>
   </si>
   <si>
-    <t>Z4KH01</t>
-  </si>
-  <si>
-    <t>V90T01</t>
-  </si>
-  <si>
-    <t>65EN01</t>
-  </si>
-  <si>
-    <t>Z21901</t>
+    <t>K6KW01</t>
+  </si>
+  <si>
+    <t>651705</t>
   </si>
   <si>
     <t>K0CG01</t>
   </si>
   <si>
-    <t>V90M01</t>
-  </si>
-  <si>
-    <t>6TCR01</t>
-  </si>
-  <si>
-    <t>K6KW01</t>
-  </si>
-  <si>
-    <t>Z4RN01</t>
-  </si>
-  <si>
-    <t>KJ8H01</t>
-  </si>
-  <si>
-    <t>65EM01</t>
-  </si>
-  <si>
-    <t>67FE01</t>
-  </si>
-  <si>
-    <t>6FWR01</t>
-  </si>
-  <si>
-    <t>V3KX01</t>
-  </si>
-  <si>
-    <t>V90R01</t>
-  </si>
-  <si>
-    <t>ZF7E01</t>
-  </si>
-  <si>
-    <t>651705</t>
+    <t>K8GP01</t>
   </si>
   <si>
     <t>V2YF01</t>
   </si>
   <si>
+    <t>VA3JY3</t>
+  </si>
+  <si>
+    <t>VC7G01</t>
+  </si>
+  <si>
+    <t>660601</t>
+  </si>
+  <si>
+    <t>K8GM01</t>
+  </si>
+  <si>
+    <t>V6W001</t>
+  </si>
+  <si>
+    <t>VCFH01</t>
+  </si>
+  <si>
+    <t>K2K801</t>
+  </si>
+  <si>
+    <t>K8GN01</t>
+  </si>
+  <si>
+    <t>V12H01</t>
+  </si>
+  <si>
+    <t>VCGA80</t>
+  </si>
+  <si>
+    <t>ZJ4P01</t>
+  </si>
+  <si>
+    <t>64MG01</t>
+  </si>
+  <si>
+    <t>661002</t>
+  </si>
+  <si>
+    <t>Z79J01</t>
+  </si>
+  <si>
+    <t>Z8K901</t>
+  </si>
+  <si>
+    <t>VCWL01</t>
+  </si>
+  <si>
+    <t>V20S04</t>
+  </si>
+  <si>
+    <t>V82P01</t>
+  </si>
+  <si>
     <t>VCFJ01</t>
   </si>
   <si>
-    <t>661002</t>
+    <t>V9E501</t>
+  </si>
+  <si>
+    <t>KNCE01</t>
+  </si>
+  <si>
+    <t>6FLK08</t>
+  </si>
+  <si>
+    <t>V68K07</t>
+  </si>
+  <si>
+    <t>6MNY39</t>
+  </si>
+  <si>
+    <t>V4TC01</t>
+  </si>
+  <si>
+    <t>VEH801</t>
+  </si>
+  <si>
+    <t>634C01</t>
+  </si>
+  <si>
+    <t>VCWG3W</t>
+  </si>
+  <si>
+    <t>61MT01</t>
+  </si>
+  <si>
+    <t>KGMR04</t>
+  </si>
+  <si>
+    <t>V20Q03</t>
+  </si>
+  <si>
+    <t>ZXR401</t>
+  </si>
+  <si>
+    <t>K6EE03</t>
+  </si>
+  <si>
+    <t>Z9F201</t>
+  </si>
+  <si>
+    <t>ZMAT01</t>
+  </si>
+  <si>
+    <t>KXJA32</t>
+  </si>
+  <si>
+    <t>V19320</t>
+  </si>
+  <si>
+    <t>Z9FF0A</t>
+  </si>
+  <si>
+    <t>V6W801</t>
+  </si>
+  <si>
+    <t>V93A41</t>
+  </si>
+  <si>
+    <t>KTAY01</t>
+  </si>
+  <si>
+    <t>VCGJ01</t>
+  </si>
+  <si>
+    <t>6F4G01</t>
+  </si>
+  <si>
+    <t>KNCH01</t>
+  </si>
+  <si>
+    <t>KNXW41</t>
+  </si>
+  <si>
+    <t>VCX001</t>
+  </si>
+  <si>
+    <t>633917</t>
+  </si>
+  <si>
+    <t>VCFW80</t>
+  </si>
+  <si>
+    <t>Z47M02</t>
+  </si>
+  <si>
+    <t>V46R01</t>
+  </si>
+  <si>
+    <t>ZGH6AA</t>
+  </si>
+  <si>
+    <t>749K28</t>
+  </si>
+  <si>
+    <t>7LYW01</t>
+  </si>
+  <si>
+    <t>V4R303</t>
+  </si>
+  <si>
+    <t>V16K01</t>
+  </si>
+  <si>
+    <t>V16J01</t>
+  </si>
+  <si>
+    <t>K73301</t>
+  </si>
+  <si>
+    <t>KEX901</t>
+  </si>
+  <si>
+    <t>7WCP07</t>
+  </si>
+  <si>
+    <t>V4NM01</t>
+  </si>
+  <si>
+    <t>V16H11</t>
+  </si>
+  <si>
+    <t>V7HJ20</t>
+  </si>
+  <si>
+    <t>7W5C01</t>
+  </si>
+  <si>
+    <t>ZGH501</t>
+  </si>
+  <si>
+    <t>ZA1N01</t>
+  </si>
+  <si>
+    <t>KF5441</t>
+  </si>
+  <si>
+    <t>ZCP701</t>
+  </si>
+  <si>
+    <t>634607</t>
+  </si>
+  <si>
+    <t>76X601</t>
+  </si>
+  <si>
+    <t>6L6W01</t>
+  </si>
+  <si>
+    <t>62A405</t>
+  </si>
+  <si>
+    <t>6F4601</t>
+  </si>
+  <si>
+    <t>6G8A01</t>
+  </si>
+  <si>
+    <t>6F4901</t>
+  </si>
+  <si>
+    <t>VCWH20</t>
+  </si>
+  <si>
+    <t>V17510</t>
+  </si>
+  <si>
+    <t>6F4801</t>
+  </si>
+  <si>
+    <t>ZPYH01</t>
+  </si>
+  <si>
+    <t>Z87101</t>
+  </si>
+  <si>
+    <t>6CLW01</t>
+  </si>
+  <si>
+    <t>6AWM01</t>
+  </si>
+  <si>
+    <t>V4NW01</t>
+  </si>
+  <si>
+    <t>645J01</t>
+  </si>
+  <si>
+    <t>V5P701</t>
+  </si>
+  <si>
+    <t>V1AX01</t>
+  </si>
+  <si>
+    <t>V29101</t>
+  </si>
+  <si>
+    <t>ZKNM01</t>
+  </si>
+  <si>
+    <t>7KXC01</t>
+  </si>
+  <si>
+    <t>71JL01</t>
+  </si>
+  <si>
+    <t>V7Y701</t>
+  </si>
+  <si>
+    <t>V19P01</t>
+  </si>
+  <si>
+    <t>6KAK01</t>
+  </si>
+  <si>
+    <t>647J07</t>
+  </si>
+  <si>
+    <t>KPR601</t>
+  </si>
+  <si>
+    <t>KAJ701</t>
+  </si>
+  <si>
+    <t>V6H101</t>
+  </si>
+  <si>
+    <t>V29001</t>
+  </si>
+  <si>
+    <t>603402</t>
+  </si>
+  <si>
+    <t>6FP203</t>
+  </si>
+  <si>
+    <t>7NR501</t>
+  </si>
+  <si>
+    <t>6MN401</t>
+  </si>
+  <si>
+    <t>6K0G01</t>
+  </si>
+  <si>
+    <t>KGN401</t>
+  </si>
+  <si>
+    <t>KY5J01</t>
+  </si>
+  <si>
+    <t>72M701</t>
+  </si>
+  <si>
+    <t>ZCAC01</t>
+  </si>
+  <si>
+    <t>Z5CM01</t>
+  </si>
+  <si>
+    <t>6FW203</t>
+  </si>
+  <si>
+    <t>7JHT01</t>
+  </si>
+  <si>
+    <t>V29201</t>
+  </si>
+  <si>
+    <t>ZMY201</t>
+  </si>
+  <si>
+    <t>ZR1601</t>
+  </si>
+  <si>
+    <t>6F4A01</t>
+  </si>
+  <si>
+    <t>6F4501</t>
+  </si>
+  <si>
+    <t>V48M01</t>
+  </si>
+  <si>
+    <t>6KF501</t>
+  </si>
+  <si>
+    <t>KFP501</t>
+  </si>
+  <si>
+    <t>ZKTK01</t>
+  </si>
+  <si>
+    <t>6H9K01</t>
+  </si>
+  <si>
+    <t>69RT01</t>
+  </si>
+  <si>
+    <t>Z56H01</t>
+  </si>
+  <si>
+    <t>6W3T01</t>
+  </si>
+  <si>
+    <t>6LJ401</t>
+  </si>
+  <si>
+    <t>KH9701</t>
+  </si>
+  <si>
+    <t>ZK4K01</t>
+  </si>
+  <si>
+    <t>K2W901</t>
+  </si>
+  <si>
+    <t>V1L601</t>
+  </si>
+  <si>
+    <t>618J02</t>
+  </si>
+  <si>
+    <t>V40K01</t>
+  </si>
+  <si>
+    <t>ZWGP01</t>
+  </si>
+  <si>
+    <t>616402</t>
+  </si>
+  <si>
+    <t>KJR301</t>
+  </si>
+  <si>
+    <t>V12F01</t>
+  </si>
+  <si>
+    <t>VCFA01</t>
+  </si>
+  <si>
+    <t>V5P301</t>
+  </si>
+  <si>
+    <t>K78501</t>
   </si>
   <si>
     <t>K77L01</t>
   </si>
   <si>
-    <t>K8GP01</t>
-  </si>
-  <si>
-    <t>VC7G01</t>
-  </si>
-  <si>
-    <t>VCFH01</t>
-  </si>
-  <si>
-    <t>V6W001</t>
-  </si>
-  <si>
-    <t>K2K801</t>
-  </si>
-  <si>
-    <t>V12H01</t>
+    <t>ZP4R01</t>
+  </si>
+  <si>
+    <t>V3TA01</t>
+  </si>
+  <si>
+    <t>60MK01</t>
+  </si>
+  <si>
+    <t>V7XR01</t>
+  </si>
+  <si>
+    <t>VA46Y3</t>
+  </si>
+  <si>
+    <t>V28Y01</t>
+  </si>
+  <si>
+    <t>KWY701</t>
+  </si>
+  <si>
+    <t>KYNW01</t>
+  </si>
+  <si>
+    <t>V73501</t>
+  </si>
+  <si>
+    <t>6L4P01</t>
+  </si>
+  <si>
+    <t>6L4N01</t>
+  </si>
+  <si>
+    <t>Z6G801</t>
+  </si>
+  <si>
+    <t>K1MH01</t>
+  </si>
+  <si>
+    <t>70JW01</t>
+  </si>
+  <si>
+    <t>V12K01</t>
+  </si>
+  <si>
+    <t>ZY0R01</t>
+  </si>
+  <si>
+    <t>ZWJF01</t>
+  </si>
+  <si>
+    <t>ZR0N01</t>
+  </si>
+  <si>
+    <t>6F4701</t>
+  </si>
+  <si>
+    <t>6NH701</t>
+  </si>
+  <si>
+    <t>ZM7A01</t>
+  </si>
+  <si>
+    <t>V12G01</t>
+  </si>
+  <si>
+    <t>6NHF01</t>
+  </si>
+  <si>
+    <t>ZN9H01</t>
+  </si>
+  <si>
+    <t>63WY01</t>
+  </si>
+  <si>
+    <t>61EP01</t>
+  </si>
+  <si>
+    <t>V5P801</t>
+  </si>
+  <si>
+    <t>Z63R01</t>
+  </si>
+  <si>
+    <t>6EM701</t>
+  </si>
+  <si>
+    <t>K4XH01</t>
+  </si>
+  <si>
+    <t>V71301</t>
+  </si>
+  <si>
+    <t>7WJ801</t>
+  </si>
+  <si>
+    <t>V4N204</t>
+  </si>
+  <si>
+    <t>ZH0601</t>
+  </si>
+  <si>
+    <t>7JJ001</t>
+  </si>
+  <si>
+    <t>KL6901</t>
+  </si>
+  <si>
+    <t>V7HH01</t>
+  </si>
+  <si>
+    <t>614701</t>
+  </si>
+  <si>
+    <t>ZJYR01</t>
   </si>
   <si>
     <t>KNCG01</t>
   </si>
   <si>
-    <t>VA3JY3</t>
-  </si>
-  <si>
-    <t>KNCH01</t>
-  </si>
-  <si>
-    <t>61MT01</t>
-  </si>
-  <si>
-    <t>ZXR401</t>
-  </si>
-  <si>
-    <t>Z9F201</t>
-  </si>
-  <si>
-    <t>64MG01</t>
-  </si>
-  <si>
-    <t>660601</t>
-  </si>
-  <si>
-    <t>V82P01</t>
-  </si>
-  <si>
-    <t>V20Q03</t>
-  </si>
-  <si>
-    <t>KNCE01</t>
-  </si>
-  <si>
-    <t>K8GN01</t>
-  </si>
-  <si>
-    <t>Z79J01</t>
-  </si>
-  <si>
-    <t>Z8K901</t>
-  </si>
-  <si>
-    <t>ZJ4P01</t>
-  </si>
-  <si>
-    <t>K8GM01</t>
-  </si>
-  <si>
-    <t>V20S04</t>
-  </si>
-  <si>
-    <t>67F901</t>
-  </si>
-  <si>
-    <t>K6K701</t>
+    <t>V4NK01</t>
+  </si>
+  <si>
+    <t>VAGH01</t>
+  </si>
+  <si>
+    <t>KT9L01</t>
+  </si>
+  <si>
+    <t>KHWR01</t>
+  </si>
+  <si>
+    <t>7KYL02</t>
+  </si>
+  <si>
+    <t>76X201</t>
   </si>
 </sst>
 </file>
@@ -831,7 +2253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,13 +2284,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -876,16 +2298,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C3">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -893,16 +2315,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -910,16 +2332,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -927,16 +2349,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -944,16 +2366,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -961,16 +2383,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -978,16 +2400,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1001,10 +2423,10 @@
         <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1012,16 +2434,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1029,16 +2451,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1046,16 +2468,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1063,16 +2485,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1086,10 +2508,10 @@
         <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1097,16 +2519,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1117,13 +2539,13 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1131,21 +2553,21 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>4.7</v>
@@ -1154,32 +2576,32 @@
         <v>172</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="C20">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>4.6</v>
@@ -1188,129 +2610,129 @@
         <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="C24">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>4.7</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="C26">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1318,16 +2740,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1335,16 +2757,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="C30">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1352,16 +2774,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1369,16 +2791,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1386,16 +2808,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1403,16 +2825,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1420,16 +2842,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1437,16 +2859,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C36">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1454,16 +2876,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C37">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1471,16 +2893,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>549</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1488,16 +2910,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="C39">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1505,16 +2927,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="C40">
-        <v>1364</v>
+        <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1522,16 +2944,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="C41">
-        <v>3070</v>
+        <v>317</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1539,16 +2961,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1556,16 +2978,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>1364</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1573,16 +2995,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1590,16 +3012,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="C45">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1607,16 +3029,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1624,16 +3046,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1641,16 +3063,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1661,13 +3083,13 @@
         <v>4.5</v>
       </c>
       <c r="C49">
-        <v>191</v>
+        <v>2339</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1675,16 +3097,2821 @@
         <v>52</v>
       </c>
       <c r="B50">
+        <v>3.1</v>
+      </c>
+      <c r="C50">
+        <v>59</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>3.9</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>4.2</v>
+      </c>
+      <c r="C52">
+        <v>389</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>4.2</v>
+      </c>
+      <c r="C53">
+        <v>313</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>4.8</v>
+      </c>
+      <c r="C54">
+        <v>56</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>3.9</v>
+      </c>
+      <c r="C55">
+        <v>259</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>4.6</v>
+      </c>
+      <c r="C56">
+        <v>3070</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>4.8</v>
+      </c>
+      <c r="C57">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>3.1</v>
+      </c>
+      <c r="C58">
+        <v>81</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>4.2</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>3.8</v>
+      </c>
+      <c r="C60">
+        <v>99</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>4.5</v>
+      </c>
+      <c r="C61">
+        <v>845</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>4.5</v>
+      </c>
+      <c r="C62">
+        <v>921</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>4.2</v>
+      </c>
+      <c r="C63">
+        <v>1479</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E63" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>2.8</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>4.4</v>
+      </c>
+      <c r="C65">
+        <v>1105</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>3.2</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>4.8</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E67" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>4.5</v>
+      </c>
+      <c r="C68">
+        <v>136</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>4.5</v>
+      </c>
+      <c r="C69">
+        <v>26</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
         <v>4.3</v>
       </c>
-      <c r="C50">
+      <c r="C70">
+        <v>3653</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>4.5</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>4.3</v>
+      </c>
+      <c r="C72">
+        <v>984</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E72" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E73" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>4.6</v>
+      </c>
+      <c r="C74">
+        <v>519</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>4.4</v>
+      </c>
+      <c r="C75">
+        <v>2209</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>4.3</v>
+      </c>
+      <c r="C76">
+        <v>279</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>4.6</v>
+      </c>
+      <c r="C77">
+        <v>2697</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>4.1</v>
+      </c>
+      <c r="C78">
+        <v>337</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E78" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>4.1</v>
+      </c>
+      <c r="C79">
+        <v>54</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E79" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>4.1</v>
+      </c>
+      <c r="C80">
+        <v>258</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E80" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>4.3</v>
+      </c>
+      <c r="C81">
+        <v>390</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E81" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>3.9</v>
+      </c>
+      <c r="C82">
+        <v>201</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E82" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>3.6</v>
+      </c>
+      <c r="C83">
+        <v>174</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>4.2</v>
+      </c>
+      <c r="C84">
+        <v>882</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E84" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>4.6</v>
+      </c>
+      <c r="C85">
+        <v>979</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>4.2</v>
+      </c>
+      <c r="C86">
+        <v>824</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>4.4</v>
+      </c>
+      <c r="C87">
+        <v>430</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>3.5</v>
+      </c>
+      <c r="C88">
+        <v>134</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E88" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>3.5</v>
+      </c>
+      <c r="C89">
+        <v>158</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>4.6</v>
+      </c>
+      <c r="C90">
+        <v>153</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>3.3</v>
+      </c>
+      <c r="C91">
+        <v>216</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E91" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>4.2</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E92" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>4.4</v>
+      </c>
+      <c r="C93">
+        <v>417</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>4.8</v>
+      </c>
+      <c r="C94">
+        <v>191</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>4.6</v>
+      </c>
+      <c r="C95">
+        <v>184</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E95" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>4.4</v>
+      </c>
+      <c r="C96">
+        <v>1756</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>4.8</v>
+      </c>
+      <c r="C97">
+        <v>81</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>3.9</v>
+      </c>
+      <c r="C98">
+        <v>69</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E98" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>4.8</v>
+      </c>
+      <c r="C99">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E99" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>4.2</v>
+      </c>
+      <c r="C100">
+        <v>404</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E100" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>4.7</v>
+      </c>
+      <c r="C101">
+        <v>512</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>4.8</v>
+      </c>
+      <c r="C102">
+        <v>36</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E102" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>4.3</v>
+      </c>
+      <c r="C103">
+        <v>93</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E103" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>4.4</v>
+      </c>
+      <c r="C104">
+        <v>10218</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>4.6</v>
+      </c>
+      <c r="C105">
+        <v>78</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E105" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>4.8</v>
+      </c>
+      <c r="C106">
+        <v>201</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E106" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>4.2</v>
+      </c>
+      <c r="C107">
+        <v>2481</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E107" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>4.7</v>
+      </c>
+      <c r="C108">
+        <v>1105</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E108" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>4.6</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>4.6</v>
+      </c>
+      <c r="C110">
+        <v>2394</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E110" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>4.7</v>
+      </c>
+      <c r="C111">
+        <v>4558</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112">
+        <v>4.9</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>4.5</v>
+      </c>
+      <c r="C113">
+        <v>88</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E113" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>4.2</v>
+      </c>
+      <c r="C114">
+        <v>776</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E114" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>4.2</v>
+      </c>
+      <c r="C115">
+        <v>613</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E115" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>3.9</v>
+      </c>
+      <c r="C116">
+        <v>74</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E116" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>4.2</v>
+      </c>
+      <c r="C117">
+        <v>673</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E117" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>4.6</v>
+      </c>
+      <c r="C118">
+        <v>2571</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E118" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>4.7</v>
+      </c>
+      <c r="C119">
+        <v>648</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E119" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>3.5</v>
+      </c>
+      <c r="C120">
+        <v>334</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E120" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>4.7</v>
+      </c>
+      <c r="C121">
+        <v>1576</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E121" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>4.3</v>
+      </c>
+      <c r="C122">
+        <v>496</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E122" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>4.7</v>
+      </c>
+      <c r="C123">
+        <v>1416</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E123" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>4.5</v>
+      </c>
+      <c r="C124">
+        <v>604</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E124" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>4.4</v>
+      </c>
+      <c r="C125">
+        <v>461</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E125" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>4.7</v>
+      </c>
+      <c r="C126">
+        <v>782</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E126" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>4.5</v>
+      </c>
+      <c r="C127">
+        <v>272</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E127" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>4.7</v>
+      </c>
+      <c r="C128">
+        <v>648</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E128" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>4.6</v>
+      </c>
+      <c r="C129">
+        <v>57</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E129" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>4.4</v>
+      </c>
+      <c r="C130">
+        <v>105</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E130" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>3.8</v>
+      </c>
+      <c r="C131">
+        <v>246</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E131" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>4.4</v>
+      </c>
+      <c r="C132">
+        <v>335</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E132" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>4.2</v>
+      </c>
+      <c r="C133">
+        <v>215</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E133" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>4.6</v>
+      </c>
+      <c r="C134">
+        <v>325</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E134" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>3.9</v>
+      </c>
+      <c r="C135">
+        <v>521</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E135" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>4.6</v>
+      </c>
+      <c r="C136">
+        <v>757</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E136" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>3.4</v>
+      </c>
+      <c r="C137">
+        <v>212</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E137" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>3.7</v>
+      </c>
+      <c r="C138">
+        <v>105</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>4.8</v>
+      </c>
+      <c r="C139">
+        <v>39</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E139" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>4.4</v>
+      </c>
+      <c r="C140">
+        <v>74</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>4.3</v>
+      </c>
+      <c r="C141">
+        <v>42</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E141" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>4.4</v>
+      </c>
+      <c r="C142">
+        <v>675</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E142" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>4.3</v>
+      </c>
+      <c r="C143">
+        <v>873</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E143" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>72</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E144" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>4.6</v>
+      </c>
+      <c r="C145">
+        <v>193</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E145" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>4.8</v>
+      </c>
+      <c r="C146">
+        <v>345</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E146" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>4.8</v>
+      </c>
+      <c r="C147">
+        <v>922</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E147" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>4.6</v>
+      </c>
+      <c r="C148">
+        <v>313</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E148" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>232</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>3.9</v>
+      </c>
+      <c r="C150">
+        <v>328</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E150" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>4.2</v>
+      </c>
+      <c r="C151">
+        <v>169</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E151" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>4.6</v>
+      </c>
+      <c r="C152">
+        <v>76</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E152" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>4.4</v>
+      </c>
+      <c r="C153">
+        <v>37</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E153" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>4.5</v>
+      </c>
+      <c r="C154">
+        <v>432</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E154" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>4.5</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E155" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>4.7</v>
+      </c>
+      <c r="C156">
+        <v>155</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E156" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>4.6</v>
+      </c>
+      <c r="C157">
+        <v>638</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E157" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158">
+        <v>4.4</v>
+      </c>
+      <c r="C158">
+        <v>58</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E158" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>25</v>
+      </c>
+      <c r="B159">
+        <v>4.7</v>
+      </c>
+      <c r="C159">
+        <v>57</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E159" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>4.4</v>
+      </c>
+      <c r="C160">
+        <v>210</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E160" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>3.8</v>
+      </c>
+      <c r="C161">
+        <v>64</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E161" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>3.8</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E162" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>4.8</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E163" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>75</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E164" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>4.1</v>
+      </c>
+      <c r="C165">
+        <v>200</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E165" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>4.7</v>
+      </c>
+      <c r="C166">
+        <v>33</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E166" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>4.1</v>
+      </c>
+      <c r="C167">
+        <v>93</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E167" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>2.6</v>
+      </c>
+      <c r="C168">
+        <v>45</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E168" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>4.7</v>
+      </c>
+      <c r="C169">
+        <v>2265</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E169" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>490</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E170" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>4.6</v>
+      </c>
+      <c r="C171">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E171" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>4.8</v>
+      </c>
+      <c r="C172">
+        <v>6646</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E172" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>4.7</v>
+      </c>
+      <c r="C173">
+        <v>475</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E173" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>4.5</v>
+      </c>
+      <c r="C174">
+        <v>55</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E174" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>4.2</v>
+      </c>
+      <c r="C175">
+        <v>278</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E175" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>4.5</v>
+      </c>
+      <c r="C176">
+        <v>798</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E176" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>4.2</v>
+      </c>
+      <c r="C177">
+        <v>96</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E177" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>3.9</v>
+      </c>
+      <c r="C178">
+        <v>149</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E178" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>4.6</v>
+      </c>
+      <c r="C179">
+        <v>214</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E179" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>4.6</v>
+      </c>
+      <c r="C180">
+        <v>624</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E180" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>4.6</v>
+      </c>
+      <c r="C181">
+        <v>331</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E181" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>4.5</v>
+      </c>
+      <c r="C182">
+        <v>490</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E182" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>4.7</v>
+      </c>
+      <c r="C183">
+        <v>86</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E183" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>4.4</v>
+      </c>
+      <c r="C184">
+        <v>551</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E184" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>4.4</v>
+      </c>
+      <c r="C185">
         <v>32</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>148</v>
+      <c r="D185" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E185" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>3.8</v>
+      </c>
+      <c r="C186">
+        <v>78</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E186" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>4.2</v>
+      </c>
+      <c r="C187">
+        <v>278</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E187" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>4.8</v>
+      </c>
+      <c r="C188">
+        <v>140</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>4.1</v>
+      </c>
+      <c r="C189">
+        <v>50</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E189" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>4.5</v>
+      </c>
+      <c r="C190">
+        <v>173</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E190" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>4.5</v>
+      </c>
+      <c r="C191">
+        <v>86</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E191" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192">
+        <v>4.3</v>
+      </c>
+      <c r="C192">
+        <v>32</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E192" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>4.6</v>
+      </c>
+      <c r="C193">
+        <v>2571</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E193" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194">
+        <v>4.6</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E194" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195">
+        <v>4.6</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E195" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196">
+        <v>4.7</v>
+      </c>
+      <c r="C196">
+        <v>63</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E196" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197">
+        <v>4.8</v>
+      </c>
+      <c r="C197">
+        <v>3101</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E197" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>891</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E198" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199">
+        <v>3.3</v>
+      </c>
+      <c r="C199">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E199" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200">
+        <v>4.3</v>
+      </c>
+      <c r="C200">
+        <v>4099</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E200" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201">
+        <v>2.7</v>
+      </c>
+      <c r="C201">
+        <v>58</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E201" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202">
+        <v>4.3</v>
+      </c>
+      <c r="C202">
+        <v>186</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E202" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>162</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E203" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204">
+        <v>3.7</v>
+      </c>
+      <c r="C204">
+        <v>78</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E204" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205">
+        <v>1.8</v>
+      </c>
+      <c r="C205">
+        <v>65</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E205" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206">
+        <v>4.5</v>
+      </c>
+      <c r="C206">
+        <v>374</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E206" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207">
+        <v>4.4</v>
+      </c>
+      <c r="C207">
+        <v>255</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E207" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>36</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E208" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>204</v>
+      </c>
+      <c r="B209">
+        <v>4.3</v>
+      </c>
+      <c r="C209">
+        <v>33</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E209" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>205</v>
+      </c>
+      <c r="B210">
+        <v>4.7</v>
+      </c>
+      <c r="C210">
+        <v>1367</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E210" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>206</v>
+      </c>
+      <c r="B211">
+        <v>3.6</v>
+      </c>
+      <c r="C211">
+        <v>25</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E211" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>207</v>
+      </c>
+      <c r="B212">
+        <v>3.8</v>
+      </c>
+      <c r="C212">
+        <v>110</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E212" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>208</v>
+      </c>
+      <c r="B213">
+        <v>3.3</v>
+      </c>
+      <c r="C213">
+        <v>221</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E213" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>209</v>
+      </c>
+      <c r="B214">
+        <v>4.1</v>
+      </c>
+      <c r="C214">
+        <v>495</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>210</v>
+      </c>
+      <c r="B215">
+        <v>4.6</v>
+      </c>
+      <c r="C215">
+        <v>217</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E215" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -1738,6 +5965,171 @@
     <hyperlink ref="D48" r:id="rId47"/>
     <hyperlink ref="D49" r:id="rId48"/>
     <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
